--- a/05_2nd Subimittal/zone_list_2nd.xlsx
+++ b/05_2nd Subimittal/zone_list_2nd.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\05_AfterSubmittal_change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\05_2nd Subimittal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1587E719-DFEB-4597-B20A-6C2F9B003B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C818D0C-CA65-46C1-9880-C7D507B4B914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="3105" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_list_2nd" sheetId="2" r:id="rId1"/>
-    <sheet name="zone_list" sheetId="1" r:id="rId2"/>
+    <sheet name="zone_list_1st" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">zone_list!$A$1:$J$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">zone_list_1st!$A$1:$J$183</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zone_list_2nd!$A$1:$J$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,8 +34,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={92041B2F-F118-4EEA-8D3E-DBD23CEB3235}</author>
+    <author>tc={8D8D110C-240D-403F-B2C3-C2E2C4AECE0C}</author>
+  </authors>
+  <commentList>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{92041B2F-F118-4EEA-8D3E-DBD23CEB3235}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    VRF?</t>
+      </text>
+    </comment>
+    <comment ref="I48" authorId="1" shapeId="0" xr:uid="{8D8D110C-240D-403F-B2C3-C2E2C4AECE0C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    VRF?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="437">
   <si>
     <t>Zone Names</t>
   </si>
@@ -1340,13 +1367,19 @@
   </si>
   <si>
     <t>THERMAL ZONE: STOR_0101C</t>
+  </si>
+  <si>
+    <t>SplitHP-OFFICE</t>
+  </si>
+  <si>
+    <t>SplitHP-LAUN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1464,8 +1497,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1645,6 +1684,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1806,9 +1851,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1865,6 +1912,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Hyunwoo Lim" id="{356ED1F7-C36A-4D02-A819-99FCB6035B41}" userId="de2010b060398c3e" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2162,12 +2215,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I12" dT="2020-12-01T22:54:51.00" personId="{356ED1F7-C36A-4D02-A819-99FCB6035B41}" id="{92041B2F-F118-4EEA-8D3E-DBD23CEB3235}">
+    <text>VRF?</text>
+  </threadedComment>
+  <threadedComment ref="I48" dT="2020-12-01T22:54:51.00" personId="{356ED1F7-C36A-4D02-A819-99FCB6035B41}" id="{8D8D110C-240D-403F-B2C3-C2E2C4AECE0C}">
+    <text>VRF?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665169F-D150-4A58-B4BE-D75D65FBC2ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665169F-D150-4A58-B4BE-D75D65FBC2ED}">
   <dimension ref="A1:N185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,7 +2326,7 @@
         <v>431</v>
       </c>
       <c r="F3">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>418</v>
@@ -2292,7 +2356,7 @@
         <v>431</v>
       </c>
       <c r="F4">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
         <v>418</v>
@@ -2322,7 +2386,7 @@
         <v>431</v>
       </c>
       <c r="F5">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
         <v>418</v>
@@ -2334,199 +2398,211 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_2204</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>1200</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="J6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J6" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_2205</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_FITNESS_2202</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>414</v>
       </c>
       <c r="J8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_SKYLOUNGE_2201</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>145</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_STORAGE_2204</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>400</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="2" t="str">
         <f>RIGHT(A11,LEN(A11)-FIND(": ",A11))</f>
         <v xml:space="preserve"> AMEN_SUNROOM_2203</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D11" t="s">
-        <v>388</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G11" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> CORR_0100</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>388</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F12">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="2">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I12" t="s">
-        <v>392</v>
+      <c r="I12" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2556,8 +2632,8 @@
         <v>392</v>
       </c>
       <c r="N13">
-        <f>SUM(F12:F46)</f>
-        <v>1250</v>
+        <f>SUM(F13:F19)</f>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2833,57 +2909,57 @@
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ELEV LOBBY_P100</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
-        <v>388</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F25">
-        <v>225</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="2">
+        <v>205</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ELEV LOBBY_P200</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
-        <v>388</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F26">
-        <v>225</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="2">
+        <v>205</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3187,112 +3263,121 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> FCC_0100</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D47" t="s">
-        <v>388</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>50</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> LAUNDRY_0109</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D48" t="s">
-        <v>388</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>300</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="I48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> LOBBY_0101</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D49" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>250</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50" s="2" t="str">
         <f>RIGHT(A50,LEN(A50)-FIND(": ",A50))</f>
         <v xml:space="preserve"> MAIL_0101</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D50" t="s">
-        <v>388</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>431</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3370,51 +3455,60 @@
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> OFFICE_0101</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D56" t="s">
-        <v>388</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="F56" s="2">
+        <v>115</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> PACKAGE_0100</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D57" t="s">
-        <v>388</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>20</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I57" t="s">
-        <v>415</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="J57" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -3472,30 +3566,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> RETAIL_0100</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D61" t="s">
-        <v>388</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F61">
-        <v>505</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F61" s="2">
+        <v>480</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -6174,6 +6268,7 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6181,8 +6276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/05_2nd Subimittal/zone_list_2nd.xlsx
+++ b/05_2nd Subimittal/zone_list_2nd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\05_2nd Subimittal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C818D0C-CA65-46C1-9880-C7D507B4B914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256CEB53-D304-4BBD-A8FF-819DC80F9303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="3105" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_list_2nd" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">zone_list_1st!$A$1:$J$183</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zone_list_2nd!$A$1:$J$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zone_list_2nd!$A$1:$K$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,35 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={92041B2F-F118-4EEA-8D3E-DBD23CEB3235}</author>
-    <author>tc={8D8D110C-240D-403F-B2C3-C2E2C4AECE0C}</author>
-  </authors>
-  <commentList>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{92041B2F-F118-4EEA-8D3E-DBD23CEB3235}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    VRF?</t>
-      </text>
-    </comment>
-    <comment ref="I48" authorId="1" shapeId="0" xr:uid="{8D8D110C-240D-403F-B2C3-C2E2C4AECE0C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    VRF?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="450">
   <si>
     <t>Zone Names</t>
   </si>
@@ -1369,10 +1342,49 @@
     <t>THERMAL ZONE: STOR_0101C</t>
   </si>
   <si>
-    <t>SplitHP-OFFICE</t>
-  </si>
-  <si>
-    <t>SplitHP-LAUN</t>
+    <t>OHP-GTHR</t>
+  </si>
+  <si>
+    <t>OHP-LOB</t>
+  </si>
+  <si>
+    <t>IHP-GTHR</t>
+  </si>
+  <si>
+    <t>IHP-LOB</t>
+  </si>
+  <si>
+    <t>VRF-OHP</t>
+  </si>
+  <si>
+    <t>IHP-LNDRY</t>
+  </si>
+  <si>
+    <t>IHP-OFFICE</t>
+  </si>
+  <si>
+    <t>ERV-GTHR</t>
+  </si>
+  <si>
+    <t>OHP-ELEV-1</t>
+  </si>
+  <si>
+    <t>OHP-ELEV-2</t>
+  </si>
+  <si>
+    <t>OHP-SKY</t>
+  </si>
+  <si>
+    <t>VRF-SKY-1-3</t>
+  </si>
+  <si>
+    <t>VRF-SKY-4-5</t>
+  </si>
+  <si>
+    <t>VRF-FIT</t>
+  </si>
+  <si>
+    <t>VRF-SUN</t>
   </si>
 </sst>
 </file>
@@ -1498,13 +1510,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1684,12 +1695,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1851,11 +1856,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1915,9 +1921,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Hyunwoo Lim" id="{356ED1F7-C36A-4D02-A819-99FCB6035B41}" userId="de2010b060398c3e" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2215,38 +2219,30 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I12" dT="2020-12-01T22:54:51.00" personId="{356ED1F7-C36A-4D02-A819-99FCB6035B41}" id="{92041B2F-F118-4EEA-8D3E-DBD23CEB3235}">
-    <text>VRF?</text>
-  </threadedComment>
-  <threadedComment ref="I48" dT="2020-12-01T22:54:51.00" personId="{356ED1F7-C36A-4D02-A819-99FCB6035B41}" id="{8D8D110C-240D-403F-B2C3-C2E2C4AECE0C}">
-    <text>VRF?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665169F-D150-4A58-B4BE-D75D65FBC2ED}">
-  <dimension ref="A1:N185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665169F-D150-4A58-B4BE-D75D65FBC2ED}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H126" sqref="H126:H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2275,10 +2271,13 @@
         <v>386</v>
       </c>
       <c r="J1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2305,10 +2304,13 @@
         <v>402</v>
       </c>
       <c r="J2" t="s">
+        <v>402</v>
+      </c>
+      <c r="K2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2335,10 +2337,13 @@
         <v>404</v>
       </c>
       <c r="J3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -2365,10 +2370,13 @@
         <v>406</v>
       </c>
       <c r="J4" t="s">
+        <v>406</v>
+      </c>
+      <c r="K4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2395,217 +2403,216 @@
         <v>397</v>
       </c>
       <c r="J5" t="s">
+        <v>397</v>
+      </c>
+      <c r="K5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_2204</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F6" s="2">
-        <v>1200</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="3">
+        <v>255</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_2205</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F7" s="2">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_FITNESS_2202</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F8" s="2">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_SKYLOUNGE_2201</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F9" s="2">
-        <v>145</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="3">
+        <v>535</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> AMEN_STORAGE_2204</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F10" s="2">
-        <v>400</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="3" t="str">
         <f>RIGHT(A11,LEN(A11)-FIND(": ",A11))</f>
         <v xml:space="preserve"> AMEN_SUNROOM_2203</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="3">
+        <v>120</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> CORR_0100</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F12" s="2">
-        <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>389</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2631,12 +2638,8 @@
       <c r="I13" t="s">
         <v>392</v>
       </c>
-      <c r="N13">
-        <f>SUM(F13:F19)</f>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2854,8 +2857,11 @@
       <c r="I22" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2881,8 +2887,11 @@
       <c r="I23" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2896,8 +2905,8 @@
       <c r="D24" t="s">
         <v>388</v>
       </c>
-      <c r="E24" t="s">
-        <v>431</v>
+      <c r="E24" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -2909,61 +2918,63 @@
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:10" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ELEV LOBBY_P100</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="D25" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="3">
         <v>205</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:10" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ELEV LOBBY_P200</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="D26" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F26" s="3">
         <v>205</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -2978,7 +2989,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2993,7 +3004,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -3008,7 +3019,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -3023,7 +3034,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -3038,7 +3049,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -3053,7 +3064,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -3068,7 +3079,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3083,7 +3094,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3098,7 +3109,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -3113,7 +3124,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -3128,7 +3139,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -3143,7 +3154,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -3158,7 +3169,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3173,7 +3184,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -3188,7 +3199,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3203,7 +3214,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -3218,7 +3229,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3233,7 +3244,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -3248,7 +3259,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -3263,124 +3274,125 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="str">
+      <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> FCC_0100</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F47" s="2">
-        <v>50</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="D47" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B48" s="2" t="str">
+      <c r="B48" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> LAUNDRY_0109</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="3" t="s">
         <v>418</v>
       </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="J48" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B49" s="2" t="str">
+      <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> LOBBY_0101</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D49" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F49" s="2">
-        <v>250</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="F49" s="3">
+        <f>85+215</f>
+        <v>300</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J49" s="2" t="s">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B50" s="2" t="str">
+      <c r="B50" s="3" t="str">
         <f>RIGHT(A50,LEN(A50)-FIND(": ",A50))</f>
         <v xml:space="preserve"> MAIL_0101</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D50" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="F50" s="3">
+        <v>20</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J50" s="2" t="s">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -3395,7 +3407,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -3410,7 +3422,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -3425,7 +3437,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -3440,7 +3452,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -3455,64 +3467,69 @@
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B56" s="2" t="str">
+      <c r="B56" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> OFFICE_0101</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D56" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F56" s="2">
-        <v>115</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="F56" s="3">
+        <v>30</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="J56" s="2" t="s">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="2" t="str">
+      <c r="B57" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> PACKAGE_0100</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F57" s="2">
-        <v>20</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="D57" t="s">
+        <v>389</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3">
+        <v>25</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -3530,7 +3547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -3548,7 +3565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -3566,34 +3583,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="2" t="str">
+      <c r="B61" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> RETAIL_0100</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>480</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -3608,7 +3632,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -3623,7 +3647,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -3638,7 +3662,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -3653,7 +3677,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -3668,7 +3692,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -3683,7 +3707,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -3698,7 +3722,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -3713,7 +3737,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -3728,7 +3752,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -3743,7 +3767,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -3758,7 +3782,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -3773,7 +3797,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -3788,7 +3812,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -3803,7 +3827,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -3818,7 +3842,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -3833,7 +3857,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -3848,7 +3872,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -3863,7 +3887,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -3878,7 +3902,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -3893,7 +3917,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>434</v>
       </c>
@@ -3907,8 +3931,17 @@
       <c r="D82" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>418</v>
+      </c>
+      <c r="K82" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -3923,7 +3956,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -3938,7 +3971,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>180</v>
       </c>
@@ -3953,7 +3986,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>182</v>
       </c>
@@ -3968,7 +4001,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>184</v>
       </c>
@@ -3983,7 +4016,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>186</v>
       </c>
@@ -3998,7 +4031,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -4013,7 +4046,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -4028,7 +4061,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>192</v>
       </c>
@@ -4043,7 +4076,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>195</v>
       </c>
@@ -4058,7 +4091,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>197</v>
       </c>
@@ -4073,7 +4106,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -4088,7 +4121,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>201</v>
       </c>
@@ -4103,7 +4136,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>203</v>
       </c>
@@ -4118,7 +4151,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -4141,8 +4174,11 @@
       <c r="I97" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -4165,8 +4201,11 @@
       <c r="I98" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>210</v>
       </c>
@@ -4189,8 +4228,11 @@
       <c r="I99" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -4213,8 +4255,11 @@
       <c r="I100" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>214</v>
       </c>
@@ -4237,8 +4282,11 @@
       <c r="I101" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>216</v>
       </c>
@@ -4261,8 +4309,11 @@
       <c r="I102" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>218</v>
       </c>
@@ -4285,8 +4336,11 @@
       <c r="I103" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -4309,8 +4363,11 @@
       <c r="I104" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>222</v>
       </c>
@@ -4333,8 +4390,11 @@
       <c r="I105" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>224</v>
       </c>
@@ -4357,8 +4417,11 @@
       <c r="I106" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -4381,8 +4444,11 @@
       <c r="I107" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>228</v>
       </c>
@@ -4405,8 +4471,11 @@
       <c r="I108" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>230</v>
       </c>
@@ -4429,8 +4498,11 @@
       <c r="I109" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -4453,8 +4525,11 @@
       <c r="I110" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -4477,8 +4552,11 @@
       <c r="I111" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>236</v>
       </c>
@@ -4501,8 +4579,11 @@
       <c r="I112" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -4525,8 +4606,11 @@
       <c r="I113" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>240</v>
       </c>
@@ -4549,8 +4633,11 @@
       <c r="I114" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>242</v>
       </c>
@@ -4573,8 +4660,11 @@
       <c r="I115" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -4597,8 +4687,11 @@
       <c r="I116" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>246</v>
       </c>
@@ -4621,8 +4714,11 @@
       <c r="I117" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -4645,8 +4741,11 @@
       <c r="I118" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -4669,8 +4768,11 @@
       <c r="I119" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -4693,8 +4795,11 @@
       <c r="I120" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -4717,8 +4822,11 @@
       <c r="I121" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>256</v>
       </c>
@@ -4741,8 +4849,11 @@
       <c r="I122" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -4765,8 +4876,11 @@
       <c r="I123" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -4789,8 +4903,11 @@
       <c r="I124" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -4813,8 +4930,11 @@
       <c r="I125" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -4837,8 +4957,11 @@
       <c r="I126" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -4861,8 +4984,11 @@
       <c r="I127" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>268</v>
       </c>
@@ -4885,8 +5011,11 @@
       <c r="I128" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -4909,8 +5038,11 @@
       <c r="I129" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>272</v>
       </c>
@@ -4933,8 +5065,11 @@
       <c r="I130" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>274</v>
       </c>
@@ -4957,8 +5092,11 @@
       <c r="I131" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -4981,8 +5119,11 @@
       <c r="I132" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>278</v>
       </c>
@@ -5005,8 +5146,11 @@
       <c r="I133" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>280</v>
       </c>
@@ -5029,8 +5173,11 @@
       <c r="I134" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>282</v>
       </c>
@@ -5053,8 +5200,11 @@
       <c r="I135" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>284</v>
       </c>
@@ -5077,8 +5227,11 @@
       <c r="I136" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>286</v>
       </c>
@@ -5101,8 +5254,11 @@
       <c r="I137" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>288</v>
       </c>
@@ -5125,8 +5281,11 @@
       <c r="I138" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>290</v>
       </c>
@@ -5149,8 +5308,11 @@
       <c r="I139" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>292</v>
       </c>
@@ -5173,8 +5335,11 @@
       <c r="I140" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>294</v>
       </c>
@@ -5197,8 +5362,11 @@
       <c r="I141" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>296</v>
       </c>
@@ -5221,8 +5389,11 @@
       <c r="I142" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>298</v>
       </c>
@@ -5245,8 +5416,11 @@
       <c r="I143" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>300</v>
       </c>
@@ -5269,8 +5443,11 @@
       <c r="I144" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>302</v>
       </c>
@@ -5293,8 +5470,11 @@
       <c r="I145" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>304</v>
       </c>
@@ -5317,8 +5497,11 @@
       <c r="I146" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>306</v>
       </c>
@@ -5341,8 +5524,11 @@
       <c r="I147" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>308</v>
       </c>
@@ -5365,8 +5551,11 @@
       <c r="I148" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>310</v>
       </c>
@@ -5389,8 +5578,11 @@
       <c r="I149" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>312</v>
       </c>
@@ -5413,8 +5605,11 @@
       <c r="I150" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>314</v>
       </c>
@@ -5437,8 +5632,11 @@
       <c r="I151" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -5461,8 +5659,11 @@
       <c r="I152" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>318</v>
       </c>
@@ -5485,8 +5686,11 @@
       <c r="I153" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>320</v>
       </c>
@@ -5509,8 +5713,11 @@
       <c r="I154" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>322</v>
       </c>
@@ -5533,8 +5740,11 @@
       <c r="I155" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>324</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="I156" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>326</v>
       </c>
@@ -5581,8 +5794,11 @@
       <c r="I157" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>328</v>
       </c>
@@ -5605,8 +5821,11 @@
       <c r="I158" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>330</v>
       </c>
@@ -5629,8 +5848,11 @@
       <c r="I159" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>332</v>
       </c>
@@ -5653,8 +5875,11 @@
       <c r="I160" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>334</v>
       </c>
@@ -5677,8 +5902,11 @@
       <c r="I161" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>336</v>
       </c>
@@ -5701,8 +5929,11 @@
       <c r="I162" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>338</v>
       </c>
@@ -5725,8 +5956,11 @@
       <c r="I163" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>340</v>
       </c>
@@ -5749,8 +5983,11 @@
       <c r="I164" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>342</v>
       </c>
@@ -5773,8 +6010,11 @@
       <c r="I165" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>344</v>
       </c>
@@ -5797,8 +6037,11 @@
       <c r="I166" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>346</v>
       </c>
@@ -5821,8 +6064,11 @@
       <c r="I167" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>348</v>
       </c>
@@ -5845,8 +6091,11 @@
       <c r="I168" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>350</v>
       </c>
@@ -5869,8 +6118,11 @@
       <c r="I169" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>352</v>
       </c>
@@ -5893,8 +6145,11 @@
       <c r="I170" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>354</v>
       </c>
@@ -5917,8 +6172,11 @@
       <c r="I171" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>356</v>
       </c>
@@ -5941,8 +6199,11 @@
       <c r="I172" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>358</v>
       </c>
@@ -5965,8 +6226,11 @@
       <c r="I173" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>360</v>
       </c>
@@ -5989,8 +6253,11 @@
       <c r="I174" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>362</v>
       </c>
@@ -6013,8 +6280,11 @@
       <c r="I175" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>364</v>
       </c>
@@ -6037,8 +6307,11 @@
       <c r="I176" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>366</v>
       </c>
@@ -6061,8 +6334,11 @@
       <c r="I177" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>368</v>
       </c>
@@ -6085,8 +6361,11 @@
       <c r="I178" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>370</v>
       </c>
@@ -6109,8 +6388,11 @@
       <c r="I179" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>372</v>
       </c>
@@ -6133,8 +6415,11 @@
       <c r="I180" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>374</v>
       </c>
@@ -6157,8 +6442,11 @@
       <c r="I181" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>376</v>
       </c>
@@ -6181,8 +6469,11 @@
       <c r="I182" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>378</v>
       </c>
@@ -6205,8 +6496,11 @@
       <c r="I183" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>380</v>
       </c>
@@ -6232,8 +6526,11 @@
       <c r="I184" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>383</v>
       </c>
@@ -6259,16 +6556,23 @@
       <c r="I185" t="s">
         <v>404</v>
       </c>
+      <c r="J185" t="s">
+        <v>404</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J183" xr:uid="{BF9669FC-7E78-4001-A010-806875128FA3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:J181">
+  <autoFilter ref="A1:K185" xr:uid="{BF9669FC-7E78-4001-A010-806875128FA3}">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:K181">
       <sortCondition ref="B1:B183"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/05_2nd Subimittal/zone_list_2nd.xlsx
+++ b/05_2nd Subimittal/zone_list_2nd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\05_2nd Subimittal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256CEB53-D304-4BBD-A8FF-819DC80F9303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05990AB-3A71-4785-A293-3E951D59BEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_list_2nd" sheetId="2" r:id="rId1"/>
@@ -1920,10 +1920,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2221,12 +2217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665169F-D150-4A58-B4BE-D75D65FBC2ED}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126:H185"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,7 +2272,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2291,7 +2286,7 @@
       <c r="D2" t="s">
         <v>388</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>431</v>
       </c>
       <c r="F2">
@@ -2310,12 +2305,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B67" si="0">RIGHT(A3,LEN(A3)-FIND(": ",A3))</f>
+        <f>RIGHT(A3,LEN(A3)-FIND(": ",A3))</f>
         <v xml:space="preserve"> AMEN_0400</v>
       </c>
       <c r="C3" t="s">
@@ -2324,7 +2319,7 @@
       <c r="D3" t="s">
         <v>388</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>431</v>
       </c>
       <c r="F3">
@@ -2343,12 +2338,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>419</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A4,LEN(A4)-FIND(": ",A4))</f>
         <v xml:space="preserve"> AMEN_0500</v>
       </c>
       <c r="C4" t="s">
@@ -2357,7 +2352,7 @@
       <c r="D4" t="s">
         <v>388</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>431</v>
       </c>
       <c r="F4">
@@ -2376,12 +2371,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A5,LEN(A5)-FIND(": ",A5))</f>
         <v xml:space="preserve"> AMEN_2100</v>
       </c>
       <c r="C5" t="s">
@@ -2390,7 +2385,7 @@
       <c r="D5" t="s">
         <v>388</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>431</v>
       </c>
       <c r="F5">
@@ -2409,12 +2404,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A6,LEN(A6)-FIND(": ",A6))</f>
         <v xml:space="preserve"> AMEN_2204</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2423,7 +2418,7 @@
       <c r="D6" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>431</v>
       </c>
       <c r="F6" s="3">
@@ -2443,12 +2438,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A7,LEN(A7)-FIND(": ",A7))</f>
         <v xml:space="preserve"> AMEN_2205</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2457,7 +2452,7 @@
       <c r="D7" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>431</v>
       </c>
       <c r="F7" s="3">
@@ -2477,12 +2472,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A8,LEN(A8)-FIND(": ",A8))</f>
         <v xml:space="preserve"> AMEN_FITNESS_2202</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2491,7 +2486,7 @@
       <c r="D8" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>431</v>
       </c>
       <c r="F8" s="3">
@@ -2511,12 +2506,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>423</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(A9,LEN(A9)-FIND(": ",A9))</f>
         <v xml:space="preserve"> AMEN_SKYLOUNGE_2201</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2525,7 +2520,7 @@
       <c r="D9" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>431</v>
       </c>
       <c r="F9" s="3">
@@ -2545,1619 +2540,2448 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> AMEN_STORAGE_2204</v>
+        <f>RIGHT(A10,LEN(A10)-FIND(": ",A10))</f>
+        <v xml:space="preserve"> AMEN_SUNROOM_2203</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>430</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B11" s="3" t="str">
+        <v>388</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="3">
+        <v>120</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="str">
         <f>RIGHT(A11,LEN(A11)-FIND(": ",A11))</f>
-        <v xml:space="preserve"> AMEN_SUNROOM_2203</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E11" s="3" t="s">
+        <v xml:space="preserve"> ELEV CONTROL_2301</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F11" s="3">
-        <v>120</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="str">
+        <f>RIGHT(A12,LEN(A12)-FIND(": ",A12))</f>
+        <v xml:space="preserve"> ELEV CONTROL_2302</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>RIGHT(A13,LEN(A13)-FIND(": ",A13))</f>
+        <v xml:space="preserve"> LAUNDRY_0109</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F13" s="3">
+        <v>300</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> CORR_0100</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>389</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> CORR_0200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E13" t="s">
-        <v>432</v>
-      </c>
-      <c r="F13">
-        <v>125</v>
-      </c>
-      <c r="G13" t="s">
-        <v>418</v>
-      </c>
-      <c r="I13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> CORR_0300</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>388</v>
-      </c>
-      <c r="E14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F14">
-        <v>125</v>
-      </c>
-      <c r="G14" t="s">
-        <v>418</v>
-      </c>
-      <c r="I14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> CORR_0400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>388</v>
-      </c>
-      <c r="E15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F15">
-        <v>125</v>
-      </c>
-      <c r="G15" t="s">
-        <v>418</v>
-      </c>
-      <c r="I15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> CORR_0500</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E16" t="s">
-        <v>432</v>
-      </c>
-      <c r="F16">
-        <v>125</v>
-      </c>
-      <c r="G16" t="s">
-        <v>418</v>
-      </c>
-      <c r="I16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> CORR_2100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>388</v>
-      </c>
-      <c r="E17" t="s">
-        <v>432</v>
-      </c>
-      <c r="F17">
-        <v>125</v>
-      </c>
-      <c r="G17" t="s">
-        <v>418</v>
-      </c>
-      <c r="I17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> CORR_2300</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>388</v>
-      </c>
-      <c r="E18" t="s">
-        <v>432</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>418</v>
-      </c>
-      <c r="I18" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> CORR_2301</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>388</v>
-      </c>
-      <c r="E19" t="s">
-        <v>432</v>
-      </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>418</v>
-      </c>
-      <c r="I19" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEC_0300</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEC_0400</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV CONTROL_2301</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>388</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>RIGHT(A14,LEN(A14)-FIND(": ",A14))</f>
+        <v xml:space="preserve"> LOBBY_0101</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV CONTROL_2302</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>388</v>
-      </c>
-      <c r="E23" t="s">
-        <v>431</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV LOBBY_2200</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F24">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>418</v>
-      </c>
-      <c r="I24" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV LOBBY_P100</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F25" s="3">
-        <v>205</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV LOBBY_P200</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F26" s="3">
-        <v>205</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0201</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0202</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0301</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0302</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0401</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0402</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0501</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_0502</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_2101</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_2102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_2201</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_2202</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_2301</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_2302</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_P101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_P102</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_P201</v>
-      </c>
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ELEV_P202</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> FCC_0100</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> LAUNDRY_0109</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B49" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> LOBBY_0101</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="F14" s="3">
         <f>85+215</f>
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B50" s="3" t="str">
+      <c r="B15" s="3" t="str">
+        <f>RIGHT(A15,LEN(A15)-FIND(": ",A15))</f>
+        <v xml:space="preserve"> MAIL_0101</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>RIGHT(A16,LEN(A16)-FIND(": ",A16))</f>
+        <v xml:space="preserve"> OFFICE_0101</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F16" s="3">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>RIGHT(A17,LEN(A17)-FIND(": ",A17))</f>
+        <v xml:space="preserve"> RETAIL_0100</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F17" s="3">
+        <v>480</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" t="str">
+        <f>RIGHT(A18,LEN(A18)-FIND(": ",A18))</f>
+        <v xml:space="preserve"> XFMR_0201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>400</v>
+      </c>
+      <c r="J18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" t="str">
+        <f>RIGHT(A19,LEN(A19)-FIND(": ",A19))</f>
+        <v xml:space="preserve"> XFMR_0401</v>
+      </c>
+      <c r="C19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>404</v>
+      </c>
+      <c r="J19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" t="str">
+        <f>RIGHT(A20,LEN(A20)-FIND(": ",A20))</f>
+        <v xml:space="preserve"> UNIT_0201_4B</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s">
+        <v>388</v>
+      </c>
+      <c r="E20" t="s">
+        <v>387</v>
+      </c>
+      <c r="H20">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>400</v>
+      </c>
+      <c r="J20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" t="str">
+        <f>RIGHT(A21,LEN(A21)-FIND(": ",A21))</f>
+        <v xml:space="preserve"> UNIT_0202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E21" t="s">
+        <v>387</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>399</v>
+      </c>
+      <c r="J21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" t="str">
+        <f>RIGHT(A22,LEN(A22)-FIND(": ",A22))</f>
+        <v xml:space="preserve"> UNIT_0203</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" t="s">
+        <v>387</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>399</v>
+      </c>
+      <c r="J22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" t="str">
+        <f>RIGHT(A23,LEN(A23)-FIND(": ",A23))</f>
+        <v xml:space="preserve"> UNIT_0204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" t="s">
+        <v>387</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>399</v>
+      </c>
+      <c r="J23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" t="str">
+        <f>RIGHT(A24,LEN(A24)-FIND(": ",A24))</f>
+        <v xml:space="preserve"> UNIT_0205</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" t="s">
+        <v>387</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>399</v>
+      </c>
+      <c r="J24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" t="str">
+        <f>RIGHT(A25,LEN(A25)-FIND(": ",A25))</f>
+        <v xml:space="preserve"> UNIT_0206</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>399</v>
+      </c>
+      <c r="J25" t="s">
+        <v>399</v>
+      </c>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="str">
+        <f>RIGHT(A26,LEN(A26)-FIND(": ",A26))</f>
+        <v xml:space="preserve"> UNIT_0207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>399</v>
+      </c>
+      <c r="J26" t="s">
+        <v>399</v>
+      </c>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" t="str">
+        <f>RIGHT(A27,LEN(A27)-FIND(": ",A27))</f>
+        <v xml:space="preserve"> UNIT_0208</v>
+      </c>
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E27" t="s">
+        <v>387</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>399</v>
+      </c>
+      <c r="J27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="str">
+        <f>RIGHT(A28,LEN(A28)-FIND(": ",A28))</f>
+        <v xml:space="preserve"> UNIT_0209_3B</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E28" t="s">
+        <v>387</v>
+      </c>
+      <c r="H28">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>400</v>
+      </c>
+      <c r="J28" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="str">
+        <f>RIGHT(A29,LEN(A29)-FIND(": ",A29))</f>
+        <v xml:space="preserve"> UNIT_0210</v>
+      </c>
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>399</v>
+      </c>
+      <c r="J29" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" t="str">
+        <f>RIGHT(A30,LEN(A30)-FIND(": ",A30))</f>
+        <v xml:space="preserve"> UNIT_0211_2B</v>
+      </c>
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" t="s">
+        <v>388</v>
+      </c>
+      <c r="E30" t="s">
+        <v>387</v>
+      </c>
+      <c r="H30">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>400</v>
+      </c>
+      <c r="J30" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" t="str">
+        <f>RIGHT(A31,LEN(A31)-FIND(": ",A31))</f>
+        <v xml:space="preserve"> UNIT_0212</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E31" t="s">
+        <v>387</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>399</v>
+      </c>
+      <c r="J31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" t="str">
+        <f>RIGHT(A32,LEN(A32)-FIND(": ",A32))</f>
+        <v xml:space="preserve"> UNIT_0213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>388</v>
+      </c>
+      <c r="E32" t="s">
+        <v>387</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>399</v>
+      </c>
+      <c r="J32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" t="str">
+        <f>RIGHT(A33,LEN(A33)-FIND(": ",A33))</f>
+        <v xml:space="preserve"> UNIT_0214</v>
+      </c>
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" t="s">
+        <v>388</v>
+      </c>
+      <c r="E33" t="s">
+        <v>387</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>399</v>
+      </c>
+      <c r="J33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="str">
+        <f>RIGHT(A34,LEN(A34)-FIND(": ",A34))</f>
+        <v xml:space="preserve"> UNIT_0215</v>
+      </c>
+      <c r="C34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" t="s">
+        <v>388</v>
+      </c>
+      <c r="E34" t="s">
+        <v>387</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>399</v>
+      </c>
+      <c r="J34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" t="str">
+        <f>RIGHT(A35,LEN(A35)-FIND(": ",A35))</f>
+        <v xml:space="preserve"> UNIT_0216</v>
+      </c>
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>388</v>
+      </c>
+      <c r="E35" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>399</v>
+      </c>
+      <c r="J35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" t="str">
+        <f>RIGHT(A36,LEN(A36)-FIND(": ",A36))</f>
+        <v xml:space="preserve"> UNIT_0217</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>388</v>
+      </c>
+      <c r="E36" t="s">
+        <v>387</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>399</v>
+      </c>
+      <c r="J36" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" t="str">
+        <f>RIGHT(A37,LEN(A37)-FIND(": ",A37))</f>
+        <v xml:space="preserve"> UNIT_0218</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E37" t="s">
+        <v>387</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
+        <v>399</v>
+      </c>
+      <c r="J37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" t="str">
+        <f>RIGHT(A38,LEN(A38)-FIND(": ",A38))</f>
+        <v xml:space="preserve"> UNIT_0219_4B</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" t="s">
+        <v>387</v>
+      </c>
+      <c r="H38">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s">
+        <v>400</v>
+      </c>
+      <c r="J38" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" t="str">
+        <f>RIGHT(A39,LEN(A39)-FIND(": ",A39))</f>
+        <v xml:space="preserve"> UNIT_0301_4B</v>
+      </c>
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" t="s">
+        <v>388</v>
+      </c>
+      <c r="E39" t="s">
+        <v>387</v>
+      </c>
+      <c r="H39">
+        <v>75</v>
+      </c>
+      <c r="I39" t="s">
+        <v>402</v>
+      </c>
+      <c r="J39" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" t="str">
+        <f>RIGHT(A40,LEN(A40)-FIND(": ",A40))</f>
+        <v xml:space="preserve"> UNIT_0302</v>
+      </c>
+      <c r="C40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" t="s">
+        <v>388</v>
+      </c>
+      <c r="E40" t="s">
+        <v>387</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>401</v>
+      </c>
+      <c r="J40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" t="str">
+        <f>RIGHT(A41,LEN(A41)-FIND(": ",A41))</f>
+        <v xml:space="preserve"> UNIT_0303</v>
+      </c>
+      <c r="C41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E41" t="s">
+        <v>387</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>401</v>
+      </c>
+      <c r="J41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B42" t="str">
+        <f>RIGHT(A42,LEN(A42)-FIND(": ",A42))</f>
+        <v xml:space="preserve"> UNIT_0304</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>388</v>
+      </c>
+      <c r="E42" t="s">
+        <v>387</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s">
+        <v>401</v>
+      </c>
+      <c r="J42" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" t="str">
+        <f>RIGHT(A43,LEN(A43)-FIND(": ",A43))</f>
+        <v xml:space="preserve"> UNIT_0305</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E43" t="s">
+        <v>387</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>401</v>
+      </c>
+      <c r="J43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" t="str">
+        <f>RIGHT(A44,LEN(A44)-FIND(": ",A44))</f>
+        <v xml:space="preserve"> UNIT_0306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>388</v>
+      </c>
+      <c r="E44" t="s">
+        <v>387</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s">
+        <v>401</v>
+      </c>
+      <c r="J44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="str">
+        <f>RIGHT(A45,LEN(A45)-FIND(": ",A45))</f>
+        <v xml:space="preserve"> UNIT_0307_3B</v>
+      </c>
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" t="s">
+        <v>387</v>
+      </c>
+      <c r="H45">
+        <v>55</v>
+      </c>
+      <c r="I45" t="s">
+        <v>402</v>
+      </c>
+      <c r="J45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" t="str">
+        <f>RIGHT(A46,LEN(A46)-FIND(": ",A46))</f>
+        <v xml:space="preserve"> UNIT_0308</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>388</v>
+      </c>
+      <c r="E46" t="s">
+        <v>387</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" t="str">
+        <f>RIGHT(A47,LEN(A47)-FIND(": ",A47))</f>
+        <v xml:space="preserve"> UNIT_0309_2B</v>
+      </c>
+      <c r="C47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" t="s">
+        <v>388</v>
+      </c>
+      <c r="E47" t="s">
+        <v>387</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47">
+        <v>55</v>
+      </c>
+      <c r="I47" t="s">
+        <v>402</v>
+      </c>
+      <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" t="str">
+        <f>RIGHT(A48,LEN(A48)-FIND(": ",A48))</f>
+        <v xml:space="preserve"> UNIT_0310</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" t="str">
+        <f>RIGHT(A49,LEN(A49)-FIND(": ",A49))</f>
+        <v xml:space="preserve"> UNIT_0311</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>388</v>
+      </c>
+      <c r="E49" t="s">
+        <v>387</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>266</v>
+      </c>
+      <c r="B50" t="str">
         <f>RIGHT(A50,LEN(A50)-FIND(": ",A50))</f>
-        <v xml:space="preserve"> MAIL_0101</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F50" s="3">
-        <v>20</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> UNIT_0312</v>
+      </c>
+      <c r="C50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" t="s">
+        <v>387</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> MECH_0200</v>
+        <f>RIGHT(A51,LEN(A51)-FIND(": ",A51))</f>
+        <v xml:space="preserve"> UNIT_0313</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E51" t="s">
+        <v>387</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s">
+        <v>401</v>
+      </c>
+      <c r="J51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> MECH_0300</v>
+        <f>RIGHT(A52,LEN(A52)-FIND(": ",A52))</f>
+        <v xml:space="preserve"> UNIT_0314</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E52" t="s">
+        <v>387</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s">
+        <v>401</v>
+      </c>
+      <c r="J52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> MECH_0400</v>
+        <f>RIGHT(A53,LEN(A53)-FIND(": ",A53))</f>
+        <v xml:space="preserve"> UNIT_0315</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E53" t="s">
+        <v>387</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s">
+        <v>401</v>
+      </c>
+      <c r="J53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> MECH_0500</v>
+        <f>RIGHT(A54,LEN(A54)-FIND(": ",A54))</f>
+        <v xml:space="preserve"> UNIT_0316</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E54" t="s">
+        <v>387</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> MECH_2100</v>
+        <f>RIGHT(A55,LEN(A55)-FIND(": ",A55))</f>
+        <v xml:space="preserve"> UNIT_0317_4B</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B56" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> OFFICE_0101</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F56" s="3">
-        <v>30</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> PACKAGE_0100</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>120</v>
+        <v>388</v>
+      </c>
+      <c r="E55" t="s">
+        <v>387</v>
+      </c>
+      <c r="H55">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s">
+        <v>402</v>
+      </c>
+      <c r="J55" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56" t="str">
+        <f>RIGHT(A56,LEN(A56)-FIND(": ",A56))</f>
+        <v xml:space="preserve"> UNIT_0401_4B</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s">
+        <v>404</v>
+      </c>
+      <c r="J56" t="s">
+        <v>404</v>
+      </c>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" t="str">
+        <f>RIGHT(A57,LEN(A57)-FIND(": ",A57))</f>
+        <v xml:space="preserve"> UNIT_0402</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>389</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3">
-        <v>25</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
-        <v>393</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="E57" t="s">
+        <v>387</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>403</v>
+      </c>
+      <c r="J57" t="s">
+        <v>403</v>
+      </c>
+      <c r="K57"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> RESTROOM_0100</v>
+        <f>RIGHT(A58,LEN(A58)-FIND(": ",A58))</f>
+        <v xml:space="preserve"> UNIT_0403</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E58" t="s">
+        <v>387</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="I58" t="s">
+        <v>403</v>
+      </c>
+      <c r="J58" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
       <c r="B59" t="str">
         <f>RIGHT(A59,LEN(A59)-FIND(": ",A59))</f>
-        <v xml:space="preserve"> RESTROOM_2201</v>
+        <v xml:space="preserve"> UNIT_0404</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E59" t="s">
+        <v>387</v>
       </c>
       <c r="H59">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="I59" t="s">
+        <v>403</v>
+      </c>
+      <c r="J59" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> RESTROOM_2202</v>
+        <f>RIGHT(A60,LEN(A60)-FIND(": ",A60))</f>
+        <v xml:space="preserve"> UNIT_0405</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E60" t="s">
+        <v>387</v>
       </c>
       <c r="H60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> RETAIL_0100</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F61" s="3">
-        <v>480</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I60" t="s">
+        <v>403</v>
+      </c>
+      <c r="J60" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" t="str">
+        <f>RIGHT(A61,LEN(A61)-FIND(": ",A61))</f>
+        <v xml:space="preserve"> UNIT_0406</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>388</v>
+      </c>
+      <c r="E61" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>403</v>
+      </c>
+      <c r="J61" t="s">
+        <v>403</v>
+      </c>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> STAIR_0101</v>
+        <f>RIGHT(A62,LEN(A62)-FIND(": ",A62))</f>
+        <v xml:space="preserve"> UNIT_0407_3B</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E62" t="s">
+        <v>387</v>
+      </c>
+      <c r="H62">
+        <v>55</v>
+      </c>
+      <c r="I62" t="s">
+        <v>404</v>
+      </c>
+      <c r="J62" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> STAIR_0102</v>
+        <f>RIGHT(A63,LEN(A63)-FIND(": ",A63))</f>
+        <v xml:space="preserve"> UNIT_0408</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E63" t="s">
+        <v>387</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s">
+        <v>403</v>
+      </c>
+      <c r="J63" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> STAIR_0201</v>
+        <f>RIGHT(A64,LEN(A64)-FIND(": ",A64))</f>
+        <v xml:space="preserve"> UNIT_0409_2B</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E64" t="s">
+        <v>387</v>
+      </c>
+      <c r="H64">
+        <v>55</v>
+      </c>
+      <c r="I64" t="s">
+        <v>404</v>
+      </c>
+      <c r="J64" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> STAIR_0202</v>
+        <f>RIGHT(A65,LEN(A65)-FIND(": ",A65))</f>
+        <v xml:space="preserve"> UNIT_0410</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D65" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E65" t="s">
+        <v>387</v>
+      </c>
+      <c r="H65">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s">
+        <v>403</v>
+      </c>
+      <c r="J65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>298</v>
       </c>
       <c r="B66" t="str">
         <f>RIGHT(A66,LEN(A66)-FIND(": ",A66))</f>
-        <v xml:space="preserve"> STAIR_0301</v>
+        <v xml:space="preserve"> UNIT_0411</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E66" t="s">
+        <v>387</v>
+      </c>
+      <c r="H66">
+        <v>30</v>
+      </c>
+      <c r="I66" t="s">
+        <v>403</v>
+      </c>
+      <c r="J66" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> STAIR_0302</v>
+        <f>RIGHT(A67,LEN(A67)-FIND(": ",A67))</f>
+        <v xml:space="preserve"> UNIT_0412</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D67" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E67" t="s">
+        <v>387</v>
+      </c>
+      <c r="H67">
+        <v>30</v>
+      </c>
+      <c r="I67" t="s">
+        <v>403</v>
+      </c>
+      <c r="J67" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ref="B68:B81" si="1">RIGHT(A68,LEN(A68)-FIND(": ",A68))</f>
-        <v xml:space="preserve"> STAIR_0401</v>
+        <f>RIGHT(A68,LEN(A68)-FIND(": ",A68))</f>
+        <v xml:space="preserve"> UNIT_0413</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E68" t="s">
+        <v>387</v>
+      </c>
+      <c r="H68">
+        <v>30</v>
+      </c>
+      <c r="I68" t="s">
+        <v>403</v>
+      </c>
+      <c r="J68" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_0402</v>
+        <f>RIGHT(A69,LEN(A69)-FIND(": ",A69))</f>
+        <v xml:space="preserve"> UNIT_0414</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E69" t="s">
+        <v>387</v>
+      </c>
+      <c r="H69">
+        <v>30</v>
+      </c>
+      <c r="I69" t="s">
+        <v>403</v>
+      </c>
+      <c r="J69" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_0501</v>
+        <f>RIGHT(A70,LEN(A70)-FIND(": ",A70))</f>
+        <v xml:space="preserve"> UNIT_0415</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D70" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E70" t="s">
+        <v>387</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
+      </c>
+      <c r="I70" t="s">
+        <v>403</v>
+      </c>
+      <c r="J70" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_0502</v>
+        <f>RIGHT(A71,LEN(A71)-FIND(": ",A71))</f>
+        <v xml:space="preserve"> UNIT_0416</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E71" t="s">
+        <v>387</v>
+      </c>
+      <c r="H71">
+        <v>30</v>
+      </c>
+      <c r="I71" t="s">
+        <v>403</v>
+      </c>
+      <c r="J71" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_2101</v>
+        <f>RIGHT(A72,LEN(A72)-FIND(": ",A72))</f>
+        <v xml:space="preserve"> UNIT_0417_4B</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E72" t="s">
+        <v>387</v>
+      </c>
+      <c r="H72">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s">
+        <v>404</v>
+      </c>
+      <c r="J72" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_2102</v>
+        <f>RIGHT(A73,LEN(A73)-FIND(": ",A73))</f>
+        <v xml:space="preserve"> UNIT_0501_4B</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E73" t="s">
+        <v>387</v>
+      </c>
+      <c r="H73">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s">
+        <v>406</v>
+      </c>
+      <c r="J73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_2201</v>
+        <f>RIGHT(A74,LEN(A74)-FIND(": ",A74))</f>
+        <v xml:space="preserve"> UNIT_0502</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E74" t="s">
+        <v>387</v>
+      </c>
+      <c r="H74">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s">
+        <v>405</v>
+      </c>
+      <c r="J74" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="B75" t="str">
         <f>RIGHT(A75,LEN(A75)-FIND(": ",A75))</f>
-        <v xml:space="preserve"> STAIR_2202</v>
+        <v xml:space="preserve"> UNIT_0503</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E75" t="s">
+        <v>387</v>
+      </c>
+      <c r="H75">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s">
+        <v>405</v>
+      </c>
+      <c r="J75" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_2301</v>
+        <f>RIGHT(A76,LEN(A76)-FIND(": ",A76))</f>
+        <v xml:space="preserve"> UNIT_0504</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D76" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E76" t="s">
+        <v>387</v>
+      </c>
+      <c r="H76">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s">
+        <v>405</v>
+      </c>
+      <c r="J76" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_2302</v>
+        <f>RIGHT(A77,LEN(A77)-FIND(": ",A77))</f>
+        <v xml:space="preserve"> UNIT_0505</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D77" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E77" t="s">
+        <v>387</v>
+      </c>
+      <c r="H77">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
+        <v>405</v>
+      </c>
+      <c r="J77" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>322</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_P101</v>
+        <f>RIGHT(A78,LEN(A78)-FIND(": ",A78))</f>
+        <v xml:space="preserve"> UNIT_0506</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D78" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E78" t="s">
+        <v>387</v>
+      </c>
+      <c r="H78">
+        <v>30</v>
+      </c>
+      <c r="I78" t="s">
+        <v>405</v>
+      </c>
+      <c r="J78" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_P102</v>
+        <f>RIGHT(A79,LEN(A79)-FIND(": ",A79))</f>
+        <v xml:space="preserve"> UNIT_0507_3B</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E79" t="s">
+        <v>387</v>
+      </c>
+      <c r="H79">
+        <v>55</v>
+      </c>
+      <c r="I79" t="s">
+        <v>406</v>
+      </c>
+      <c r="J79" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_P201</v>
+        <f>RIGHT(A80,LEN(A80)-FIND(": ",A80))</f>
+        <v xml:space="preserve"> UNIT_0508</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D80" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E80" t="s">
+        <v>387</v>
+      </c>
+      <c r="H80">
+        <v>30</v>
+      </c>
+      <c r="I80" t="s">
+        <v>405</v>
+      </c>
+      <c r="J80" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> STAIR_P202</v>
+        <f>RIGHT(A81,LEN(A81)-FIND(": ",A81))</f>
+        <v xml:space="preserve"> UNIT_0509_2B</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D81" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E81" t="s">
+        <v>387</v>
+      </c>
+      <c r="H81">
+        <v>55</v>
+      </c>
+      <c r="I81" t="s">
+        <v>406</v>
+      </c>
+      <c r="J81" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>434</v>
+        <v>330</v>
       </c>
       <c r="B82" t="str">
         <f>RIGHT(A82,LEN(A82)-FIND(": ",A82))</f>
-        <v xml:space="preserve"> STOR_0101C</v>
+        <v xml:space="preserve"> UNIT_0510</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>389</v>
-      </c>
-      <c r="F82">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>418</v>
-      </c>
-      <c r="K82" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E82" t="s">
+        <v>387</v>
+      </c>
+      <c r="H82">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s">
+        <v>405</v>
+      </c>
+      <c r="J82" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>332</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" ref="B83:B146" si="2">RIGHT(A83,LEN(A83)-FIND(": ",A83))</f>
-        <v xml:space="preserve"> STOR_0100</v>
+        <f>RIGHT(A83,LEN(A83)-FIND(": ",A83))</f>
+        <v xml:space="preserve"> UNIT_0511</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E83" t="s">
+        <v>387</v>
+      </c>
+      <c r="H83">
+        <v>30</v>
+      </c>
+      <c r="I83" t="s">
+        <v>405</v>
+      </c>
+      <c r="J83" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>334</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> STOR_0200</v>
+        <f>RIGHT(A84,LEN(A84)-FIND(": ",A84))</f>
+        <v xml:space="preserve"> UNIT_0512</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D84" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E84" t="s">
+        <v>387</v>
+      </c>
+      <c r="H84">
+        <v>30</v>
+      </c>
+      <c r="I84" t="s">
+        <v>405</v>
+      </c>
+      <c r="J84" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> STOR_0300</v>
+        <f>RIGHT(A85,LEN(A85)-FIND(": ",A85))</f>
+        <v xml:space="preserve"> UNIT_0513</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E85" t="s">
+        <v>387</v>
+      </c>
+      <c r="H85">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s">
+        <v>405</v>
+      </c>
+      <c r="J85" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> STOR_0400</v>
+        <f>RIGHT(A86,LEN(A86)-FIND(": ",A86))</f>
+        <v xml:space="preserve"> UNIT_0514</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D86" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E86" t="s">
+        <v>387</v>
+      </c>
+      <c r="H86">
+        <v>30</v>
+      </c>
+      <c r="I86" t="s">
+        <v>405</v>
+      </c>
+      <c r="J86" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>184</v>
+        <v>340</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> STOR_0500</v>
+        <f>RIGHT(A87,LEN(A87)-FIND(": ",A87))</f>
+        <v xml:space="preserve"> UNIT_0515</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D87" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E87" t="s">
+        <v>387</v>
+      </c>
+      <c r="H87">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s">
+        <v>405</v>
+      </c>
+      <c r="J87" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>342</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> STOR_2100</v>
+        <f>RIGHT(A88,LEN(A88)-FIND(": ",A88))</f>
+        <v xml:space="preserve"> UNIT_0516</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D88" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E88" t="s">
+        <v>387</v>
+      </c>
+      <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="I88" t="s">
+        <v>405</v>
+      </c>
+      <c r="J88" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> STOR_P100</v>
+        <f>RIGHT(A89,LEN(A89)-FIND(": ",A89))</f>
+        <v xml:space="preserve"> UNIT_0517_4B</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D89" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E89" t="s">
+        <v>387</v>
+      </c>
+      <c r="H89">
+        <v>75</v>
+      </c>
+      <c r="I89" t="s">
+        <v>406</v>
+      </c>
+      <c r="J89" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>346</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> STOR_P200</v>
+        <f>RIGHT(A90,LEN(A90)-FIND(": ",A90))</f>
+        <v xml:space="preserve"> UNIT_2101_4B</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E90" t="s">
+        <v>387</v>
+      </c>
+      <c r="H90">
+        <v>75</v>
+      </c>
+      <c r="I90" t="s">
+        <v>397</v>
+      </c>
+      <c r="J90" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> TRASH_0200</v>
+        <f>RIGHT(A91,LEN(A91)-FIND(": ",A91))</f>
+        <v xml:space="preserve"> UNIT_2102</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E91" t="s">
+        <v>387</v>
+      </c>
+      <c r="H91">
+        <v>30</v>
+      </c>
+      <c r="I91" t="s">
+        <v>398</v>
+      </c>
+      <c r="J91" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> TRASH_0300</v>
+        <f>RIGHT(A92,LEN(A92)-FIND(": ",A92))</f>
+        <v xml:space="preserve"> UNIT_2103</v>
       </c>
       <c r="C92" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E92" t="s">
+        <v>387</v>
+      </c>
+      <c r="H92">
+        <v>30</v>
+      </c>
+      <c r="I92" t="s">
+        <v>398</v>
+      </c>
+      <c r="J92" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> TRASH_0400</v>
+        <f>RIGHT(A93,LEN(A93)-FIND(": ",A93))</f>
+        <v xml:space="preserve"> UNIT_2104</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E93" t="s">
+        <v>387</v>
+      </c>
+      <c r="H93">
+        <v>30</v>
+      </c>
+      <c r="I93" t="s">
+        <v>398</v>
+      </c>
+      <c r="J93" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> TRASH_0500</v>
+        <f>RIGHT(A94,LEN(A94)-FIND(": ",A94))</f>
+        <v xml:space="preserve"> UNIT_2105</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D94" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E94" t="s">
+        <v>387</v>
+      </c>
+      <c r="H94">
+        <v>30</v>
+      </c>
+      <c r="I94" t="s">
+        <v>398</v>
+      </c>
+      <c r="J94" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>356</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> TRASH_2100</v>
+        <f>RIGHT(A95,LEN(A95)-FIND(": ",A95))</f>
+        <v xml:space="preserve"> UNIT_2106</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D95" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E95" t="s">
+        <v>387</v>
+      </c>
+      <c r="H95">
+        <v>30</v>
+      </c>
+      <c r="I95" t="s">
+        <v>398</v>
+      </c>
+      <c r="J95" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>358</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> TRASH_2200</v>
+        <f>RIGHT(A96,LEN(A96)-FIND(": ",A96))</f>
+        <v xml:space="preserve"> UNIT_2107_3B</v>
       </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E96" t="s">
+        <v>387</v>
+      </c>
+      <c r="H96">
+        <v>55</v>
+      </c>
+      <c r="I96" t="s">
+        <v>397</v>
+      </c>
+      <c r="J96" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>205</v>
+        <v>360</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0201_4B</v>
+        <f>RIGHT(A97,LEN(A97)-FIND(": ",A97))</f>
+        <v xml:space="preserve"> UNIT_2108</v>
       </c>
       <c r="C97" t="s">
         <v>207</v>
@@ -4169,22 +4993,22 @@
         <v>387</v>
       </c>
       <c r="H97">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I97" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J97" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>362</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0202</v>
+        <f>RIGHT(A98,LEN(A98)-FIND(": ",A98))</f>
+        <v xml:space="preserve"> UNIT_2109_2B</v>
       </c>
       <c r="C98" t="s">
         <v>207</v>
@@ -4196,22 +5020,22 @@
         <v>387</v>
       </c>
       <c r="H98">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I98" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J98" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>210</v>
+        <v>364</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0203</v>
+        <f>RIGHT(A99,LEN(A99)-FIND(": ",A99))</f>
+        <v xml:space="preserve"> UNIT_2110</v>
       </c>
       <c r="C99" t="s">
         <v>207</v>
@@ -4226,19 +5050,19 @@
         <v>30</v>
       </c>
       <c r="I99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0204</v>
+        <f>RIGHT(A100,LEN(A100)-FIND(": ",A100))</f>
+        <v xml:space="preserve"> UNIT_2111</v>
       </c>
       <c r="C100" t="s">
         <v>207</v>
@@ -4253,19 +5077,19 @@
         <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>368</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0205</v>
+        <f>RIGHT(A101,LEN(A101)-FIND(": ",A101))</f>
+        <v xml:space="preserve"> UNIT_2112</v>
       </c>
       <c r="C101" t="s">
         <v>207</v>
@@ -4280,19 +5104,19 @@
         <v>30</v>
       </c>
       <c r="I101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>370</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0206</v>
+        <f>RIGHT(A102,LEN(A102)-FIND(": ",A102))</f>
+        <v xml:space="preserve"> UNIT_2113</v>
       </c>
       <c r="C102" t="s">
         <v>207</v>
@@ -4307,19 +5131,19 @@
         <v>30</v>
       </c>
       <c r="I102" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J102" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>218</v>
+        <v>372</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0207</v>
+        <f>RIGHT(A103,LEN(A103)-FIND(": ",A103))</f>
+        <v xml:space="preserve"> UNIT_2114</v>
       </c>
       <c r="C103" t="s">
         <v>207</v>
@@ -4334,19 +5158,19 @@
         <v>30</v>
       </c>
       <c r="I103" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J103" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>374</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0208</v>
+        <f>RIGHT(A104,LEN(A104)-FIND(": ",A104))</f>
+        <v xml:space="preserve"> UNIT_2115</v>
       </c>
       <c r="C104" t="s">
         <v>207</v>
@@ -4361,19 +5185,19 @@
         <v>30</v>
       </c>
       <c r="I104" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J104" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>376</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0209_3B</v>
+        <f>RIGHT(A105,LEN(A105)-FIND(": ",A105))</f>
+        <v xml:space="preserve"> UNIT_2116</v>
       </c>
       <c r="C105" t="s">
         <v>207</v>
@@ -4385,22 +5209,22 @@
         <v>387</v>
       </c>
       <c r="H105">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I105" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J105" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>378</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0210</v>
+        <f>RIGHT(A106,LEN(A106)-FIND(": ",A106))</f>
+        <v xml:space="preserve"> UNIT_2117_4B</v>
       </c>
       <c r="C106" t="s">
         <v>207</v>
@@ -4412,2163 +5236,1382 @@
         <v>387</v>
       </c>
       <c r="H106">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I106" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J106" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0211_2B</v>
+        <f>RIGHT(A107,LEN(A107)-FIND(": ",A107))</f>
+        <v xml:space="preserve"> CORR_0200</v>
       </c>
       <c r="C107" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
         <v>388</v>
       </c>
       <c r="E107" t="s">
-        <v>387</v>
-      </c>
-      <c r="H107">
-        <v>55</v>
+        <v>432</v>
+      </c>
+      <c r="F107">
+        <v>125</v>
+      </c>
+      <c r="G107" t="s">
+        <v>418</v>
       </c>
       <c r="I107" t="s">
-        <v>400</v>
-      </c>
-      <c r="J107" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0212</v>
+        <f>RIGHT(A108,LEN(A108)-FIND(": ",A108))</f>
+        <v xml:space="preserve"> CORR_0300</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
         <v>388</v>
       </c>
       <c r="E108" t="s">
-        <v>387</v>
-      </c>
-      <c r="H108">
-        <v>30</v>
+        <v>432</v>
+      </c>
+      <c r="F108">
+        <v>125</v>
+      </c>
+      <c r="G108" t="s">
+        <v>418</v>
       </c>
       <c r="I108" t="s">
-        <v>399</v>
-      </c>
-      <c r="J108" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0213</v>
+        <f>RIGHT(A109,LEN(A109)-FIND(": ",A109))</f>
+        <v xml:space="preserve"> CORR_0400</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
         <v>388</v>
       </c>
       <c r="E109" t="s">
-        <v>387</v>
-      </c>
-      <c r="H109">
-        <v>30</v>
+        <v>432</v>
+      </c>
+      <c r="F109">
+        <v>125</v>
+      </c>
+      <c r="G109" t="s">
+        <v>418</v>
       </c>
       <c r="I109" t="s">
-        <v>399</v>
-      </c>
-      <c r="J109" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0214</v>
+        <f>RIGHT(A110,LEN(A110)-FIND(": ",A110))</f>
+        <v xml:space="preserve"> CORR_0500</v>
       </c>
       <c r="C110" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
         <v>388</v>
       </c>
       <c r="E110" t="s">
-        <v>387</v>
-      </c>
-      <c r="H110">
-        <v>30</v>
+        <v>432</v>
+      </c>
+      <c r="F110">
+        <v>125</v>
+      </c>
+      <c r="G110" t="s">
+        <v>418</v>
       </c>
       <c r="I110" t="s">
-        <v>399</v>
-      </c>
-      <c r="J110" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0215</v>
+        <f>RIGHT(A111,LEN(A111)-FIND(": ",A111))</f>
+        <v xml:space="preserve"> CORR_2100</v>
       </c>
       <c r="C111" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
         <v>388</v>
       </c>
       <c r="E111" t="s">
-        <v>387</v>
-      </c>
-      <c r="H111">
-        <v>30</v>
+        <v>432</v>
+      </c>
+      <c r="F111">
+        <v>125</v>
+      </c>
+      <c r="G111" t="s">
+        <v>418</v>
       </c>
       <c r="I111" t="s">
-        <v>399</v>
-      </c>
-      <c r="J111" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0216</v>
+        <f>RIGHT(A112,LEN(A112)-FIND(": ",A112))</f>
+        <v xml:space="preserve"> CORR_2300</v>
       </c>
       <c r="C112" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
         <v>388</v>
       </c>
       <c r="E112" t="s">
-        <v>387</v>
-      </c>
-      <c r="H112">
-        <v>30</v>
+        <v>432</v>
+      </c>
+      <c r="F112">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
+        <v>418</v>
       </c>
       <c r="I112" t="s">
-        <v>399</v>
-      </c>
-      <c r="J112" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0217</v>
+        <f>RIGHT(A113,LEN(A113)-FIND(": ",A113))</f>
+        <v xml:space="preserve"> CORR_2301</v>
       </c>
       <c r="C113" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
         <v>388</v>
       </c>
       <c r="E113" t="s">
-        <v>387</v>
-      </c>
-      <c r="H113">
-        <v>30</v>
+        <v>432</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>418</v>
       </c>
       <c r="I113" t="s">
-        <v>399</v>
-      </c>
-      <c r="J113" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0218</v>
+        <f>RIGHT(A114,LEN(A114)-FIND(": ",A114))</f>
+        <v xml:space="preserve"> ELEV LOBBY_2200</v>
       </c>
       <c r="C114" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="D114" t="s">
         <v>388</v>
       </c>
-      <c r="E114" t="s">
-        <v>387</v>
-      </c>
-      <c r="H114">
-        <v>30</v>
+      <c r="E114" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F114">
+        <v>30</v>
+      </c>
+      <c r="G114" t="s">
+        <v>418</v>
       </c>
       <c r="I114" t="s">
-        <v>399</v>
-      </c>
-      <c r="J114" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>242</v>
-      </c>
-      <c r="B115" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0219_4B</v>
-      </c>
-      <c r="C115" t="s">
-        <v>207</v>
-      </c>
-      <c r="D115" t="s">
-        <v>388</v>
-      </c>
-      <c r="E115" t="s">
-        <v>387</v>
-      </c>
-      <c r="H115">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B115" s="3" t="str">
+        <f>RIGHT(A115,LEN(A115)-FIND(": ",A115))</f>
+        <v xml:space="preserve"> ELEV LOBBY_P100</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F115" s="3">
+        <v>205</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="3" t="str">
+        <f>RIGHT(A116,LEN(A116)-FIND(": ",A116))</f>
+        <v xml:space="preserve"> ELEV LOBBY_P200</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F116" s="3">
+        <v>205</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B117" s="3" t="str">
+        <f>RIGHT(A117,LEN(A117)-FIND(": ",A117))</f>
+        <v xml:space="preserve"> AMEN_STORAGE_2204</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="3" t="str">
+        <f>RIGHT(A118,LEN(A118)-FIND(": ",A118))</f>
+        <v xml:space="preserve"> CORR_0100</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>389</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="str">
+        <f>RIGHT(A119,LEN(A119)-FIND(": ",A119))</f>
+        <v xml:space="preserve"> ELEC_0300</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" t="str">
+        <f>RIGHT(A120,LEN(A120)-FIND(": ",A120))</f>
+        <v xml:space="preserve"> ELEC_0400</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" t="str">
+        <f>RIGHT(A121,LEN(A121)-FIND(": ",A121))</f>
+        <v xml:space="preserve"> ELEV_0101</v>
+      </c>
+      <c r="C121" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" t="str">
+        <f>RIGHT(A122,LEN(A122)-FIND(": ",A122))</f>
+        <v xml:space="preserve"> ELEV_0102</v>
+      </c>
+      <c r="C122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123" t="str">
+        <f>RIGHT(A123,LEN(A123)-FIND(": ",A123))</f>
+        <v xml:space="preserve"> ELEV_0201</v>
+      </c>
+      <c r="C123" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>61</v>
+      </c>
+      <c r="B124" t="str">
+        <f>RIGHT(A124,LEN(A124)-FIND(": ",A124))</f>
+        <v xml:space="preserve"> ELEV_0202</v>
+      </c>
+      <c r="C124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" t="str">
+        <f>RIGHT(A125,LEN(A125)-FIND(": ",A125))</f>
+        <v xml:space="preserve"> ELEV_0301</v>
+      </c>
+      <c r="C125" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126" t="str">
+        <f>RIGHT(A126,LEN(A126)-FIND(": ",A126))</f>
+        <v xml:space="preserve"> ELEV_0302</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>67</v>
+      </c>
+      <c r="B127" t="str">
+        <f>RIGHT(A127,LEN(A127)-FIND(": ",A127))</f>
+        <v xml:space="preserve"> ELEV_0401</v>
+      </c>
+      <c r="C127" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>69</v>
+      </c>
+      <c r="B128" t="str">
+        <f>RIGHT(A128,LEN(A128)-FIND(": ",A128))</f>
+        <v xml:space="preserve"> ELEV_0402</v>
+      </c>
+      <c r="C128" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" t="str">
+        <f>RIGHT(A129,LEN(A129)-FIND(": ",A129))</f>
+        <v xml:space="preserve"> ELEV_0501</v>
+      </c>
+      <c r="C129" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" t="str">
+        <f>RIGHT(A130,LEN(A130)-FIND(": ",A130))</f>
+        <v xml:space="preserve"> ELEV_0502</v>
+      </c>
+      <c r="C130" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>75</v>
       </c>
-      <c r="I115" t="s">
-        <v>400</v>
-      </c>
-      <c r="J115" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>244</v>
-      </c>
-      <c r="B116" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0301_4B</v>
-      </c>
-      <c r="C116" t="s">
-        <v>207</v>
-      </c>
-      <c r="D116" t="s">
-        <v>388</v>
-      </c>
-      <c r="E116" t="s">
-        <v>387</v>
-      </c>
-      <c r="H116">
-        <v>75</v>
-      </c>
-      <c r="I116" t="s">
-        <v>402</v>
-      </c>
-      <c r="J116" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>246</v>
-      </c>
-      <c r="B117" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0302</v>
-      </c>
-      <c r="C117" t="s">
-        <v>207</v>
-      </c>
-      <c r="D117" t="s">
-        <v>388</v>
-      </c>
-      <c r="E117" t="s">
-        <v>387</v>
-      </c>
-      <c r="H117">
-        <v>30</v>
-      </c>
-      <c r="I117" t="s">
-        <v>401</v>
-      </c>
-      <c r="J117" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>248</v>
-      </c>
-      <c r="B118" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0303</v>
-      </c>
-      <c r="C118" t="s">
-        <v>207</v>
-      </c>
-      <c r="D118" t="s">
-        <v>388</v>
-      </c>
-      <c r="E118" t="s">
-        <v>387</v>
-      </c>
-      <c r="H118">
-        <v>30</v>
-      </c>
-      <c r="I118" t="s">
-        <v>401</v>
-      </c>
-      <c r="J118" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>250</v>
-      </c>
-      <c r="B119" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0304</v>
-      </c>
-      <c r="C119" t="s">
-        <v>207</v>
-      </c>
-      <c r="D119" t="s">
-        <v>388</v>
-      </c>
-      <c r="E119" t="s">
-        <v>387</v>
-      </c>
-      <c r="H119">
-        <v>30</v>
-      </c>
-      <c r="I119" t="s">
-        <v>401</v>
-      </c>
-      <c r="J119" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>252</v>
-      </c>
-      <c r="B120" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0305</v>
-      </c>
-      <c r="C120" t="s">
-        <v>207</v>
-      </c>
-      <c r="D120" t="s">
-        <v>388</v>
-      </c>
-      <c r="E120" t="s">
-        <v>387</v>
-      </c>
-      <c r="H120">
-        <v>30</v>
-      </c>
-      <c r="I120" t="s">
-        <v>401</v>
-      </c>
-      <c r="J120" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>254</v>
-      </c>
-      <c r="B121" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0306</v>
-      </c>
-      <c r="C121" t="s">
-        <v>207</v>
-      </c>
-      <c r="D121" t="s">
-        <v>388</v>
-      </c>
-      <c r="E121" t="s">
-        <v>387</v>
-      </c>
-      <c r="H121">
-        <v>30</v>
-      </c>
-      <c r="I121" t="s">
-        <v>401</v>
-      </c>
-      <c r="J121" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>256</v>
-      </c>
-      <c r="B122" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0307_3B</v>
-      </c>
-      <c r="C122" t="s">
-        <v>207</v>
-      </c>
-      <c r="D122" t="s">
-        <v>388</v>
-      </c>
-      <c r="E122" t="s">
-        <v>387</v>
-      </c>
-      <c r="H122">
-        <v>55</v>
-      </c>
-      <c r="I122" t="s">
-        <v>402</v>
-      </c>
-      <c r="J122" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>258</v>
-      </c>
-      <c r="B123" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0308</v>
-      </c>
-      <c r="C123" t="s">
-        <v>207</v>
-      </c>
-      <c r="D123" t="s">
-        <v>388</v>
-      </c>
-      <c r="E123" t="s">
-        <v>387</v>
-      </c>
-      <c r="H123">
-        <v>30</v>
-      </c>
-      <c r="I123" t="s">
-        <v>401</v>
-      </c>
-      <c r="J123" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>260</v>
-      </c>
-      <c r="B124" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0309_2B</v>
-      </c>
-      <c r="C124" t="s">
-        <v>207</v>
-      </c>
-      <c r="D124" t="s">
-        <v>388</v>
-      </c>
-      <c r="E124" t="s">
-        <v>387</v>
-      </c>
-      <c r="H124">
-        <v>55</v>
-      </c>
-      <c r="I124" t="s">
-        <v>402</v>
-      </c>
-      <c r="J124" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>262</v>
-      </c>
-      <c r="B125" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0310</v>
-      </c>
-      <c r="C125" t="s">
-        <v>207</v>
-      </c>
-      <c r="D125" t="s">
-        <v>388</v>
-      </c>
-      <c r="E125" t="s">
-        <v>387</v>
-      </c>
-      <c r="H125">
-        <v>30</v>
-      </c>
-      <c r="I125" t="s">
-        <v>401</v>
-      </c>
-      <c r="J125" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>264</v>
-      </c>
-      <c r="B126" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0311</v>
-      </c>
-      <c r="C126" t="s">
-        <v>207</v>
-      </c>
-      <c r="D126" t="s">
-        <v>388</v>
-      </c>
-      <c r="E126" t="s">
-        <v>387</v>
-      </c>
-      <c r="H126">
-        <v>30</v>
-      </c>
-      <c r="I126" t="s">
-        <v>401</v>
-      </c>
-      <c r="J126" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>266</v>
-      </c>
-      <c r="B127" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0312</v>
-      </c>
-      <c r="C127" t="s">
-        <v>207</v>
-      </c>
-      <c r="D127" t="s">
-        <v>388</v>
-      </c>
-      <c r="E127" t="s">
-        <v>387</v>
-      </c>
-      <c r="H127">
-        <v>30</v>
-      </c>
-      <c r="I127" t="s">
-        <v>401</v>
-      </c>
-      <c r="J127" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>268</v>
-      </c>
-      <c r="B128" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0313</v>
-      </c>
-      <c r="C128" t="s">
-        <v>207</v>
-      </c>
-      <c r="D128" t="s">
-        <v>388</v>
-      </c>
-      <c r="E128" t="s">
-        <v>387</v>
-      </c>
-      <c r="H128">
-        <v>30</v>
-      </c>
-      <c r="I128" t="s">
-        <v>401</v>
-      </c>
-      <c r="J128" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>270</v>
-      </c>
-      <c r="B129" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0314</v>
-      </c>
-      <c r="C129" t="s">
-        <v>207</v>
-      </c>
-      <c r="D129" t="s">
-        <v>388</v>
-      </c>
-      <c r="E129" t="s">
-        <v>387</v>
-      </c>
-      <c r="H129">
-        <v>30</v>
-      </c>
-      <c r="I129" t="s">
-        <v>401</v>
-      </c>
-      <c r="J129" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>272</v>
-      </c>
-      <c r="B130" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0315</v>
-      </c>
-      <c r="C130" t="s">
-        <v>207</v>
-      </c>
-      <c r="D130" t="s">
-        <v>388</v>
-      </c>
-      <c r="E130" t="s">
-        <v>387</v>
-      </c>
-      <c r="H130">
-        <v>30</v>
-      </c>
-      <c r="I130" t="s">
-        <v>401</v>
-      </c>
-      <c r="J130" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>274</v>
-      </c>
       <c r="B131" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0316</v>
+        <f>RIGHT(A131,LEN(A131)-FIND(": ",A131))</f>
+        <v xml:space="preserve"> ELEV_2101</v>
       </c>
       <c r="C131" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D131" t="s">
-        <v>388</v>
-      </c>
-      <c r="E131" t="s">
-        <v>387</v>
-      </c>
-      <c r="H131">
-        <v>30</v>
-      </c>
-      <c r="I131" t="s">
-        <v>401</v>
-      </c>
-      <c r="J131" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0317_4B</v>
+        <f>RIGHT(A132,LEN(A132)-FIND(": ",A132))</f>
+        <v xml:space="preserve"> ELEV_2102</v>
       </c>
       <c r="C132" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D132" t="s">
-        <v>388</v>
-      </c>
-      <c r="E132" t="s">
-        <v>387</v>
-      </c>
-      <c r="H132">
-        <v>75</v>
-      </c>
-      <c r="I132" t="s">
-        <v>402</v>
-      </c>
-      <c r="J132" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0401_4B</v>
+        <f>RIGHT(A133,LEN(A133)-FIND(": ",A133))</f>
+        <v xml:space="preserve"> ELEV_2201</v>
       </c>
       <c r="C133" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D133" t="s">
-        <v>388</v>
-      </c>
-      <c r="E133" t="s">
-        <v>387</v>
-      </c>
-      <c r="H133">
-        <v>75</v>
-      </c>
-      <c r="I133" t="s">
-        <v>404</v>
-      </c>
-      <c r="J133" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0402</v>
+        <f>RIGHT(A134,LEN(A134)-FIND(": ",A134))</f>
+        <v xml:space="preserve"> ELEV_2202</v>
       </c>
       <c r="C134" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D134" t="s">
-        <v>388</v>
-      </c>
-      <c r="E134" t="s">
-        <v>387</v>
-      </c>
-      <c r="H134">
-        <v>30</v>
-      </c>
-      <c r="I134" t="s">
-        <v>403</v>
-      </c>
-      <c r="J134" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0403</v>
+        <f>RIGHT(A135,LEN(A135)-FIND(": ",A135))</f>
+        <v xml:space="preserve"> ELEV_2301</v>
       </c>
       <c r="C135" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D135" t="s">
-        <v>388</v>
-      </c>
-      <c r="E135" t="s">
-        <v>387</v>
-      </c>
-      <c r="H135">
-        <v>30</v>
-      </c>
-      <c r="I135" t="s">
-        <v>403</v>
-      </c>
-      <c r="J135" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0404</v>
+        <f>RIGHT(A136,LEN(A136)-FIND(": ",A136))</f>
+        <v xml:space="preserve"> ELEV_2302</v>
       </c>
       <c r="C136" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D136" t="s">
-        <v>388</v>
-      </c>
-      <c r="E136" t="s">
-        <v>387</v>
-      </c>
-      <c r="H136">
-        <v>30</v>
-      </c>
-      <c r="I136" t="s">
-        <v>403</v>
-      </c>
-      <c r="J136" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0405</v>
+        <f>RIGHT(A137,LEN(A137)-FIND(": ",A137))</f>
+        <v xml:space="preserve"> ELEV_P101</v>
       </c>
       <c r="C137" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D137" t="s">
-        <v>388</v>
-      </c>
-      <c r="E137" t="s">
-        <v>387</v>
-      </c>
-      <c r="H137">
-        <v>30</v>
-      </c>
-      <c r="I137" t="s">
-        <v>403</v>
-      </c>
-      <c r="J137" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0406</v>
+        <f>RIGHT(A138,LEN(A138)-FIND(": ",A138))</f>
+        <v xml:space="preserve"> ELEV_P102</v>
       </c>
       <c r="C138" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D138" t="s">
-        <v>388</v>
-      </c>
-      <c r="E138" t="s">
-        <v>387</v>
-      </c>
-      <c r="H138">
-        <v>30</v>
-      </c>
-      <c r="I138" t="s">
-        <v>403</v>
-      </c>
-      <c r="J138" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0407_3B</v>
+        <f>RIGHT(A139,LEN(A139)-FIND(": ",A139))</f>
+        <v xml:space="preserve"> ELEV_P201</v>
       </c>
       <c r="C139" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D139" t="s">
-        <v>388</v>
-      </c>
-      <c r="E139" t="s">
-        <v>387</v>
-      </c>
-      <c r="H139">
-        <v>55</v>
-      </c>
-      <c r="I139" t="s">
-        <v>404</v>
-      </c>
-      <c r="J139" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0408</v>
+        <f>RIGHT(A140,LEN(A140)-FIND(": ",A140))</f>
+        <v xml:space="preserve"> ELEV_P202</v>
       </c>
       <c r="C140" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D140" t="s">
-        <v>388</v>
-      </c>
-      <c r="E140" t="s">
-        <v>387</v>
-      </c>
-      <c r="H140">
-        <v>30</v>
-      </c>
-      <c r="I140" t="s">
-        <v>403</v>
-      </c>
-      <c r="J140" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>294</v>
-      </c>
-      <c r="B141" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0409_2B</v>
-      </c>
-      <c r="C141" t="s">
-        <v>207</v>
-      </c>
-      <c r="D141" t="s">
-        <v>388</v>
-      </c>
-      <c r="E141" t="s">
-        <v>387</v>
-      </c>
-      <c r="H141">
-        <v>55</v>
-      </c>
-      <c r="I141" t="s">
-        <v>404</v>
-      </c>
-      <c r="J141" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B141" s="3" t="str">
+        <f>RIGHT(A141,LEN(A141)-FIND(": ",A141))</f>
+        <v xml:space="preserve"> FCC_0100</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0410</v>
+        <f>RIGHT(A142,LEN(A142)-FIND(": ",A142))</f>
+        <v xml:space="preserve"> MECH_0200</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D142" t="s">
-        <v>388</v>
-      </c>
-      <c r="E142" t="s">
-        <v>387</v>
-      </c>
-      <c r="H142">
-        <v>30</v>
-      </c>
-      <c r="I142" t="s">
-        <v>403</v>
-      </c>
-      <c r="J142" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0411</v>
+        <f>RIGHT(A143,LEN(A143)-FIND(": ",A143))</f>
+        <v xml:space="preserve"> MECH_0300</v>
       </c>
       <c r="C143" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D143" t="s">
-        <v>388</v>
-      </c>
-      <c r="E143" t="s">
-        <v>387</v>
-      </c>
-      <c r="H143">
-        <v>30</v>
-      </c>
-      <c r="I143" t="s">
-        <v>403</v>
-      </c>
-      <c r="J143" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0412</v>
+        <f>RIGHT(A144,LEN(A144)-FIND(": ",A144))</f>
+        <v xml:space="preserve"> MECH_0400</v>
       </c>
       <c r="C144" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D144" t="s">
-        <v>388</v>
-      </c>
-      <c r="E144" t="s">
-        <v>387</v>
-      </c>
-      <c r="H144">
-        <v>30</v>
-      </c>
-      <c r="I144" t="s">
-        <v>403</v>
-      </c>
-      <c r="J144" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>302</v>
+        <v>114</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0413</v>
+        <f>RIGHT(A145,LEN(A145)-FIND(": ",A145))</f>
+        <v xml:space="preserve"> MECH_0500</v>
       </c>
       <c r="C145" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D145" t="s">
-        <v>388</v>
-      </c>
-      <c r="E145" t="s">
-        <v>387</v>
-      </c>
-      <c r="H145">
-        <v>30</v>
-      </c>
-      <c r="I145" t="s">
-        <v>403</v>
-      </c>
-      <c r="J145" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> UNIT_0414</v>
+        <f>RIGHT(A146,LEN(A146)-FIND(": ",A146))</f>
+        <v xml:space="preserve"> MECH_2100</v>
       </c>
       <c r="C146" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D146" t="s">
-        <v>388</v>
-      </c>
-      <c r="E146" t="s">
-        <v>387</v>
-      </c>
-      <c r="H146">
-        <v>30</v>
-      </c>
-      <c r="I146" t="s">
-        <v>403</v>
-      </c>
-      <c r="J146" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>306</v>
-      </c>
-      <c r="B147" t="str">
-        <f t="shared" ref="B147:B185" si="3">RIGHT(A147,LEN(A147)-FIND(": ",A147))</f>
-        <v xml:space="preserve"> UNIT_0415</v>
-      </c>
-      <c r="C147" t="s">
-        <v>207</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B147" s="3" t="str">
+        <f>RIGHT(A147,LEN(A147)-FIND(": ",A147))</f>
+        <v xml:space="preserve"> PACKAGE_0100</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D147" t="s">
-        <v>388</v>
-      </c>
-      <c r="E147" t="s">
-        <v>387</v>
-      </c>
-      <c r="H147">
-        <v>30</v>
-      </c>
-      <c r="I147" t="s">
-        <v>403</v>
-      </c>
-      <c r="J147" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3">
+        <v>25</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0416</v>
+        <f>RIGHT(A148,LEN(A148)-FIND(": ",A148))</f>
+        <v xml:space="preserve"> RESTROOM_0100</v>
       </c>
       <c r="C148" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D148" t="s">
-        <v>388</v>
-      </c>
-      <c r="E148" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H148">
-        <v>30</v>
-      </c>
-      <c r="I148" t="s">
-        <v>403</v>
-      </c>
-      <c r="J148" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0417_4B</v>
+        <f>RIGHT(A149,LEN(A149)-FIND(": ",A149))</f>
+        <v xml:space="preserve"> RESTROOM_2201</v>
       </c>
       <c r="C149" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D149" t="s">
-        <v>388</v>
-      </c>
-      <c r="E149" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H149">
-        <v>75</v>
-      </c>
-      <c r="I149" t="s">
-        <v>404</v>
-      </c>
-      <c r="J149" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0501_4B</v>
+        <f>RIGHT(A150,LEN(A150)-FIND(": ",A150))</f>
+        <v xml:space="preserve"> RESTROOM_2202</v>
       </c>
       <c r="C150" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D150" t="s">
-        <v>388</v>
-      </c>
-      <c r="E150" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H150">
-        <v>75</v>
-      </c>
-      <c r="I150" t="s">
-        <v>406</v>
-      </c>
-      <c r="J150" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0502</v>
+        <f>RIGHT(A151,LEN(A151)-FIND(": ",A151))</f>
+        <v xml:space="preserve"> STAIR_0101</v>
       </c>
       <c r="C151" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D151" t="s">
-        <v>388</v>
-      </c>
-      <c r="E151" t="s">
-        <v>387</v>
-      </c>
-      <c r="H151">
-        <v>30</v>
-      </c>
-      <c r="I151" t="s">
-        <v>405</v>
-      </c>
-      <c r="J151" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0503</v>
+        <f>RIGHT(A152,LEN(A152)-FIND(": ",A152))</f>
+        <v xml:space="preserve"> STAIR_0102</v>
       </c>
       <c r="C152" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D152" t="s">
-        <v>388</v>
-      </c>
-      <c r="E152" t="s">
-        <v>387</v>
-      </c>
-      <c r="H152">
-        <v>30</v>
-      </c>
-      <c r="I152" t="s">
-        <v>405</v>
-      </c>
-      <c r="J152" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0504</v>
+        <f>RIGHT(A153,LEN(A153)-FIND(": ",A153))</f>
+        <v xml:space="preserve"> STAIR_0201</v>
       </c>
       <c r="C153" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D153" t="s">
-        <v>388</v>
-      </c>
-      <c r="E153" t="s">
-        <v>387</v>
-      </c>
-      <c r="H153">
-        <v>30</v>
-      </c>
-      <c r="I153" t="s">
-        <v>405</v>
-      </c>
-      <c r="J153" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>320</v>
+        <v>141</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0505</v>
+        <f>RIGHT(A154,LEN(A154)-FIND(": ",A154))</f>
+        <v xml:space="preserve"> STAIR_0202</v>
       </c>
       <c r="C154" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D154" t="s">
-        <v>388</v>
-      </c>
-      <c r="E154" t="s">
-        <v>387</v>
-      </c>
-      <c r="H154">
-        <v>30</v>
-      </c>
-      <c r="I154" t="s">
-        <v>405</v>
-      </c>
-      <c r="J154" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0506</v>
+        <f>RIGHT(A155,LEN(A155)-FIND(": ",A155))</f>
+        <v xml:space="preserve"> STAIR_0301</v>
       </c>
       <c r="C155" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D155" t="s">
-        <v>388</v>
-      </c>
-      <c r="E155" t="s">
-        <v>387</v>
-      </c>
-      <c r="H155">
-        <v>30</v>
-      </c>
-      <c r="I155" t="s">
-        <v>405</v>
-      </c>
-      <c r="J155" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>324</v>
+        <v>145</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0507_3B</v>
+        <f>RIGHT(A156,LEN(A156)-FIND(": ",A156))</f>
+        <v xml:space="preserve"> STAIR_0302</v>
       </c>
       <c r="C156" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D156" t="s">
-        <v>388</v>
-      </c>
-      <c r="E156" t="s">
-        <v>387</v>
-      </c>
-      <c r="H156">
-        <v>55</v>
-      </c>
-      <c r="I156" t="s">
-        <v>406</v>
-      </c>
-      <c r="J156" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0508</v>
+        <f>RIGHT(A157,LEN(A157)-FIND(": ",A157))</f>
+        <v xml:space="preserve"> STAIR_0401</v>
       </c>
       <c r="C157" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D157" t="s">
-        <v>388</v>
-      </c>
-      <c r="E157" t="s">
-        <v>387</v>
-      </c>
-      <c r="H157">
-        <v>30</v>
-      </c>
-      <c r="I157" t="s">
-        <v>405</v>
-      </c>
-      <c r="J157" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0509_2B</v>
+        <f>RIGHT(A158,LEN(A158)-FIND(": ",A158))</f>
+        <v xml:space="preserve"> STAIR_0402</v>
       </c>
       <c r="C158" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D158" t="s">
-        <v>388</v>
-      </c>
-      <c r="E158" t="s">
-        <v>387</v>
-      </c>
-      <c r="H158">
-        <v>55</v>
-      </c>
-      <c r="I158" t="s">
-        <v>406</v>
-      </c>
-      <c r="J158" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>330</v>
+        <v>151</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0510</v>
+        <f>RIGHT(A159,LEN(A159)-FIND(": ",A159))</f>
+        <v xml:space="preserve"> STAIR_0501</v>
       </c>
       <c r="C159" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D159" t="s">
-        <v>388</v>
-      </c>
-      <c r="E159" t="s">
-        <v>387</v>
-      </c>
-      <c r="H159">
-        <v>30</v>
-      </c>
-      <c r="I159" t="s">
-        <v>405</v>
-      </c>
-      <c r="J159" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0511</v>
+        <f>RIGHT(A160,LEN(A160)-FIND(": ",A160))</f>
+        <v xml:space="preserve"> STAIR_0502</v>
       </c>
       <c r="C160" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D160" t="s">
-        <v>388</v>
-      </c>
-      <c r="E160" t="s">
-        <v>387</v>
-      </c>
-      <c r="H160">
-        <v>30</v>
-      </c>
-      <c r="I160" t="s">
-        <v>405</v>
-      </c>
-      <c r="J160" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0512</v>
+        <f>RIGHT(A161,LEN(A161)-FIND(": ",A161))</f>
+        <v xml:space="preserve"> STAIR_2101</v>
       </c>
       <c r="C161" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D161" t="s">
-        <v>388</v>
-      </c>
-      <c r="E161" t="s">
-        <v>387</v>
-      </c>
-      <c r="H161">
-        <v>30</v>
-      </c>
-      <c r="I161" t="s">
-        <v>405</v>
-      </c>
-      <c r="J161" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>336</v>
+        <v>157</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0513</v>
+        <f>RIGHT(A162,LEN(A162)-FIND(": ",A162))</f>
+        <v xml:space="preserve"> STAIR_2102</v>
       </c>
       <c r="C162" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D162" t="s">
-        <v>388</v>
-      </c>
-      <c r="E162" t="s">
-        <v>387</v>
-      </c>
-      <c r="H162">
-        <v>30</v>
-      </c>
-      <c r="I162" t="s">
-        <v>405</v>
-      </c>
-      <c r="J162" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0514</v>
+        <f>RIGHT(A163,LEN(A163)-FIND(": ",A163))</f>
+        <v xml:space="preserve"> STAIR_2201</v>
       </c>
       <c r="C163" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D163" t="s">
-        <v>388</v>
-      </c>
-      <c r="E163" t="s">
-        <v>387</v>
-      </c>
-      <c r="H163">
-        <v>30</v>
-      </c>
-      <c r="I163" t="s">
-        <v>405</v>
-      </c>
-      <c r="J163" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0515</v>
+        <f>RIGHT(A164,LEN(A164)-FIND(": ",A164))</f>
+        <v xml:space="preserve"> STAIR_2202</v>
       </c>
       <c r="C164" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D164" t="s">
-        <v>388</v>
-      </c>
-      <c r="E164" t="s">
-        <v>387</v>
-      </c>
-      <c r="H164">
-        <v>30</v>
-      </c>
-      <c r="I164" t="s">
-        <v>405</v>
-      </c>
-      <c r="J164" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0516</v>
+        <f>RIGHT(A165,LEN(A165)-FIND(": ",A165))</f>
+        <v xml:space="preserve"> STAIR_2301</v>
       </c>
       <c r="C165" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D165" t="s">
-        <v>388</v>
-      </c>
-      <c r="E165" t="s">
-        <v>387</v>
-      </c>
-      <c r="H165">
-        <v>30</v>
-      </c>
-      <c r="I165" t="s">
-        <v>405</v>
-      </c>
-      <c r="J165" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_0517_4B</v>
+        <f>RIGHT(A166,LEN(A166)-FIND(": ",A166))</f>
+        <v xml:space="preserve"> STAIR_2302</v>
       </c>
       <c r="C166" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D166" t="s">
-        <v>388</v>
-      </c>
-      <c r="E166" t="s">
-        <v>387</v>
-      </c>
-      <c r="H166">
-        <v>75</v>
-      </c>
-      <c r="I166" t="s">
-        <v>406</v>
-      </c>
-      <c r="J166" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2101_4B</v>
+        <f>RIGHT(A167,LEN(A167)-FIND(": ",A167))</f>
+        <v xml:space="preserve"> STAIR_P101</v>
       </c>
       <c r="C167" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D167" t="s">
-        <v>388</v>
-      </c>
-      <c r="E167" t="s">
-        <v>387</v>
-      </c>
-      <c r="H167">
-        <v>75</v>
-      </c>
-      <c r="I167" t="s">
-        <v>397</v>
-      </c>
-      <c r="J167" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2102</v>
+        <f>RIGHT(A168,LEN(A168)-FIND(": ",A168))</f>
+        <v xml:space="preserve"> STAIR_P102</v>
       </c>
       <c r="C168" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D168" t="s">
-        <v>388</v>
-      </c>
-      <c r="E168" t="s">
-        <v>387</v>
-      </c>
-      <c r="H168">
-        <v>30</v>
-      </c>
-      <c r="I168" t="s">
-        <v>398</v>
-      </c>
-      <c r="J168" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2103</v>
+        <f>RIGHT(A169,LEN(A169)-FIND(": ",A169))</f>
+        <v xml:space="preserve"> STAIR_P201</v>
       </c>
       <c r="C169" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D169" t="s">
-        <v>388</v>
-      </c>
-      <c r="E169" t="s">
-        <v>387</v>
-      </c>
-      <c r="H169">
-        <v>30</v>
-      </c>
-      <c r="I169" t="s">
-        <v>398</v>
-      </c>
-      <c r="J169" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2104</v>
+        <f>RIGHT(A170,LEN(A170)-FIND(": ",A170))</f>
+        <v xml:space="preserve"> STAIR_P202</v>
       </c>
       <c r="C170" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D170" t="s">
-        <v>388</v>
-      </c>
-      <c r="E170" t="s">
-        <v>387</v>
-      </c>
-      <c r="H170">
-        <v>30</v>
-      </c>
-      <c r="I170" t="s">
-        <v>398</v>
-      </c>
-      <c r="J170" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2105</v>
+        <f>RIGHT(A171,LEN(A171)-FIND(": ",A171))</f>
+        <v xml:space="preserve"> STOR_0101C</v>
       </c>
       <c r="C171" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D171" t="s">
-        <v>388</v>
-      </c>
-      <c r="E171" t="s">
-        <v>387</v>
-      </c>
-      <c r="H171">
-        <v>30</v>
-      </c>
-      <c r="I171" t="s">
-        <v>398</v>
-      </c>
-      <c r="J171" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="F171">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
+        <v>418</v>
+      </c>
+      <c r="K171" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2106</v>
+        <f>RIGHT(A172,LEN(A172)-FIND(": ",A172))</f>
+        <v xml:space="preserve"> STOR_0100</v>
       </c>
       <c r="C172" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D172" t="s">
-        <v>388</v>
-      </c>
-      <c r="E172" t="s">
-        <v>387</v>
-      </c>
-      <c r="H172">
-        <v>30</v>
-      </c>
-      <c r="I172" t="s">
-        <v>398</v>
-      </c>
-      <c r="J172" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2107_3B</v>
+        <f>RIGHT(A173,LEN(A173)-FIND(": ",A173))</f>
+        <v xml:space="preserve"> STOR_0200</v>
       </c>
       <c r="C173" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D173" t="s">
-        <v>388</v>
-      </c>
-      <c r="E173" t="s">
-        <v>387</v>
-      </c>
-      <c r="H173">
-        <v>55</v>
-      </c>
-      <c r="I173" t="s">
-        <v>397</v>
-      </c>
-      <c r="J173" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2108</v>
+        <f>RIGHT(A174,LEN(A174)-FIND(": ",A174))</f>
+        <v xml:space="preserve"> STOR_0300</v>
       </c>
       <c r="C174" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>388</v>
-      </c>
-      <c r="E174" t="s">
-        <v>387</v>
-      </c>
-      <c r="H174">
-        <v>30</v>
-      </c>
-      <c r="I174" t="s">
-        <v>398</v>
-      </c>
-      <c r="J174" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2109_2B</v>
+        <f>RIGHT(A175,LEN(A175)-FIND(": ",A175))</f>
+        <v xml:space="preserve"> STOR_0400</v>
       </c>
       <c r="C175" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D175" t="s">
-        <v>388</v>
-      </c>
-      <c r="E175" t="s">
-        <v>387</v>
-      </c>
-      <c r="H175">
-        <v>55</v>
-      </c>
-      <c r="I175" t="s">
-        <v>397</v>
-      </c>
-      <c r="J175" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2110</v>
+        <f>RIGHT(A176,LEN(A176)-FIND(": ",A176))</f>
+        <v xml:space="preserve"> STOR_0500</v>
       </c>
       <c r="C176" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D176" t="s">
-        <v>388</v>
-      </c>
-      <c r="E176" t="s">
-        <v>387</v>
-      </c>
-      <c r="H176">
-        <v>30</v>
-      </c>
-      <c r="I176" t="s">
-        <v>398</v>
-      </c>
-      <c r="J176" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2111</v>
+        <f>RIGHT(A177,LEN(A177)-FIND(": ",A177))</f>
+        <v xml:space="preserve"> STOR_2100</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D177" t="s">
-        <v>388</v>
-      </c>
-      <c r="E177" t="s">
-        <v>387</v>
-      </c>
-      <c r="H177">
-        <v>30</v>
-      </c>
-      <c r="I177" t="s">
-        <v>398</v>
-      </c>
-      <c r="J177" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2112</v>
+        <f>RIGHT(A178,LEN(A178)-FIND(": ",A178))</f>
+        <v xml:space="preserve"> STOR_P100</v>
       </c>
       <c r="C178" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D178" t="s">
-        <v>388</v>
-      </c>
-      <c r="E178" t="s">
-        <v>387</v>
-      </c>
-      <c r="H178">
-        <v>30</v>
-      </c>
-      <c r="I178" t="s">
-        <v>398</v>
-      </c>
-      <c r="J178" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2113</v>
+        <f>RIGHT(A179,LEN(A179)-FIND(": ",A179))</f>
+        <v xml:space="preserve"> STOR_P200</v>
       </c>
       <c r="C179" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D179" t="s">
-        <v>388</v>
-      </c>
-      <c r="E179" t="s">
-        <v>387</v>
-      </c>
-      <c r="H179">
-        <v>30</v>
-      </c>
-      <c r="I179" t="s">
-        <v>398</v>
-      </c>
-      <c r="J179" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>372</v>
+        <v>192</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2114</v>
+        <f>RIGHT(A180,LEN(A180)-FIND(": ",A180))</f>
+        <v xml:space="preserve"> TRASH_0200</v>
       </c>
       <c r="C180" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D180" t="s">
-        <v>388</v>
-      </c>
-      <c r="E180" t="s">
-        <v>387</v>
-      </c>
-      <c r="H180">
-        <v>30</v>
-      </c>
-      <c r="I180" t="s">
-        <v>398</v>
-      </c>
-      <c r="J180" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>374</v>
+        <v>195</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2115</v>
+        <f>RIGHT(A181,LEN(A181)-FIND(": ",A181))</f>
+        <v xml:space="preserve"> TRASH_0300</v>
       </c>
       <c r="C181" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D181" t="s">
-        <v>388</v>
-      </c>
-      <c r="E181" t="s">
-        <v>387</v>
-      </c>
-      <c r="H181">
-        <v>30</v>
-      </c>
-      <c r="I181" t="s">
-        <v>398</v>
-      </c>
-      <c r="J181" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>376</v>
+        <v>197</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2116</v>
+        <f>RIGHT(A182,LEN(A182)-FIND(": ",A182))</f>
+        <v xml:space="preserve"> TRASH_0400</v>
       </c>
       <c r="C182" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D182" t="s">
-        <v>388</v>
-      </c>
-      <c r="E182" t="s">
-        <v>387</v>
-      </c>
-      <c r="H182">
-        <v>30</v>
-      </c>
-      <c r="I182" t="s">
-        <v>398</v>
-      </c>
-      <c r="J182" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>378</v>
+        <v>199</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> UNIT_2117_4B</v>
+        <f>RIGHT(A183,LEN(A183)-FIND(": ",A183))</f>
+        <v xml:space="preserve"> TRASH_0500</v>
       </c>
       <c r="C183" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D183" t="s">
-        <v>388</v>
-      </c>
-      <c r="E183" t="s">
-        <v>387</v>
-      </c>
-      <c r="H183">
-        <v>75</v>
-      </c>
-      <c r="I183" t="s">
-        <v>397</v>
-      </c>
-      <c r="J183" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>380</v>
+        <v>201</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> XFMR_0201</v>
+        <f>RIGHT(A184,LEN(A184)-FIND(": ",A184))</f>
+        <v xml:space="preserve"> TRASH_2100</v>
       </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>194</v>
       </c>
       <c r="D184" t="s">
-        <v>388</v>
-      </c>
-      <c r="E184" t="s">
-        <v>431</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184" t="s">
-        <v>400</v>
-      </c>
-      <c r="J184" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>383</v>
+        <v>203</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> XFMR_0401</v>
+        <f>RIGHT(A185,LEN(A185)-FIND(": ",A185))</f>
+        <v xml:space="preserve"> TRASH_2200</v>
       </c>
       <c r="C185" t="s">
-        <v>382</v>
+        <v>194</v>
       </c>
       <c r="D185" t="s">
-        <v>388</v>
-      </c>
-      <c r="E185" t="s">
-        <v>431</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185" t="s">
-        <v>404</v>
-      </c>
-      <c r="J185" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K185" xr:uid="{BF9669FC-7E78-4001-A010-806875128FA3}">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:K181">
-      <sortCondition ref="B1:B183"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K185">
+      <sortCondition ref="E1:E185"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6580,8 +6623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/05_2nd Subimittal/zone_list_2nd.xlsx
+++ b/05_2nd Subimittal/zone_list_2nd.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\05_2nd Subimittal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05990AB-3A71-4785-A293-3E951D59BEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99670505-F7BE-4939-A3B6-037038C07A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="4335" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_list_2nd" sheetId="2" r:id="rId1"/>
-    <sheet name="zone_list_1st" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="zone_list_1st" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">zone_list_1st!$A$1:$J$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">zone_list_1st!$A$1:$J$183</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zone_list_2nd!$A$1:$K$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1345,9 +1346,6 @@
     <t>OHP-GTHR</t>
   </si>
   <si>
-    <t>OHP-LOB</t>
-  </si>
-  <si>
     <t>IHP-GTHR</t>
   </si>
   <si>
@@ -1372,9 +1370,6 @@
     <t>OHP-ELEV-2</t>
   </si>
   <si>
-    <t>OHP-SKY</t>
-  </si>
-  <si>
     <t>VRF-SKY-1-3</t>
   </si>
   <si>
@@ -1385,6 +1380,12 @@
   </si>
   <si>
     <t>VRF-SUN</t>
+  </si>
+  <si>
+    <t>VRF-OHP-SKY</t>
+  </si>
+  <si>
+    <t>VRF-OHP-LOB</t>
   </si>
 </sst>
 </file>
@@ -2219,9 +2220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665169F-D150-4A58-B4BE-D75D65FBC2ED}">
   <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2267,7 @@
         <v>386</v>
       </c>
       <c r="J1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K1" t="s">
         <v>391</v>
@@ -2290,7 +2291,7 @@
         <v>431</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>418</v>
@@ -2429,10 +2430,10 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>396</v>
@@ -2463,10 +2464,10 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>396</v>
@@ -2497,10 +2498,10 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>394</v>
@@ -2531,10 +2532,10 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>396</v>
@@ -2542,2446 +2543,1617 @@
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>RIGHT(A10,LEN(A10)-FIND(": ",A10))</f>
+        <v xml:space="preserve"> AMEN_STORAGE_2204</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>RIGHT(A11,LEN(A11)-FIND(": ",A11))</f>
         <v xml:space="preserve"> AMEN_SUNROOM_2203</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F10" s="3">
-        <v>120</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="str">
-        <f>RIGHT(A11,LEN(A11)-FIND(": ",A11))</f>
-        <v xml:space="preserve"> ELEV CONTROL_2301</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>388</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
+        <v>120</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>RIGHT(A12,LEN(A12)-FIND(": ",A12))</f>
+        <v xml:space="preserve"> CORR_0100</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>389</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="str">
+        <f>RIGHT(A13,LEN(A13)-FIND(": ",A13))</f>
+        <v xml:space="preserve"> CORR_0200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="str">
+        <f>RIGHT(A14,LEN(A14)-FIND(": ",A14))</f>
+        <v xml:space="preserve"> CORR_0300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="str">
+        <f>RIGHT(A15,LEN(A15)-FIND(": ",A15))</f>
+        <v xml:space="preserve"> CORR_0400</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>418</v>
+      </c>
+      <c r="I15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="str">
+        <f>RIGHT(A16,LEN(A16)-FIND(": ",A16))</f>
+        <v xml:space="preserve"> CORR_0500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" t="s">
+        <v>432</v>
+      </c>
+      <c r="F16">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>418</v>
+      </c>
+      <c r="I16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="str">
+        <f>RIGHT(A17,LEN(A17)-FIND(": ",A17))</f>
+        <v xml:space="preserve"> CORR_2100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" t="s">
+        <v>432</v>
+      </c>
+      <c r="F17">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>418</v>
+      </c>
+      <c r="I17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="str">
+        <f>RIGHT(A18,LEN(A18)-FIND(": ",A18))</f>
+        <v xml:space="preserve"> CORR_2300</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" t="s">
+        <v>432</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>418</v>
+      </c>
+      <c r="I18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="str">
+        <f>RIGHT(A19,LEN(A19)-FIND(": ",A19))</f>
+        <v xml:space="preserve"> CORR_2301</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" t="s">
+        <v>432</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>418</v>
+      </c>
+      <c r="I19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="str">
+        <f>RIGHT(A20,LEN(A20)-FIND(": ",A20))</f>
+        <v xml:space="preserve"> ELEC_0300</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="str">
+        <f>RIGHT(A21,LEN(A21)-FIND(": ",A21))</f>
+        <v xml:space="preserve"> ELEC_0400</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="str">
+        <f>RIGHT(A22,LEN(A22)-FIND(": ",A22))</f>
+        <v xml:space="preserve"> ELEV CONTROL_2301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
-      <c r="G11"/>
-      <c r="H11">
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="str">
+        <f>RIGHT(A23,LEN(A23)-FIND(": ",A23))</f>
+        <v xml:space="preserve"> ELEV CONTROL_2302</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="str">
-        <f>RIGHT(A12,LEN(A12)-FIND(": ",A12))</f>
-        <v xml:space="preserve"> ELEV CONTROL_2302</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>388</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="str">
+        <f>RIGHT(A24,LEN(A24)-FIND(": ",A24))</f>
+        <v xml:space="preserve"> ELEV LOBBY_2200</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>388</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>418</v>
+      </c>
+      <c r="I24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f>RIGHT(A25,LEN(A25)-FIND(": ",A25))</f>
+        <v xml:space="preserve"> ELEV LOBBY_P100</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="3">
+        <v>205</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f>RIGHT(A26,LEN(A26)-FIND(": ",A26))</f>
+        <v xml:space="preserve"> ELEV LOBBY_P200</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F26" s="3">
+        <v>205</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="str">
+        <f>RIGHT(A27,LEN(A27)-FIND(": ",A27))</f>
+        <v xml:space="preserve"> ELEV_0101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="str">
+        <f>RIGHT(A28,LEN(A28)-FIND(": ",A28))</f>
+        <v xml:space="preserve"> ELEV_0102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="str">
+        <f>RIGHT(A29,LEN(A29)-FIND(": ",A29))</f>
+        <v xml:space="preserve"> ELEV_0201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="str">
+        <f>RIGHT(A30,LEN(A30)-FIND(": ",A30))</f>
+        <v xml:space="preserve"> ELEV_0202</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="str">
+        <f>RIGHT(A31,LEN(A31)-FIND(": ",A31))</f>
+        <v xml:space="preserve"> ELEV_0301</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="str">
+        <f>RIGHT(A32,LEN(A32)-FIND(": ",A32))</f>
+        <v xml:space="preserve"> ELEV_0302</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="str">
+        <f>RIGHT(A33,LEN(A33)-FIND(": ",A33))</f>
+        <v xml:space="preserve"> ELEV_0401</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="str">
+        <f>RIGHT(A34,LEN(A34)-FIND(": ",A34))</f>
+        <v xml:space="preserve"> ELEV_0402</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="str">
+        <f>RIGHT(A35,LEN(A35)-FIND(": ",A35))</f>
+        <v xml:space="preserve"> ELEV_0501</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="str">
+        <f>RIGHT(A36,LEN(A36)-FIND(": ",A36))</f>
+        <v xml:space="preserve"> ELEV_0502</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="str">
+        <f>RIGHT(A37,LEN(A37)-FIND(": ",A37))</f>
+        <v xml:space="preserve"> ELEV_2101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="str">
+        <f>RIGHT(A38,LEN(A38)-FIND(": ",A38))</f>
+        <v xml:space="preserve"> ELEV_2102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="str">
+        <f>RIGHT(A39,LEN(A39)-FIND(": ",A39))</f>
+        <v xml:space="preserve"> ELEV_2201</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="str">
+        <f>RIGHT(A40,LEN(A40)-FIND(": ",A40))</f>
+        <v xml:space="preserve"> ELEV_2202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="str">
+        <f>RIGHT(A41,LEN(A41)-FIND(": ",A41))</f>
+        <v xml:space="preserve"> ELEV_2301</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="str">
+        <f>RIGHT(A42,LEN(A42)-FIND(": ",A42))</f>
+        <v xml:space="preserve"> ELEV_2302</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="str">
+        <f>RIGHT(A43,LEN(A43)-FIND(": ",A43))</f>
+        <v xml:space="preserve"> ELEV_P101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="str">
+        <f>RIGHT(A44,LEN(A44)-FIND(": ",A44))</f>
+        <v xml:space="preserve"> ELEV_P102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="str">
+        <f>RIGHT(A45,LEN(A45)-FIND(": ",A45))</f>
+        <v xml:space="preserve"> ELEV_P201</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="str">
+        <f>RIGHT(A46,LEN(A46)-FIND(": ",A46))</f>
+        <v xml:space="preserve"> ELEV_P202</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f>RIGHT(A47,LEN(A47)-FIND(": ",A47))</f>
+        <v xml:space="preserve"> FCC_0100</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f>RIGHT(A48,LEN(A48)-FIND(": ",A48))</f>
+        <v xml:space="preserve"> LAUNDRY_0109</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="K12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B13" s="3" t="str">
-        <f>RIGHT(A13,LEN(A13)-FIND(": ",A13))</f>
-        <v xml:space="preserve"> LAUNDRY_0109</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f>RIGHT(A49,LEN(A49)-FIND(": ",A49))</f>
+        <v xml:space="preserve"> LOBBY_0101</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F13" s="3">
-        <v>300</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f>RIGHT(A14,LEN(A14)-FIND(": ",A14))</f>
-        <v xml:space="preserve"> LOBBY_0101</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F49" s="3">
         <f>85+215</f>
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B15" s="3" t="str">
-        <f>RIGHT(A15,LEN(A15)-FIND(": ",A15))</f>
+      <c r="B50" s="3" t="str">
+        <f>RIGHT(A50,LEN(A50)-FIND(": ",A50))</f>
         <v xml:space="preserve"> MAIL_0101</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D50" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F50" s="3">
         <v>20</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f>RIGHT(A16,LEN(A16)-FIND(": ",A16))</f>
-        <v xml:space="preserve"> OFFICE_0101</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F16" s="3">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f>RIGHT(A17,LEN(A17)-FIND(": ",A17))</f>
-        <v xml:space="preserve"> RETAIL_0100</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F17" s="3">
-        <v>480</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>380</v>
-      </c>
-      <c r="B18" t="str">
-        <f>RIGHT(A18,LEN(A18)-FIND(": ",A18))</f>
-        <v xml:space="preserve"> XFMR_0201</v>
-      </c>
-      <c r="C18" t="s">
-        <v>382</v>
-      </c>
-      <c r="D18" t="s">
-        <v>388</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>400</v>
-      </c>
-      <c r="J18" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>383</v>
-      </c>
-      <c r="B19" t="str">
-        <f>RIGHT(A19,LEN(A19)-FIND(": ",A19))</f>
-        <v xml:space="preserve"> XFMR_0401</v>
-      </c>
-      <c r="C19" t="s">
-        <v>382</v>
-      </c>
-      <c r="D19" t="s">
-        <v>388</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>404</v>
-      </c>
-      <c r="J19" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" t="str">
-        <f>RIGHT(A20,LEN(A20)-FIND(": ",A20))</f>
-        <v xml:space="preserve"> UNIT_0201_4B</v>
-      </c>
-      <c r="C20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" t="s">
-        <v>388</v>
-      </c>
-      <c r="E20" t="s">
-        <v>387</v>
-      </c>
-      <c r="H20">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s">
-        <v>400</v>
-      </c>
-      <c r="J20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" t="str">
-        <f>RIGHT(A21,LEN(A21)-FIND(": ",A21))</f>
-        <v xml:space="preserve"> UNIT_0202</v>
-      </c>
-      <c r="C21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" t="s">
-        <v>388</v>
-      </c>
-      <c r="E21" t="s">
-        <v>387</v>
-      </c>
-      <c r="H21">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
-        <v>399</v>
-      </c>
-      <c r="J21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" t="str">
-        <f>RIGHT(A22,LEN(A22)-FIND(": ",A22))</f>
-        <v xml:space="preserve"> UNIT_0203</v>
-      </c>
-      <c r="C22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" t="s">
-        <v>388</v>
-      </c>
-      <c r="E22" t="s">
-        <v>387</v>
-      </c>
-      <c r="H22">
-        <v>30</v>
-      </c>
-      <c r="I22" t="s">
-        <v>399</v>
-      </c>
-      <c r="J22" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" t="str">
-        <f>RIGHT(A23,LEN(A23)-FIND(": ",A23))</f>
-        <v xml:space="preserve"> UNIT_0204</v>
-      </c>
-      <c r="C23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" t="s">
-        <v>388</v>
-      </c>
-      <c r="E23" t="s">
-        <v>387</v>
-      </c>
-      <c r="H23">
-        <v>30</v>
-      </c>
-      <c r="I23" t="s">
-        <v>399</v>
-      </c>
-      <c r="J23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" t="str">
-        <f>RIGHT(A24,LEN(A24)-FIND(": ",A24))</f>
-        <v xml:space="preserve"> UNIT_0205</v>
-      </c>
-      <c r="C24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E24" t="s">
-        <v>387</v>
-      </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-      <c r="I24" t="s">
-        <v>399</v>
-      </c>
-      <c r="J24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" t="str">
-        <f>RIGHT(A25,LEN(A25)-FIND(": ",A25))</f>
-        <v xml:space="preserve"> UNIT_0206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" t="s">
-        <v>388</v>
-      </c>
-      <c r="E25" t="s">
-        <v>387</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>399</v>
-      </c>
-      <c r="J25" t="s">
-        <v>399</v>
-      </c>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" t="str">
-        <f>RIGHT(A26,LEN(A26)-FIND(": ",A26))</f>
-        <v xml:space="preserve"> UNIT_0207</v>
-      </c>
-      <c r="C26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" t="s">
-        <v>388</v>
-      </c>
-      <c r="E26" t="s">
-        <v>387</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26">
-        <v>30</v>
-      </c>
-      <c r="I26" t="s">
-        <v>399</v>
-      </c>
-      <c r="J26" t="s">
-        <v>399</v>
-      </c>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" t="str">
-        <f>RIGHT(A27,LEN(A27)-FIND(": ",A27))</f>
-        <v xml:space="preserve"> UNIT_0208</v>
-      </c>
-      <c r="C27" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E27" t="s">
-        <v>387</v>
-      </c>
-      <c r="H27">
-        <v>30</v>
-      </c>
-      <c r="I27" t="s">
-        <v>399</v>
-      </c>
-      <c r="J27" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" t="str">
-        <f>RIGHT(A28,LEN(A28)-FIND(": ",A28))</f>
-        <v xml:space="preserve"> UNIT_0209_3B</v>
-      </c>
-      <c r="C28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" t="s">
-        <v>388</v>
-      </c>
-      <c r="E28" t="s">
-        <v>387</v>
-      </c>
-      <c r="H28">
-        <v>55</v>
-      </c>
-      <c r="I28" t="s">
-        <v>400</v>
-      </c>
-      <c r="J28" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" t="str">
-        <f>RIGHT(A29,LEN(A29)-FIND(": ",A29))</f>
-        <v xml:space="preserve"> UNIT_0210</v>
-      </c>
-      <c r="C29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" t="s">
-        <v>388</v>
-      </c>
-      <c r="E29" t="s">
-        <v>387</v>
-      </c>
-      <c r="H29">
-        <v>30</v>
-      </c>
-      <c r="I29" t="s">
-        <v>399</v>
-      </c>
-      <c r="J29" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" t="str">
-        <f>RIGHT(A30,LEN(A30)-FIND(": ",A30))</f>
-        <v xml:space="preserve"> UNIT_0211_2B</v>
-      </c>
-      <c r="C30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" t="s">
-        <v>388</v>
-      </c>
-      <c r="E30" t="s">
-        <v>387</v>
-      </c>
-      <c r="H30">
-        <v>55</v>
-      </c>
-      <c r="I30" t="s">
-        <v>400</v>
-      </c>
-      <c r="J30" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" t="str">
-        <f>RIGHT(A31,LEN(A31)-FIND(": ",A31))</f>
-        <v xml:space="preserve"> UNIT_0212</v>
-      </c>
-      <c r="C31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" t="s">
-        <v>388</v>
-      </c>
-      <c r="E31" t="s">
-        <v>387</v>
-      </c>
-      <c r="H31">
-        <v>30</v>
-      </c>
-      <c r="I31" t="s">
-        <v>399</v>
-      </c>
-      <c r="J31" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" t="str">
-        <f>RIGHT(A32,LEN(A32)-FIND(": ",A32))</f>
-        <v xml:space="preserve"> UNIT_0213</v>
-      </c>
-      <c r="C32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" t="s">
-        <v>388</v>
-      </c>
-      <c r="E32" t="s">
-        <v>387</v>
-      </c>
-      <c r="H32">
-        <v>30</v>
-      </c>
-      <c r="I32" t="s">
-        <v>399</v>
-      </c>
-      <c r="J32" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" t="str">
-        <f>RIGHT(A33,LEN(A33)-FIND(": ",A33))</f>
-        <v xml:space="preserve"> UNIT_0214</v>
-      </c>
-      <c r="C33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" t="s">
-        <v>388</v>
-      </c>
-      <c r="E33" t="s">
-        <v>387</v>
-      </c>
-      <c r="H33">
-        <v>30</v>
-      </c>
-      <c r="I33" t="s">
-        <v>399</v>
-      </c>
-      <c r="J33" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B34" t="str">
-        <f>RIGHT(A34,LEN(A34)-FIND(": ",A34))</f>
-        <v xml:space="preserve"> UNIT_0215</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" t="s">
-        <v>388</v>
-      </c>
-      <c r="E34" t="s">
-        <v>387</v>
-      </c>
-      <c r="H34">
-        <v>30</v>
-      </c>
-      <c r="I34" t="s">
-        <v>399</v>
-      </c>
-      <c r="J34" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B35" t="str">
-        <f>RIGHT(A35,LEN(A35)-FIND(": ",A35))</f>
-        <v xml:space="preserve"> UNIT_0216</v>
-      </c>
-      <c r="C35" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" t="s">
-        <v>388</v>
-      </c>
-      <c r="E35" t="s">
-        <v>387</v>
-      </c>
-      <c r="H35">
-        <v>30</v>
-      </c>
-      <c r="I35" t="s">
-        <v>399</v>
-      </c>
-      <c r="J35" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" t="str">
-        <f>RIGHT(A36,LEN(A36)-FIND(": ",A36))</f>
-        <v xml:space="preserve"> UNIT_0217</v>
-      </c>
-      <c r="C36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" t="s">
-        <v>388</v>
-      </c>
-      <c r="E36" t="s">
-        <v>387</v>
-      </c>
-      <c r="H36">
-        <v>30</v>
-      </c>
-      <c r="I36" t="s">
-        <v>399</v>
-      </c>
-      <c r="J36" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>240</v>
-      </c>
-      <c r="B37" t="str">
-        <f>RIGHT(A37,LEN(A37)-FIND(": ",A37))</f>
-        <v xml:space="preserve"> UNIT_0218</v>
-      </c>
-      <c r="C37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" t="s">
-        <v>388</v>
-      </c>
-      <c r="E37" t="s">
-        <v>387</v>
-      </c>
-      <c r="H37">
-        <v>30</v>
-      </c>
-      <c r="I37" t="s">
-        <v>399</v>
-      </c>
-      <c r="J37" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38" t="str">
-        <f>RIGHT(A38,LEN(A38)-FIND(": ",A38))</f>
-        <v xml:space="preserve"> UNIT_0219_4B</v>
-      </c>
-      <c r="C38" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" t="s">
-        <v>388</v>
-      </c>
-      <c r="E38" t="s">
-        <v>387</v>
-      </c>
-      <c r="H38">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s">
-        <v>400</v>
-      </c>
-      <c r="J38" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>244</v>
-      </c>
-      <c r="B39" t="str">
-        <f>RIGHT(A39,LEN(A39)-FIND(": ",A39))</f>
-        <v xml:space="preserve"> UNIT_0301_4B</v>
-      </c>
-      <c r="C39" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" t="s">
-        <v>388</v>
-      </c>
-      <c r="E39" t="s">
-        <v>387</v>
-      </c>
-      <c r="H39">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s">
-        <v>402</v>
-      </c>
-      <c r="J39" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>246</v>
-      </c>
-      <c r="B40" t="str">
-        <f>RIGHT(A40,LEN(A40)-FIND(": ",A40))</f>
-        <v xml:space="preserve"> UNIT_0302</v>
-      </c>
-      <c r="C40" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" t="s">
-        <v>388</v>
-      </c>
-      <c r="E40" t="s">
-        <v>387</v>
-      </c>
-      <c r="H40">
-        <v>30</v>
-      </c>
-      <c r="I40" t="s">
-        <v>401</v>
-      </c>
-      <c r="J40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" t="str">
-        <f>RIGHT(A41,LEN(A41)-FIND(": ",A41))</f>
-        <v xml:space="preserve"> UNIT_0303</v>
-      </c>
-      <c r="C41" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" t="s">
-        <v>388</v>
-      </c>
-      <c r="E41" t="s">
-        <v>387</v>
-      </c>
-      <c r="H41">
-        <v>30</v>
-      </c>
-      <c r="I41" t="s">
-        <v>401</v>
-      </c>
-      <c r="J41" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>250</v>
-      </c>
-      <c r="B42" t="str">
-        <f>RIGHT(A42,LEN(A42)-FIND(": ",A42))</f>
-        <v xml:space="preserve"> UNIT_0304</v>
-      </c>
-      <c r="C42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" t="s">
-        <v>388</v>
-      </c>
-      <c r="E42" t="s">
-        <v>387</v>
-      </c>
-      <c r="H42">
-        <v>30</v>
-      </c>
-      <c r="I42" t="s">
-        <v>401</v>
-      </c>
-      <c r="J42" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>252</v>
-      </c>
-      <c r="B43" t="str">
-        <f>RIGHT(A43,LEN(A43)-FIND(": ",A43))</f>
-        <v xml:space="preserve"> UNIT_0305</v>
-      </c>
-      <c r="C43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" t="s">
-        <v>388</v>
-      </c>
-      <c r="E43" t="s">
-        <v>387</v>
-      </c>
-      <c r="H43">
-        <v>30</v>
-      </c>
-      <c r="I43" t="s">
-        <v>401</v>
-      </c>
-      <c r="J43" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>254</v>
-      </c>
-      <c r="B44" t="str">
-        <f>RIGHT(A44,LEN(A44)-FIND(": ",A44))</f>
-        <v xml:space="preserve"> UNIT_0306</v>
-      </c>
-      <c r="C44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" t="s">
-        <v>388</v>
-      </c>
-      <c r="E44" t="s">
-        <v>387</v>
-      </c>
-      <c r="H44">
-        <v>30</v>
-      </c>
-      <c r="I44" t="s">
-        <v>401</v>
-      </c>
-      <c r="J44" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" t="str">
-        <f>RIGHT(A45,LEN(A45)-FIND(": ",A45))</f>
-        <v xml:space="preserve"> UNIT_0307_3B</v>
-      </c>
-      <c r="C45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" t="s">
-        <v>387</v>
-      </c>
-      <c r="H45">
-        <v>55</v>
-      </c>
-      <c r="I45" t="s">
-        <v>402</v>
-      </c>
-      <c r="J45" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>258</v>
-      </c>
-      <c r="B46" t="str">
-        <f>RIGHT(A46,LEN(A46)-FIND(": ",A46))</f>
-        <v xml:space="preserve"> UNIT_0308</v>
-      </c>
-      <c r="C46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" t="s">
-        <v>388</v>
-      </c>
-      <c r="E46" t="s">
-        <v>387</v>
-      </c>
-      <c r="H46">
-        <v>30</v>
-      </c>
-      <c r="I46" t="s">
-        <v>401</v>
-      </c>
-      <c r="J46" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>260</v>
-      </c>
-      <c r="B47" t="str">
-        <f>RIGHT(A47,LEN(A47)-FIND(": ",A47))</f>
-        <v xml:space="preserve"> UNIT_0309_2B</v>
-      </c>
-      <c r="C47" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" t="s">
-        <v>388</v>
-      </c>
-      <c r="E47" t="s">
-        <v>387</v>
-      </c>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47">
-        <v>55</v>
-      </c>
-      <c r="I47" t="s">
-        <v>402</v>
-      </c>
-      <c r="J47" t="s">
-        <v>402</v>
-      </c>
-      <c r="K47"/>
-    </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>262</v>
-      </c>
-      <c r="B48" t="str">
-        <f>RIGHT(A48,LEN(A48)-FIND(": ",A48))</f>
-        <v xml:space="preserve"> UNIT_0310</v>
-      </c>
-      <c r="C48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" t="s">
-        <v>388</v>
-      </c>
-      <c r="E48" t="s">
-        <v>387</v>
-      </c>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48">
-        <v>30</v>
-      </c>
-      <c r="I48" t="s">
-        <v>401</v>
-      </c>
-      <c r="J48" t="s">
-        <v>401</v>
-      </c>
-      <c r="K48"/>
-    </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>264</v>
-      </c>
-      <c r="B49" t="str">
-        <f>RIGHT(A49,LEN(A49)-FIND(": ",A49))</f>
-        <v xml:space="preserve"> UNIT_0311</v>
-      </c>
-      <c r="C49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" t="s">
-        <v>387</v>
-      </c>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49">
-        <v>30</v>
-      </c>
-      <c r="I49" t="s">
-        <v>401</v>
-      </c>
-      <c r="J49" t="s">
-        <v>401</v>
-      </c>
-      <c r="K49"/>
-    </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>266</v>
-      </c>
-      <c r="B50" t="str">
-        <f>RIGHT(A50,LEN(A50)-FIND(": ",A50))</f>
-        <v xml:space="preserve"> UNIT_0312</v>
-      </c>
-      <c r="C50" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" t="s">
-        <v>388</v>
-      </c>
-      <c r="E50" t="s">
-        <v>387</v>
-      </c>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50">
-        <v>30</v>
-      </c>
-      <c r="I50" t="s">
-        <v>401</v>
-      </c>
-      <c r="J50" t="s">
-        <v>401</v>
-      </c>
-      <c r="K50"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="B51" t="str">
         <f>RIGHT(A51,LEN(A51)-FIND(": ",A51))</f>
-        <v xml:space="preserve"> UNIT_0313</v>
+        <v xml:space="preserve"> MECH_0200</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>388</v>
-      </c>
-      <c r="E51" t="s">
-        <v>387</v>
-      </c>
-      <c r="H51">
-        <v>30</v>
-      </c>
-      <c r="I51" t="s">
-        <v>401</v>
-      </c>
-      <c r="J51" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="B52" t="str">
         <f>RIGHT(A52,LEN(A52)-FIND(": ",A52))</f>
-        <v xml:space="preserve"> UNIT_0314</v>
+        <v xml:space="preserve"> MECH_0300</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>388</v>
-      </c>
-      <c r="E52" t="s">
-        <v>387</v>
-      </c>
-      <c r="H52">
-        <v>30</v>
-      </c>
-      <c r="I52" t="s">
-        <v>401</v>
-      </c>
-      <c r="J52" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="B53" t="str">
         <f>RIGHT(A53,LEN(A53)-FIND(": ",A53))</f>
-        <v xml:space="preserve"> UNIT_0315</v>
+        <v xml:space="preserve"> MECH_0400</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>388</v>
-      </c>
-      <c r="E53" t="s">
-        <v>387</v>
-      </c>
-      <c r="H53">
-        <v>30</v>
-      </c>
-      <c r="I53" t="s">
-        <v>401</v>
-      </c>
-      <c r="J53" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>114</v>
       </c>
       <c r="B54" t="str">
         <f>RIGHT(A54,LEN(A54)-FIND(": ",A54))</f>
-        <v xml:space="preserve"> UNIT_0316</v>
+        <v xml:space="preserve"> MECH_0500</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>388</v>
-      </c>
-      <c r="E54" t="s">
-        <v>387</v>
-      </c>
-      <c r="H54">
-        <v>30</v>
-      </c>
-      <c r="I54" t="s">
-        <v>401</v>
-      </c>
-      <c r="J54" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>276</v>
+        <v>116</v>
       </c>
       <c r="B55" t="str">
         <f>RIGHT(A55,LEN(A55)-FIND(": ",A55))</f>
-        <v xml:space="preserve"> UNIT_0317_4B</v>
+        <v xml:space="preserve"> MECH_2100</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>388</v>
-      </c>
-      <c r="E55" t="s">
-        <v>387</v>
-      </c>
-      <c r="H55">
-        <v>75</v>
-      </c>
-      <c r="I55" t="s">
-        <v>402</v>
-      </c>
-      <c r="J55" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>278</v>
-      </c>
-      <c r="B56" t="str">
+      <c r="A56" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" s="3" t="str">
         <f>RIGHT(A56,LEN(A56)-FIND(": ",A56))</f>
-        <v xml:space="preserve"> UNIT_0401_4B</v>
-      </c>
-      <c r="C56" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" t="s">
-        <v>388</v>
-      </c>
-      <c r="E56" t="s">
-        <v>387</v>
-      </c>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s">
-        <v>404</v>
-      </c>
-      <c r="J56" t="s">
-        <v>404</v>
-      </c>
-      <c r="K56"/>
+        <v xml:space="preserve"> OFFICE_0101</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F56" s="3">
+        <v>30</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>280</v>
-      </c>
-      <c r="B57" t="str">
+      <c r="A57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="3" t="str">
         <f>RIGHT(A57,LEN(A57)-FIND(": ",A57))</f>
-        <v xml:space="preserve"> UNIT_0402</v>
-      </c>
-      <c r="C57" t="s">
-        <v>207</v>
+        <v xml:space="preserve"> PACKAGE_0100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>388</v>
-      </c>
-      <c r="E57" t="s">
-        <v>387</v>
-      </c>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57">
-        <v>30</v>
-      </c>
-      <c r="I57" t="s">
-        <v>403</v>
-      </c>
-      <c r="J57" t="s">
-        <v>403</v>
-      </c>
-      <c r="K57"/>
+        <v>389</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3">
+        <v>25</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="B58" t="str">
         <f>RIGHT(A58,LEN(A58)-FIND(": ",A58))</f>
-        <v xml:space="preserve"> UNIT_0403</v>
+        <v xml:space="preserve"> RESTROOM_0100</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>388</v>
-      </c>
-      <c r="E58" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H58">
-        <v>30</v>
-      </c>
-      <c r="I58" t="s">
-        <v>403</v>
-      </c>
-      <c r="J58" t="s">
-        <v>403</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>284</v>
+        <v>124</v>
       </c>
       <c r="B59" t="str">
         <f>RIGHT(A59,LEN(A59)-FIND(": ",A59))</f>
-        <v xml:space="preserve"> UNIT_0404</v>
+        <v xml:space="preserve"> RESTROOM_2201</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>388</v>
-      </c>
-      <c r="E59" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H59">
-        <v>30</v>
-      </c>
-      <c r="I59" t="s">
-        <v>403</v>
-      </c>
-      <c r="J59" t="s">
-        <v>403</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="B60" t="str">
         <f>RIGHT(A60,LEN(A60)-FIND(": ",A60))</f>
-        <v xml:space="preserve"> UNIT_0405</v>
+        <v xml:space="preserve"> RESTROOM_2202</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>388</v>
-      </c>
-      <c r="E60" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H60">
-        <v>30</v>
-      </c>
-      <c r="I60" t="s">
-        <v>403</v>
-      </c>
-      <c r="J60" t="s">
-        <v>403</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>288</v>
-      </c>
-      <c r="B61" t="str">
+      <c r="A61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="3" t="str">
         <f>RIGHT(A61,LEN(A61)-FIND(": ",A61))</f>
-        <v xml:space="preserve"> UNIT_0406</v>
-      </c>
-      <c r="C61" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" t="s">
-        <v>388</v>
-      </c>
-      <c r="E61" t="s">
-        <v>387</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61">
-        <v>30</v>
-      </c>
-      <c r="I61" t="s">
-        <v>403</v>
-      </c>
-      <c r="J61" t="s">
-        <v>403</v>
-      </c>
-      <c r="K61"/>
+        <v xml:space="preserve"> RETAIL_0100</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F61" s="3">
+        <v>480</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="B62" t="str">
         <f>RIGHT(A62,LEN(A62)-FIND(": ",A62))</f>
-        <v xml:space="preserve"> UNIT_0407_3B</v>
+        <v xml:space="preserve"> STAIR_0101</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>388</v>
-      </c>
-      <c r="E62" t="s">
-        <v>387</v>
-      </c>
-      <c r="H62">
-        <v>55</v>
-      </c>
-      <c r="I62" t="s">
-        <v>404</v>
-      </c>
-      <c r="J62" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>292</v>
+        <v>137</v>
       </c>
       <c r="B63" t="str">
         <f>RIGHT(A63,LEN(A63)-FIND(": ",A63))</f>
-        <v xml:space="preserve"> UNIT_0408</v>
+        <v xml:space="preserve"> STAIR_0102</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
-        <v>388</v>
-      </c>
-      <c r="E63" t="s">
-        <v>387</v>
-      </c>
-      <c r="H63">
-        <v>30</v>
-      </c>
-      <c r="I63" t="s">
-        <v>403</v>
-      </c>
-      <c r="J63" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>294</v>
+        <v>139</v>
       </c>
       <c r="B64" t="str">
         <f>RIGHT(A64,LEN(A64)-FIND(": ",A64))</f>
-        <v xml:space="preserve"> UNIT_0409_2B</v>
+        <v xml:space="preserve"> STAIR_0201</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D64" t="s">
-        <v>388</v>
-      </c>
-      <c r="E64" t="s">
-        <v>387</v>
-      </c>
-      <c r="H64">
-        <v>55</v>
-      </c>
-      <c r="I64" t="s">
-        <v>404</v>
-      </c>
-      <c r="J64" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="B65" t="str">
         <f>RIGHT(A65,LEN(A65)-FIND(": ",A65))</f>
-        <v xml:space="preserve"> UNIT_0410</v>
+        <v xml:space="preserve"> STAIR_0202</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>388</v>
-      </c>
-      <c r="E65" t="s">
-        <v>387</v>
-      </c>
-      <c r="H65">
-        <v>30</v>
-      </c>
-      <c r="I65" t="s">
-        <v>403</v>
-      </c>
-      <c r="J65" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>298</v>
+        <v>143</v>
       </c>
       <c r="B66" t="str">
         <f>RIGHT(A66,LEN(A66)-FIND(": ",A66))</f>
-        <v xml:space="preserve"> UNIT_0411</v>
+        <v xml:space="preserve"> STAIR_0301</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>388</v>
-      </c>
-      <c r="E66" t="s">
-        <v>387</v>
-      </c>
-      <c r="H66">
-        <v>30</v>
-      </c>
-      <c r="I66" t="s">
-        <v>403</v>
-      </c>
-      <c r="J66" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="B67" t="str">
         <f>RIGHT(A67,LEN(A67)-FIND(": ",A67))</f>
-        <v xml:space="preserve"> UNIT_0412</v>
+        <v xml:space="preserve"> STAIR_0302</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>388</v>
-      </c>
-      <c r="E67" t="s">
-        <v>387</v>
-      </c>
-      <c r="H67">
-        <v>30</v>
-      </c>
-      <c r="I67" t="s">
-        <v>403</v>
-      </c>
-      <c r="J67" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B68" t="str">
         <f>RIGHT(A68,LEN(A68)-FIND(": ",A68))</f>
-        <v xml:space="preserve"> UNIT_0413</v>
+        <v xml:space="preserve"> STAIR_0401</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>388</v>
-      </c>
-      <c r="E68" t="s">
-        <v>387</v>
-      </c>
-      <c r="H68">
-        <v>30</v>
-      </c>
-      <c r="I68" t="s">
-        <v>403</v>
-      </c>
-      <c r="J68" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>304</v>
+        <v>149</v>
       </c>
       <c r="B69" t="str">
         <f>RIGHT(A69,LEN(A69)-FIND(": ",A69))</f>
-        <v xml:space="preserve"> UNIT_0414</v>
+        <v xml:space="preserve"> STAIR_0402</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>388</v>
-      </c>
-      <c r="E69" t="s">
-        <v>387</v>
-      </c>
-      <c r="H69">
-        <v>30</v>
-      </c>
-      <c r="I69" t="s">
-        <v>403</v>
-      </c>
-      <c r="J69" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="B70" t="str">
         <f>RIGHT(A70,LEN(A70)-FIND(": ",A70))</f>
-        <v xml:space="preserve"> UNIT_0415</v>
+        <v xml:space="preserve"> STAIR_0501</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s">
-        <v>388</v>
-      </c>
-      <c r="E70" t="s">
-        <v>387</v>
-      </c>
-      <c r="H70">
-        <v>30</v>
-      </c>
-      <c r="I70" t="s">
-        <v>403</v>
-      </c>
-      <c r="J70" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="B71" t="str">
         <f>RIGHT(A71,LEN(A71)-FIND(": ",A71))</f>
-        <v xml:space="preserve"> UNIT_0416</v>
+        <v xml:space="preserve"> STAIR_0502</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>388</v>
-      </c>
-      <c r="E71" t="s">
-        <v>387</v>
-      </c>
-      <c r="H71">
-        <v>30</v>
-      </c>
-      <c r="I71" t="s">
-        <v>403</v>
-      </c>
-      <c r="J71" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="B72" t="str">
         <f>RIGHT(A72,LEN(A72)-FIND(": ",A72))</f>
-        <v xml:space="preserve"> UNIT_0417_4B</v>
+        <v xml:space="preserve"> STAIR_2101</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>388</v>
-      </c>
-      <c r="E72" t="s">
-        <v>387</v>
-      </c>
-      <c r="H72">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s">
-        <v>404</v>
-      </c>
-      <c r="J72" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="B73" t="str">
         <f>RIGHT(A73,LEN(A73)-FIND(": ",A73))</f>
-        <v xml:space="preserve"> UNIT_0501_4B</v>
+        <v xml:space="preserve"> STAIR_2102</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>388</v>
-      </c>
-      <c r="E73" t="s">
-        <v>387</v>
-      </c>
-      <c r="H73">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s">
-        <v>406</v>
-      </c>
-      <c r="J73" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="B74" t="str">
         <f>RIGHT(A74,LEN(A74)-FIND(": ",A74))</f>
-        <v xml:space="preserve"> UNIT_0502</v>
+        <v xml:space="preserve"> STAIR_2201</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>388</v>
-      </c>
-      <c r="E74" t="s">
-        <v>387</v>
-      </c>
-      <c r="H74">
-        <v>30</v>
-      </c>
-      <c r="I74" t="s">
-        <v>405</v>
-      </c>
-      <c r="J74" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="B75" t="str">
         <f>RIGHT(A75,LEN(A75)-FIND(": ",A75))</f>
-        <v xml:space="preserve"> UNIT_0503</v>
+        <v xml:space="preserve"> STAIR_2202</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
-      </c>
-      <c r="E75" t="s">
-        <v>387</v>
-      </c>
-      <c r="H75">
-        <v>30</v>
-      </c>
-      <c r="I75" t="s">
-        <v>405</v>
-      </c>
-      <c r="J75" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>318</v>
+        <v>163</v>
       </c>
       <c r="B76" t="str">
         <f>RIGHT(A76,LEN(A76)-FIND(": ",A76))</f>
-        <v xml:space="preserve"> UNIT_0504</v>
+        <v xml:space="preserve"> STAIR_2301</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D76" t="s">
-        <v>388</v>
-      </c>
-      <c r="E76" t="s">
-        <v>387</v>
-      </c>
-      <c r="H76">
-        <v>30</v>
-      </c>
-      <c r="I76" t="s">
-        <v>405</v>
-      </c>
-      <c r="J76" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>320</v>
+        <v>165</v>
       </c>
       <c r="B77" t="str">
         <f>RIGHT(A77,LEN(A77)-FIND(": ",A77))</f>
-        <v xml:space="preserve"> UNIT_0505</v>
+        <v xml:space="preserve"> STAIR_2302</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D77" t="s">
-        <v>388</v>
-      </c>
-      <c r="E77" t="s">
-        <v>387</v>
-      </c>
-      <c r="H77">
-        <v>30</v>
-      </c>
-      <c r="I77" t="s">
-        <v>405</v>
-      </c>
-      <c r="J77" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>322</v>
+        <v>167</v>
       </c>
       <c r="B78" t="str">
         <f>RIGHT(A78,LEN(A78)-FIND(": ",A78))</f>
-        <v xml:space="preserve"> UNIT_0506</v>
+        <v xml:space="preserve"> STAIR_P101</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
-        <v>388</v>
-      </c>
-      <c r="E78" t="s">
-        <v>387</v>
-      </c>
-      <c r="H78">
-        <v>30</v>
-      </c>
-      <c r="I78" t="s">
-        <v>405</v>
-      </c>
-      <c r="J78" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>324</v>
+        <v>169</v>
       </c>
       <c r="B79" t="str">
         <f>RIGHT(A79,LEN(A79)-FIND(": ",A79))</f>
-        <v xml:space="preserve"> UNIT_0507_3B</v>
+        <v xml:space="preserve"> STAIR_P102</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s">
-        <v>388</v>
-      </c>
-      <c r="E79" t="s">
-        <v>387</v>
-      </c>
-      <c r="H79">
-        <v>55</v>
-      </c>
-      <c r="I79" t="s">
-        <v>406</v>
-      </c>
-      <c r="J79" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>326</v>
+        <v>171</v>
       </c>
       <c r="B80" t="str">
         <f>RIGHT(A80,LEN(A80)-FIND(": ",A80))</f>
-        <v xml:space="preserve"> UNIT_0508</v>
+        <v xml:space="preserve"> STAIR_P201</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>388</v>
-      </c>
-      <c r="E80" t="s">
-        <v>387</v>
-      </c>
-      <c r="H80">
-        <v>30</v>
-      </c>
-      <c r="I80" t="s">
-        <v>405</v>
-      </c>
-      <c r="J80" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>328</v>
+        <v>173</v>
       </c>
       <c r="B81" t="str">
         <f>RIGHT(A81,LEN(A81)-FIND(": ",A81))</f>
-        <v xml:space="preserve"> UNIT_0509_2B</v>
+        <v xml:space="preserve"> STAIR_P202</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
-        <v>388</v>
-      </c>
-      <c r="E81" t="s">
-        <v>387</v>
-      </c>
-      <c r="H81">
-        <v>55</v>
-      </c>
-      <c r="I81" t="s">
-        <v>406</v>
-      </c>
-      <c r="J81" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>330</v>
+        <v>175</v>
       </c>
       <c r="B82" t="str">
         <f>RIGHT(A82,LEN(A82)-FIND(": ",A82))</f>
-        <v xml:space="preserve"> UNIT_0510</v>
+        <v xml:space="preserve"> STOR_0100</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>388</v>
-      </c>
-      <c r="E82" t="s">
-        <v>387</v>
-      </c>
-      <c r="H82">
-        <v>30</v>
-      </c>
-      <c r="I82" t="s">
-        <v>405</v>
-      </c>
-      <c r="J82" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>332</v>
+        <v>434</v>
       </c>
       <c r="B83" t="str">
         <f>RIGHT(A83,LEN(A83)-FIND(": ",A83))</f>
-        <v xml:space="preserve"> UNIT_0511</v>
+        <v xml:space="preserve"> STOR_0101C</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>388</v>
-      </c>
-      <c r="E83" t="s">
-        <v>387</v>
-      </c>
-      <c r="H83">
-        <v>30</v>
-      </c>
-      <c r="I83" t="s">
-        <v>405</v>
-      </c>
-      <c r="J83" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="F83">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>418</v>
+      </c>
+      <c r="K83" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>334</v>
+        <v>178</v>
       </c>
       <c r="B84" t="str">
         <f>RIGHT(A84,LEN(A84)-FIND(": ",A84))</f>
-        <v xml:space="preserve"> UNIT_0512</v>
+        <v xml:space="preserve"> STOR_0200</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
-        <v>388</v>
-      </c>
-      <c r="E84" t="s">
-        <v>387</v>
-      </c>
-      <c r="H84">
-        <v>30</v>
-      </c>
-      <c r="I84" t="s">
-        <v>405</v>
-      </c>
-      <c r="J84" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>336</v>
+        <v>180</v>
       </c>
       <c r="B85" t="str">
         <f>RIGHT(A85,LEN(A85)-FIND(": ",A85))</f>
-        <v xml:space="preserve"> UNIT_0513</v>
+        <v xml:space="preserve"> STOR_0300</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>388</v>
-      </c>
-      <c r="E85" t="s">
-        <v>387</v>
-      </c>
-      <c r="H85">
-        <v>30</v>
-      </c>
-      <c r="I85" t="s">
-        <v>405</v>
-      </c>
-      <c r="J85" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>182</v>
       </c>
       <c r="B86" t="str">
         <f>RIGHT(A86,LEN(A86)-FIND(": ",A86))</f>
-        <v xml:space="preserve"> UNIT_0514</v>
+        <v xml:space="preserve"> STOR_0400</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>388</v>
-      </c>
-      <c r="E86" t="s">
-        <v>387</v>
-      </c>
-      <c r="H86">
-        <v>30</v>
-      </c>
-      <c r="I86" t="s">
-        <v>405</v>
-      </c>
-      <c r="J86" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>340</v>
+        <v>184</v>
       </c>
       <c r="B87" t="str">
         <f>RIGHT(A87,LEN(A87)-FIND(": ",A87))</f>
-        <v xml:space="preserve"> UNIT_0515</v>
+        <v xml:space="preserve"> STOR_0500</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>388</v>
-      </c>
-      <c r="E87" t="s">
-        <v>387</v>
-      </c>
-      <c r="H87">
-        <v>30</v>
-      </c>
-      <c r="I87" t="s">
-        <v>405</v>
-      </c>
-      <c r="J87" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>342</v>
+        <v>186</v>
       </c>
       <c r="B88" t="str">
         <f>RIGHT(A88,LEN(A88)-FIND(": ",A88))</f>
-        <v xml:space="preserve"> UNIT_0516</v>
+        <v xml:space="preserve"> STOR_2100</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>388</v>
-      </c>
-      <c r="E88" t="s">
-        <v>387</v>
-      </c>
-      <c r="H88">
-        <v>30</v>
-      </c>
-      <c r="I88" t="s">
-        <v>405</v>
-      </c>
-      <c r="J88" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>344</v>
+        <v>188</v>
       </c>
       <c r="B89" t="str">
         <f>RIGHT(A89,LEN(A89)-FIND(": ",A89))</f>
-        <v xml:space="preserve"> UNIT_0517_4B</v>
+        <v xml:space="preserve"> STOR_P100</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>388</v>
-      </c>
-      <c r="E89" t="s">
-        <v>387</v>
-      </c>
-      <c r="H89">
-        <v>75</v>
-      </c>
-      <c r="I89" t="s">
-        <v>406</v>
-      </c>
-      <c r="J89" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>346</v>
+        <v>190</v>
       </c>
       <c r="B90" t="str">
         <f>RIGHT(A90,LEN(A90)-FIND(": ",A90))</f>
-        <v xml:space="preserve"> UNIT_2101_4B</v>
+        <v xml:space="preserve"> STOR_P200</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>388</v>
-      </c>
-      <c r="E90" t="s">
-        <v>387</v>
-      </c>
-      <c r="H90">
-        <v>75</v>
-      </c>
-      <c r="I90" t="s">
-        <v>397</v>
-      </c>
-      <c r="J90" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>348</v>
+        <v>192</v>
       </c>
       <c r="B91" t="str">
         <f>RIGHT(A91,LEN(A91)-FIND(": ",A91))</f>
-        <v xml:space="preserve"> UNIT_2102</v>
+        <v xml:space="preserve"> TRASH_0200</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D91" t="s">
-        <v>388</v>
-      </c>
-      <c r="E91" t="s">
-        <v>387</v>
-      </c>
-      <c r="H91">
-        <v>30</v>
-      </c>
-      <c r="I91" t="s">
-        <v>398</v>
-      </c>
-      <c r="J91" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="B92" t="str">
         <f>RIGHT(A92,LEN(A92)-FIND(": ",A92))</f>
-        <v xml:space="preserve"> UNIT_2103</v>
+        <v xml:space="preserve"> TRASH_0300</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D92" t="s">
-        <v>388</v>
-      </c>
-      <c r="E92" t="s">
-        <v>387</v>
-      </c>
-      <c r="H92">
-        <v>30</v>
-      </c>
-      <c r="I92" t="s">
-        <v>398</v>
-      </c>
-      <c r="J92" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>352</v>
+        <v>197</v>
       </c>
       <c r="B93" t="str">
         <f>RIGHT(A93,LEN(A93)-FIND(": ",A93))</f>
-        <v xml:space="preserve"> UNIT_2104</v>
+        <v xml:space="preserve"> TRASH_0400</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D93" t="s">
-        <v>388</v>
-      </c>
-      <c r="E93" t="s">
-        <v>387</v>
-      </c>
-      <c r="H93">
-        <v>30</v>
-      </c>
-      <c r="I93" t="s">
-        <v>398</v>
-      </c>
-      <c r="J93" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>354</v>
+        <v>199</v>
       </c>
       <c r="B94" t="str">
         <f>RIGHT(A94,LEN(A94)-FIND(": ",A94))</f>
-        <v xml:space="preserve"> UNIT_2105</v>
+        <v xml:space="preserve"> TRASH_0500</v>
       </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D94" t="s">
-        <v>388</v>
-      </c>
-      <c r="E94" t="s">
-        <v>387</v>
-      </c>
-      <c r="H94">
-        <v>30</v>
-      </c>
-      <c r="I94" t="s">
-        <v>398</v>
-      </c>
-      <c r="J94" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>356</v>
+        <v>201</v>
       </c>
       <c r="B95" t="str">
         <f>RIGHT(A95,LEN(A95)-FIND(": ",A95))</f>
-        <v xml:space="preserve"> UNIT_2106</v>
+        <v xml:space="preserve"> TRASH_2100</v>
       </c>
       <c r="C95" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D95" t="s">
-        <v>388</v>
-      </c>
-      <c r="E95" t="s">
-        <v>387</v>
-      </c>
-      <c r="H95">
-        <v>30</v>
-      </c>
-      <c r="I95" t="s">
-        <v>398</v>
-      </c>
-      <c r="J95" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>358</v>
+        <v>203</v>
       </c>
       <c r="B96" t="str">
         <f>RIGHT(A96,LEN(A96)-FIND(": ",A96))</f>
-        <v xml:space="preserve"> UNIT_2107_3B</v>
+        <v xml:space="preserve"> TRASH_2200</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>388</v>
-      </c>
-      <c r="E96" t="s">
-        <v>387</v>
-      </c>
-      <c r="H96">
-        <v>55</v>
-      </c>
-      <c r="I96" t="s">
-        <v>397</v>
-      </c>
-      <c r="J96" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="B97" t="str">
         <f>RIGHT(A97,LEN(A97)-FIND(": ",A97))</f>
-        <v xml:space="preserve"> UNIT_2108</v>
+        <v xml:space="preserve"> UNIT_0201_4B</v>
       </c>
       <c r="C97" t="s">
         <v>207</v>
@@ -4993,22 +4165,22 @@
         <v>387</v>
       </c>
       <c r="H97">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I97" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J97" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>208</v>
       </c>
       <c r="B98" t="str">
         <f>RIGHT(A98,LEN(A98)-FIND(": ",A98))</f>
-        <v xml:space="preserve"> UNIT_2109_2B</v>
+        <v xml:space="preserve"> UNIT_0202</v>
       </c>
       <c r="C98" t="s">
         <v>207</v>
@@ -5020,22 +4192,22 @@
         <v>387</v>
       </c>
       <c r="H98">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I98" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J98" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="B99" t="str">
         <f>RIGHT(A99,LEN(A99)-FIND(": ",A99))</f>
-        <v xml:space="preserve"> UNIT_2110</v>
+        <v xml:space="preserve"> UNIT_0203</v>
       </c>
       <c r="C99" t="s">
         <v>207</v>
@@ -5050,19 +4222,19 @@
         <v>30</v>
       </c>
       <c r="I99" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J99" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>212</v>
       </c>
       <c r="B100" t="str">
         <f>RIGHT(A100,LEN(A100)-FIND(": ",A100))</f>
-        <v xml:space="preserve"> UNIT_2111</v>
+        <v xml:space="preserve"> UNIT_0204</v>
       </c>
       <c r="C100" t="s">
         <v>207</v>
@@ -5077,19 +4249,19 @@
         <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J100" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>368</v>
+        <v>214</v>
       </c>
       <c r="B101" t="str">
         <f>RIGHT(A101,LEN(A101)-FIND(": ",A101))</f>
-        <v xml:space="preserve"> UNIT_2112</v>
+        <v xml:space="preserve"> UNIT_0205</v>
       </c>
       <c r="C101" t="s">
         <v>207</v>
@@ -5104,19 +4276,19 @@
         <v>30</v>
       </c>
       <c r="I101" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J101" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>370</v>
+        <v>216</v>
       </c>
       <c r="B102" t="str">
         <f>RIGHT(A102,LEN(A102)-FIND(": ",A102))</f>
-        <v xml:space="preserve"> UNIT_2113</v>
+        <v xml:space="preserve"> UNIT_0206</v>
       </c>
       <c r="C102" t="s">
         <v>207</v>
@@ -5131,19 +4303,19 @@
         <v>30</v>
       </c>
       <c r="I102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>372</v>
+        <v>218</v>
       </c>
       <c r="B103" t="str">
         <f>RIGHT(A103,LEN(A103)-FIND(": ",A103))</f>
-        <v xml:space="preserve"> UNIT_2114</v>
+        <v xml:space="preserve"> UNIT_0207</v>
       </c>
       <c r="C103" t="s">
         <v>207</v>
@@ -5158,19 +4330,19 @@
         <v>30</v>
       </c>
       <c r="I103" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J103" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>220</v>
       </c>
       <c r="B104" t="str">
         <f>RIGHT(A104,LEN(A104)-FIND(": ",A104))</f>
-        <v xml:space="preserve"> UNIT_2115</v>
+        <v xml:space="preserve"> UNIT_0208</v>
       </c>
       <c r="C104" t="s">
         <v>207</v>
@@ -5185,19 +4357,19 @@
         <v>30</v>
       </c>
       <c r="I104" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J104" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>376</v>
+        <v>222</v>
       </c>
       <c r="B105" t="str">
         <f>RIGHT(A105,LEN(A105)-FIND(": ",A105))</f>
-        <v xml:space="preserve"> UNIT_2116</v>
+        <v xml:space="preserve"> UNIT_0209_3B</v>
       </c>
       <c r="C105" t="s">
         <v>207</v>
@@ -5209,22 +4381,22 @@
         <v>387</v>
       </c>
       <c r="H105">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I105" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J105" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
       <c r="B106" t="str">
         <f>RIGHT(A106,LEN(A106)-FIND(": ",A106))</f>
-        <v xml:space="preserve"> UNIT_2117_4B</v>
+        <v xml:space="preserve"> UNIT_0210</v>
       </c>
       <c r="C106" t="s">
         <v>207</v>
@@ -5236,1382 +4408,2158 @@
         <v>387</v>
       </c>
       <c r="H106">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I106" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J106" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="B107" t="str">
         <f>RIGHT(A107,LEN(A107)-FIND(": ",A107))</f>
-        <v xml:space="preserve"> CORR_0200</v>
+        <v xml:space="preserve"> UNIT_0211_2B</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D107" t="s">
         <v>388</v>
       </c>
       <c r="E107" t="s">
-        <v>432</v>
-      </c>
-      <c r="F107">
-        <v>125</v>
-      </c>
-      <c r="G107" t="s">
-        <v>418</v>
+        <v>387</v>
+      </c>
+      <c r="H107">
+        <v>55</v>
       </c>
       <c r="I107" t="s">
-        <v>392</v>
+        <v>400</v>
+      </c>
+      <c r="J107" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="B108" t="str">
         <f>RIGHT(A108,LEN(A108)-FIND(": ",A108))</f>
-        <v xml:space="preserve"> CORR_0300</v>
+        <v xml:space="preserve"> UNIT_0212</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D108" t="s">
         <v>388</v>
       </c>
       <c r="E108" t="s">
-        <v>432</v>
-      </c>
-      <c r="F108">
-        <v>125</v>
-      </c>
-      <c r="G108" t="s">
-        <v>418</v>
+        <v>387</v>
+      </c>
+      <c r="H108">
+        <v>30</v>
       </c>
       <c r="I108" t="s">
-        <v>392</v>
+        <v>399</v>
+      </c>
+      <c r="J108" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="B109" t="str">
         <f>RIGHT(A109,LEN(A109)-FIND(": ",A109))</f>
-        <v xml:space="preserve"> CORR_0400</v>
+        <v xml:space="preserve"> UNIT_0213</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D109" t="s">
         <v>388</v>
       </c>
       <c r="E109" t="s">
-        <v>432</v>
-      </c>
-      <c r="F109">
-        <v>125</v>
-      </c>
-      <c r="G109" t="s">
-        <v>418</v>
+        <v>387</v>
+      </c>
+      <c r="H109">
+        <v>30</v>
       </c>
       <c r="I109" t="s">
-        <v>392</v>
+        <v>399</v>
+      </c>
+      <c r="J109" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="B110" t="str">
         <f>RIGHT(A110,LEN(A110)-FIND(": ",A110))</f>
-        <v xml:space="preserve"> CORR_0500</v>
+        <v xml:space="preserve"> UNIT_0214</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D110" t="s">
         <v>388</v>
       </c>
       <c r="E110" t="s">
-        <v>432</v>
-      </c>
-      <c r="F110">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s">
-        <v>418</v>
+        <v>387</v>
+      </c>
+      <c r="H110">
+        <v>30</v>
       </c>
       <c r="I110" t="s">
-        <v>392</v>
+        <v>399</v>
+      </c>
+      <c r="J110" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B111" t="str">
         <f>RIGHT(A111,LEN(A111)-FIND(": ",A111))</f>
-        <v xml:space="preserve"> CORR_2100</v>
+        <v xml:space="preserve"> UNIT_0215</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D111" t="s">
         <v>388</v>
       </c>
       <c r="E111" t="s">
-        <v>432</v>
-      </c>
-      <c r="F111">
-        <v>125</v>
-      </c>
-      <c r="G111" t="s">
-        <v>418</v>
+        <v>387</v>
+      </c>
+      <c r="H111">
+        <v>30</v>
       </c>
       <c r="I111" t="s">
-        <v>392</v>
+        <v>399</v>
+      </c>
+      <c r="J111" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="B112" t="str">
         <f>RIGHT(A112,LEN(A112)-FIND(": ",A112))</f>
-        <v xml:space="preserve"> CORR_2300</v>
+        <v xml:space="preserve"> UNIT_0216</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D112" t="s">
         <v>388</v>
       </c>
       <c r="E112" t="s">
-        <v>432</v>
-      </c>
-      <c r="F112">
-        <v>30</v>
-      </c>
-      <c r="G112" t="s">
-        <v>418</v>
+        <v>387</v>
+      </c>
+      <c r="H112">
+        <v>30</v>
       </c>
       <c r="I112" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="J112" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="B113" t="str">
         <f>RIGHT(A113,LEN(A113)-FIND(": ",A113))</f>
-        <v xml:space="preserve"> CORR_2301</v>
+        <v xml:space="preserve"> UNIT_0217</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D113" t="s">
         <v>388</v>
       </c>
       <c r="E113" t="s">
-        <v>432</v>
-      </c>
-      <c r="F113">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>418</v>
+        <v>387</v>
+      </c>
+      <c r="H113">
+        <v>30</v>
       </c>
       <c r="I113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="J113" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>49</v>
+        <v>240</v>
       </c>
       <c r="B114" t="str">
         <f>RIGHT(A114,LEN(A114)-FIND(": ",A114))</f>
-        <v xml:space="preserve"> ELEV LOBBY_2200</v>
+        <v xml:space="preserve"> UNIT_0218</v>
       </c>
       <c r="C114" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="D114" t="s">
         <v>388</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F114">
-        <v>30</v>
-      </c>
-      <c r="G114" t="s">
-        <v>418</v>
+      <c r="E114" t="s">
+        <v>387</v>
+      </c>
+      <c r="H114">
+        <v>30</v>
       </c>
       <c r="I114" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B115" s="3" t="str">
+        <v>399</v>
+      </c>
+      <c r="J114" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" t="str">
         <f>RIGHT(A115,LEN(A115)-FIND(": ",A115))</f>
-        <v xml:space="preserve"> ELEV LOBBY_P100</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F115" s="3">
-        <v>205</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116" s="3" t="str">
+        <v xml:space="preserve"> UNIT_0219_4B</v>
+      </c>
+      <c r="C115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" t="s">
+        <v>388</v>
+      </c>
+      <c r="E115" t="s">
+        <v>387</v>
+      </c>
+      <c r="H115">
+        <v>75</v>
+      </c>
+      <c r="I115" t="s">
+        <v>400</v>
+      </c>
+      <c r="J115" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" t="str">
         <f>RIGHT(A116,LEN(A116)-FIND(": ",A116))</f>
-        <v xml:space="preserve"> ELEV LOBBY_P200</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F116" s="3">
-        <v>205</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B117" s="3" t="str">
+        <v xml:space="preserve"> UNIT_0301_4B</v>
+      </c>
+      <c r="C116" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" t="s">
+        <v>388</v>
+      </c>
+      <c r="E116" t="s">
+        <v>387</v>
+      </c>
+      <c r="H116">
+        <v>75</v>
+      </c>
+      <c r="I116" t="s">
+        <v>402</v>
+      </c>
+      <c r="J116" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" t="str">
         <f>RIGHT(A117,LEN(A117)-FIND(": ",A117))</f>
-        <v xml:space="preserve"> AMEN_STORAGE_2204</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B118" s="3" t="str">
+        <v xml:space="preserve"> UNIT_0302</v>
+      </c>
+      <c r="C117" t="s">
+        <v>207</v>
+      </c>
+      <c r="D117" t="s">
+        <v>388</v>
+      </c>
+      <c r="E117" t="s">
+        <v>387</v>
+      </c>
+      <c r="H117">
+        <v>30</v>
+      </c>
+      <c r="I117" t="s">
+        <v>401</v>
+      </c>
+      <c r="J117" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" t="str">
         <f>RIGHT(A118,LEN(A118)-FIND(": ",A118))</f>
-        <v xml:space="preserve"> CORR_0100</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>24</v>
+        <v xml:space="preserve"> UNIT_0303</v>
+      </c>
+      <c r="C118" t="s">
+        <v>207</v>
       </c>
       <c r="D118" t="s">
-        <v>389</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E118" t="s">
+        <v>387</v>
+      </c>
+      <c r="H118">
+        <v>30</v>
+      </c>
+      <c r="I118" t="s">
+        <v>401</v>
+      </c>
+      <c r="J118" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="B119" t="str">
         <f>RIGHT(A119,LEN(A119)-FIND(": ",A119))</f>
-        <v xml:space="preserve"> ELEC_0300</v>
+        <v xml:space="preserve"> UNIT_0304</v>
       </c>
       <c r="C119" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="D119" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E119" t="s">
+        <v>387</v>
+      </c>
+      <c r="H119">
+        <v>30</v>
+      </c>
+      <c r="I119" t="s">
+        <v>401</v>
+      </c>
+      <c r="J119" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="B120" t="str">
         <f>RIGHT(A120,LEN(A120)-FIND(": ",A120))</f>
-        <v xml:space="preserve"> ELEC_0400</v>
+        <v xml:space="preserve"> UNIT_0305</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="D120" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E120" t="s">
+        <v>387</v>
+      </c>
+      <c r="H120">
+        <v>30</v>
+      </c>
+      <c r="I120" t="s">
+        <v>401</v>
+      </c>
+      <c r="J120" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="B121" t="str">
         <f>RIGHT(A121,LEN(A121)-FIND(": ",A121))</f>
-        <v xml:space="preserve"> ELEV_0101</v>
+        <v xml:space="preserve"> UNIT_0306</v>
       </c>
       <c r="C121" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D121" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E121" t="s">
+        <v>387</v>
+      </c>
+      <c r="H121">
+        <v>30</v>
+      </c>
+      <c r="I121" t="s">
+        <v>401</v>
+      </c>
+      <c r="J121" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="B122" t="str">
         <f>RIGHT(A122,LEN(A122)-FIND(": ",A122))</f>
-        <v xml:space="preserve"> ELEV_0102</v>
+        <v xml:space="preserve"> UNIT_0307_3B</v>
       </c>
       <c r="C122" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D122" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E122" t="s">
+        <v>387</v>
+      </c>
+      <c r="H122">
+        <v>55</v>
+      </c>
+      <c r="I122" t="s">
+        <v>402</v>
+      </c>
+      <c r="J122" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="B123" t="str">
         <f>RIGHT(A123,LEN(A123)-FIND(": ",A123))</f>
-        <v xml:space="preserve"> ELEV_0201</v>
+        <v xml:space="preserve"> UNIT_0308</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D123" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E123" t="s">
+        <v>387</v>
+      </c>
+      <c r="H123">
+        <v>30</v>
+      </c>
+      <c r="I123" t="s">
+        <v>401</v>
+      </c>
+      <c r="J123" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="B124" t="str">
         <f>RIGHT(A124,LEN(A124)-FIND(": ",A124))</f>
-        <v xml:space="preserve"> ELEV_0202</v>
+        <v xml:space="preserve"> UNIT_0309_2B</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D124" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E124" t="s">
+        <v>387</v>
+      </c>
+      <c r="H124">
+        <v>55</v>
+      </c>
+      <c r="I124" t="s">
+        <v>402</v>
+      </c>
+      <c r="J124" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="B125" t="str">
         <f>RIGHT(A125,LEN(A125)-FIND(": ",A125))</f>
-        <v xml:space="preserve"> ELEV_0301</v>
+        <v xml:space="preserve"> UNIT_0310</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D125" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E125" t="s">
+        <v>387</v>
+      </c>
+      <c r="H125">
+        <v>30</v>
+      </c>
+      <c r="I125" t="s">
+        <v>401</v>
+      </c>
+      <c r="J125" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="B126" t="str">
         <f>RIGHT(A126,LEN(A126)-FIND(": ",A126))</f>
-        <v xml:space="preserve"> ELEV_0302</v>
+        <v xml:space="preserve"> UNIT_0311</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D126" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E126" t="s">
+        <v>387</v>
+      </c>
+      <c r="H126">
+        <v>30</v>
+      </c>
+      <c r="I126" t="s">
+        <v>401</v>
+      </c>
+      <c r="J126" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="B127" t="str">
         <f>RIGHT(A127,LEN(A127)-FIND(": ",A127))</f>
-        <v xml:space="preserve"> ELEV_0401</v>
+        <v xml:space="preserve"> UNIT_0312</v>
       </c>
       <c r="C127" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D127" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E127" t="s">
+        <v>387</v>
+      </c>
+      <c r="H127">
+        <v>30</v>
+      </c>
+      <c r="I127" t="s">
+        <v>401</v>
+      </c>
+      <c r="J127" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="B128" t="str">
         <f>RIGHT(A128,LEN(A128)-FIND(": ",A128))</f>
-        <v xml:space="preserve"> ELEV_0402</v>
+        <v xml:space="preserve"> UNIT_0313</v>
       </c>
       <c r="C128" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D128" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E128" t="s">
+        <v>387</v>
+      </c>
+      <c r="H128">
+        <v>30</v>
+      </c>
+      <c r="I128" t="s">
+        <v>401</v>
+      </c>
+      <c r="J128" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="B129" t="str">
         <f>RIGHT(A129,LEN(A129)-FIND(": ",A129))</f>
-        <v xml:space="preserve"> ELEV_0501</v>
+        <v xml:space="preserve"> UNIT_0314</v>
       </c>
       <c r="C129" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D129" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E129" t="s">
+        <v>387</v>
+      </c>
+      <c r="H129">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s">
+        <v>401</v>
+      </c>
+      <c r="J129" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="B130" t="str">
         <f>RIGHT(A130,LEN(A130)-FIND(": ",A130))</f>
-        <v xml:space="preserve"> ELEV_0502</v>
+        <v xml:space="preserve"> UNIT_0315</v>
       </c>
       <c r="C130" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D130" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E130" t="s">
+        <v>387</v>
+      </c>
+      <c r="H130">
+        <v>30</v>
+      </c>
+      <c r="I130" t="s">
+        <v>401</v>
+      </c>
+      <c r="J130" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="B131" t="str">
         <f>RIGHT(A131,LEN(A131)-FIND(": ",A131))</f>
-        <v xml:space="preserve"> ELEV_2101</v>
+        <v xml:space="preserve"> UNIT_0316</v>
       </c>
       <c r="C131" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D131" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E131" t="s">
+        <v>387</v>
+      </c>
+      <c r="H131">
+        <v>30</v>
+      </c>
+      <c r="I131" t="s">
+        <v>401</v>
+      </c>
+      <c r="J131" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="B132" t="str">
         <f>RIGHT(A132,LEN(A132)-FIND(": ",A132))</f>
-        <v xml:space="preserve"> ELEV_2102</v>
+        <v xml:space="preserve"> UNIT_0317_4B</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D132" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E132" t="s">
+        <v>387</v>
+      </c>
+      <c r="H132">
+        <v>75</v>
+      </c>
+      <c r="I132" t="s">
+        <v>402</v>
+      </c>
+      <c r="J132" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="B133" t="str">
         <f>RIGHT(A133,LEN(A133)-FIND(": ",A133))</f>
-        <v xml:space="preserve"> ELEV_2201</v>
+        <v xml:space="preserve"> UNIT_0401_4B</v>
       </c>
       <c r="C133" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D133" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E133" t="s">
+        <v>387</v>
+      </c>
+      <c r="H133">
+        <v>75</v>
+      </c>
+      <c r="I133" t="s">
+        <v>404</v>
+      </c>
+      <c r="J133" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="B134" t="str">
         <f>RIGHT(A134,LEN(A134)-FIND(": ",A134))</f>
-        <v xml:space="preserve"> ELEV_2202</v>
+        <v xml:space="preserve"> UNIT_0402</v>
       </c>
       <c r="C134" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D134" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E134" t="s">
+        <v>387</v>
+      </c>
+      <c r="H134">
+        <v>30</v>
+      </c>
+      <c r="I134" t="s">
+        <v>403</v>
+      </c>
+      <c r="J134" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="B135" t="str">
         <f>RIGHT(A135,LEN(A135)-FIND(": ",A135))</f>
-        <v xml:space="preserve"> ELEV_2301</v>
+        <v xml:space="preserve"> UNIT_0403</v>
       </c>
       <c r="C135" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D135" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E135" t="s">
+        <v>387</v>
+      </c>
+      <c r="H135">
+        <v>30</v>
+      </c>
+      <c r="I135" t="s">
+        <v>403</v>
+      </c>
+      <c r="J135" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="B136" t="str">
         <f>RIGHT(A136,LEN(A136)-FIND(": ",A136))</f>
-        <v xml:space="preserve"> ELEV_2302</v>
+        <v xml:space="preserve"> UNIT_0404</v>
       </c>
       <c r="C136" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D136" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E136" t="s">
+        <v>387</v>
+      </c>
+      <c r="H136">
+        <v>30</v>
+      </c>
+      <c r="I136" t="s">
+        <v>403</v>
+      </c>
+      <c r="J136" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="B137" t="str">
         <f>RIGHT(A137,LEN(A137)-FIND(": ",A137))</f>
-        <v xml:space="preserve"> ELEV_P101</v>
+        <v xml:space="preserve"> UNIT_0405</v>
       </c>
       <c r="C137" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D137" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E137" t="s">
+        <v>387</v>
+      </c>
+      <c r="H137">
+        <v>30</v>
+      </c>
+      <c r="I137" t="s">
+        <v>403</v>
+      </c>
+      <c r="J137" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="B138" t="str">
         <f>RIGHT(A138,LEN(A138)-FIND(": ",A138))</f>
-        <v xml:space="preserve"> ELEV_P102</v>
+        <v xml:space="preserve"> UNIT_0406</v>
       </c>
       <c r="C138" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D138" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E138" t="s">
+        <v>387</v>
+      </c>
+      <c r="H138">
+        <v>30</v>
+      </c>
+      <c r="I138" t="s">
+        <v>403</v>
+      </c>
+      <c r="J138" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="B139" t="str">
         <f>RIGHT(A139,LEN(A139)-FIND(": ",A139))</f>
-        <v xml:space="preserve"> ELEV_P201</v>
+        <v xml:space="preserve"> UNIT_0407_3B</v>
       </c>
       <c r="C139" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D139" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E139" t="s">
+        <v>387</v>
+      </c>
+      <c r="H139">
+        <v>55</v>
+      </c>
+      <c r="I139" t="s">
+        <v>404</v>
+      </c>
+      <c r="J139" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="B140" t="str">
         <f>RIGHT(A140,LEN(A140)-FIND(": ",A140))</f>
-        <v xml:space="preserve"> ELEV_P202</v>
+        <v xml:space="preserve"> UNIT_0408</v>
       </c>
       <c r="C140" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D140" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B141" s="3" t="str">
+        <v>388</v>
+      </c>
+      <c r="E140" t="s">
+        <v>387</v>
+      </c>
+      <c r="H140">
+        <v>30</v>
+      </c>
+      <c r="I140" t="s">
+        <v>403</v>
+      </c>
+      <c r="J140" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>294</v>
+      </c>
+      <c r="B141" t="str">
         <f>RIGHT(A141,LEN(A141)-FIND(": ",A141))</f>
-        <v xml:space="preserve"> FCC_0100</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> UNIT_0409_2B</v>
+      </c>
+      <c r="C141" t="s">
+        <v>207</v>
+      </c>
+      <c r="D141" t="s">
+        <v>388</v>
+      </c>
+      <c r="E141" t="s">
+        <v>387</v>
+      </c>
+      <c r="H141">
+        <v>55</v>
+      </c>
+      <c r="I141" t="s">
+        <v>404</v>
+      </c>
+      <c r="J141" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="B142" t="str">
         <f>RIGHT(A142,LEN(A142)-FIND(": ",A142))</f>
-        <v xml:space="preserve"> MECH_0200</v>
+        <v xml:space="preserve"> UNIT_0410</v>
       </c>
       <c r="C142" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D142" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E142" t="s">
+        <v>387</v>
+      </c>
+      <c r="H142">
+        <v>30</v>
+      </c>
+      <c r="I142" t="s">
+        <v>403</v>
+      </c>
+      <c r="J142" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>110</v>
+        <v>298</v>
       </c>
       <c r="B143" t="str">
         <f>RIGHT(A143,LEN(A143)-FIND(": ",A143))</f>
-        <v xml:space="preserve"> MECH_0300</v>
+        <v xml:space="preserve"> UNIT_0411</v>
       </c>
       <c r="C143" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D143" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E143" t="s">
+        <v>387</v>
+      </c>
+      <c r="H143">
+        <v>30</v>
+      </c>
+      <c r="I143" t="s">
+        <v>403</v>
+      </c>
+      <c r="J143" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="B144" t="str">
         <f>RIGHT(A144,LEN(A144)-FIND(": ",A144))</f>
-        <v xml:space="preserve"> MECH_0400</v>
+        <v xml:space="preserve"> UNIT_0412</v>
       </c>
       <c r="C144" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D144" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E144" t="s">
+        <v>387</v>
+      </c>
+      <c r="H144">
+        <v>30</v>
+      </c>
+      <c r="I144" t="s">
+        <v>403</v>
+      </c>
+      <c r="J144" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="B145" t="str">
         <f>RIGHT(A145,LEN(A145)-FIND(": ",A145))</f>
-        <v xml:space="preserve"> MECH_0500</v>
+        <v xml:space="preserve"> UNIT_0413</v>
       </c>
       <c r="C145" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D145" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E145" t="s">
+        <v>387</v>
+      </c>
+      <c r="H145">
+        <v>30</v>
+      </c>
+      <c r="I145" t="s">
+        <v>403</v>
+      </c>
+      <c r="J145" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="B146" t="str">
         <f>RIGHT(A146,LEN(A146)-FIND(": ",A146))</f>
-        <v xml:space="preserve"> MECH_2100</v>
+        <v xml:space="preserve"> UNIT_0414</v>
       </c>
       <c r="C146" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D146" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B147" s="3" t="str">
+        <v>388</v>
+      </c>
+      <c r="E146" t="s">
+        <v>387</v>
+      </c>
+      <c r="H146">
+        <v>30</v>
+      </c>
+      <c r="I146" t="s">
+        <v>403</v>
+      </c>
+      <c r="J146" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>306</v>
+      </c>
+      <c r="B147" t="str">
         <f>RIGHT(A147,LEN(A147)-FIND(": ",A147))</f>
-        <v xml:space="preserve"> PACKAGE_0100</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>120</v>
+        <v xml:space="preserve"> UNIT_0415</v>
+      </c>
+      <c r="C147" t="s">
+        <v>207</v>
       </c>
       <c r="D147" t="s">
-        <v>389</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3">
-        <v>25</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E147" t="s">
+        <v>387</v>
+      </c>
+      <c r="H147">
+        <v>30</v>
+      </c>
+      <c r="I147" t="s">
+        <v>403</v>
+      </c>
+      <c r="J147" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="B148" t="str">
         <f>RIGHT(A148,LEN(A148)-FIND(": ",A148))</f>
-        <v xml:space="preserve"> RESTROOM_0100</v>
+        <v xml:space="preserve"> UNIT_0416</v>
       </c>
       <c r="C148" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D148" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E148" t="s">
+        <v>387</v>
       </c>
       <c r="H148">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I148" t="s">
+        <v>403</v>
+      </c>
+      <c r="J148" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>310</v>
       </c>
       <c r="B149" t="str">
         <f>RIGHT(A149,LEN(A149)-FIND(": ",A149))</f>
-        <v xml:space="preserve"> RESTROOM_2201</v>
+        <v xml:space="preserve"> UNIT_0417_4B</v>
       </c>
       <c r="C149" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D149" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E149" t="s">
+        <v>387</v>
       </c>
       <c r="H149">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I149" t="s">
+        <v>404</v>
+      </c>
+      <c r="J149" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>126</v>
+        <v>312</v>
       </c>
       <c r="B150" t="str">
         <f>RIGHT(A150,LEN(A150)-FIND(": ",A150))</f>
-        <v xml:space="preserve"> RESTROOM_2202</v>
+        <v xml:space="preserve"> UNIT_0501_4B</v>
       </c>
       <c r="C150" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D150" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E150" t="s">
+        <v>387</v>
       </c>
       <c r="H150">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I150" t="s">
+        <v>406</v>
+      </c>
+      <c r="J150" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="B151" t="str">
         <f>RIGHT(A151,LEN(A151)-FIND(": ",A151))</f>
-        <v xml:space="preserve"> STAIR_0101</v>
+        <v xml:space="preserve"> UNIT_0502</v>
       </c>
       <c r="C151" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D151" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E151" t="s">
+        <v>387</v>
+      </c>
+      <c r="H151">
+        <v>30</v>
+      </c>
+      <c r="I151" t="s">
+        <v>405</v>
+      </c>
+      <c r="J151" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>137</v>
+        <v>316</v>
       </c>
       <c r="B152" t="str">
         <f>RIGHT(A152,LEN(A152)-FIND(": ",A152))</f>
-        <v xml:space="preserve"> STAIR_0102</v>
+        <v xml:space="preserve"> UNIT_0503</v>
       </c>
       <c r="C152" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D152" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E152" t="s">
+        <v>387</v>
+      </c>
+      <c r="H152">
+        <v>30</v>
+      </c>
+      <c r="I152" t="s">
+        <v>405</v>
+      </c>
+      <c r="J152" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="B153" t="str">
         <f>RIGHT(A153,LEN(A153)-FIND(": ",A153))</f>
-        <v xml:space="preserve"> STAIR_0201</v>
+        <v xml:space="preserve"> UNIT_0504</v>
       </c>
       <c r="C153" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D153" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E153" t="s">
+        <v>387</v>
+      </c>
+      <c r="H153">
+        <v>30</v>
+      </c>
+      <c r="I153" t="s">
+        <v>405</v>
+      </c>
+      <c r="J153" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="B154" t="str">
         <f>RIGHT(A154,LEN(A154)-FIND(": ",A154))</f>
-        <v xml:space="preserve"> STAIR_0202</v>
+        <v xml:space="preserve"> UNIT_0505</v>
       </c>
       <c r="C154" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D154" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E154" t="s">
+        <v>387</v>
+      </c>
+      <c r="H154">
+        <v>30</v>
+      </c>
+      <c r="I154" t="s">
+        <v>405</v>
+      </c>
+      <c r="J154" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="B155" t="str">
         <f>RIGHT(A155,LEN(A155)-FIND(": ",A155))</f>
-        <v xml:space="preserve"> STAIR_0301</v>
+        <v xml:space="preserve"> UNIT_0506</v>
       </c>
       <c r="C155" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D155" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E155" t="s">
+        <v>387</v>
+      </c>
+      <c r="H155">
+        <v>30</v>
+      </c>
+      <c r="I155" t="s">
+        <v>405</v>
+      </c>
+      <c r="J155" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="B156" t="str">
         <f>RIGHT(A156,LEN(A156)-FIND(": ",A156))</f>
-        <v xml:space="preserve"> STAIR_0302</v>
+        <v xml:space="preserve"> UNIT_0507_3B</v>
       </c>
       <c r="C156" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D156" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E156" t="s">
+        <v>387</v>
+      </c>
+      <c r="H156">
+        <v>55</v>
+      </c>
+      <c r="I156" t="s">
+        <v>406</v>
+      </c>
+      <c r="J156" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="B157" t="str">
         <f>RIGHT(A157,LEN(A157)-FIND(": ",A157))</f>
-        <v xml:space="preserve"> STAIR_0401</v>
+        <v xml:space="preserve"> UNIT_0508</v>
       </c>
       <c r="C157" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D157" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E157" t="s">
+        <v>387</v>
+      </c>
+      <c r="H157">
+        <v>30</v>
+      </c>
+      <c r="I157" t="s">
+        <v>405</v>
+      </c>
+      <c r="J157" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="B158" t="str">
         <f>RIGHT(A158,LEN(A158)-FIND(": ",A158))</f>
-        <v xml:space="preserve"> STAIR_0402</v>
+        <v xml:space="preserve"> UNIT_0509_2B</v>
       </c>
       <c r="C158" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D158" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E158" t="s">
+        <v>387</v>
+      </c>
+      <c r="H158">
+        <v>55</v>
+      </c>
+      <c r="I158" t="s">
+        <v>406</v>
+      </c>
+      <c r="J158" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="B159" t="str">
         <f>RIGHT(A159,LEN(A159)-FIND(": ",A159))</f>
-        <v xml:space="preserve"> STAIR_0501</v>
+        <v xml:space="preserve"> UNIT_0510</v>
       </c>
       <c r="C159" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D159" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E159" t="s">
+        <v>387</v>
+      </c>
+      <c r="H159">
+        <v>30</v>
+      </c>
+      <c r="I159" t="s">
+        <v>405</v>
+      </c>
+      <c r="J159" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="B160" t="str">
         <f>RIGHT(A160,LEN(A160)-FIND(": ",A160))</f>
-        <v xml:space="preserve"> STAIR_0502</v>
+        <v xml:space="preserve"> UNIT_0511</v>
       </c>
       <c r="C160" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D160" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E160" t="s">
+        <v>387</v>
+      </c>
+      <c r="H160">
+        <v>30</v>
+      </c>
+      <c r="I160" t="s">
+        <v>405</v>
+      </c>
+      <c r="J160" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>334</v>
       </c>
       <c r="B161" t="str">
         <f>RIGHT(A161,LEN(A161)-FIND(": ",A161))</f>
-        <v xml:space="preserve"> STAIR_2101</v>
+        <v xml:space="preserve"> UNIT_0512</v>
       </c>
       <c r="C161" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D161" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E161" t="s">
+        <v>387</v>
+      </c>
+      <c r="H161">
+        <v>30</v>
+      </c>
+      <c r="I161" t="s">
+        <v>405</v>
+      </c>
+      <c r="J161" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="B162" t="str">
         <f>RIGHT(A162,LEN(A162)-FIND(": ",A162))</f>
-        <v xml:space="preserve"> STAIR_2102</v>
+        <v xml:space="preserve"> UNIT_0513</v>
       </c>
       <c r="C162" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D162" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E162" t="s">
+        <v>387</v>
+      </c>
+      <c r="H162">
+        <v>30</v>
+      </c>
+      <c r="I162" t="s">
+        <v>405</v>
+      </c>
+      <c r="J162" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>338</v>
       </c>
       <c r="B163" t="str">
         <f>RIGHT(A163,LEN(A163)-FIND(": ",A163))</f>
-        <v xml:space="preserve"> STAIR_2201</v>
+        <v xml:space="preserve"> UNIT_0514</v>
       </c>
       <c r="C163" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D163" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E163" t="s">
+        <v>387</v>
+      </c>
+      <c r="H163">
+        <v>30</v>
+      </c>
+      <c r="I163" t="s">
+        <v>405</v>
+      </c>
+      <c r="J163" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="B164" t="str">
         <f>RIGHT(A164,LEN(A164)-FIND(": ",A164))</f>
-        <v xml:space="preserve"> STAIR_2202</v>
+        <v xml:space="preserve"> UNIT_0515</v>
       </c>
       <c r="C164" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D164" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E164" t="s">
+        <v>387</v>
+      </c>
+      <c r="H164">
+        <v>30</v>
+      </c>
+      <c r="I164" t="s">
+        <v>405</v>
+      </c>
+      <c r="J164" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
       <c r="B165" t="str">
         <f>RIGHT(A165,LEN(A165)-FIND(": ",A165))</f>
-        <v xml:space="preserve"> STAIR_2301</v>
+        <v xml:space="preserve"> UNIT_0516</v>
       </c>
       <c r="C165" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D165" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E165" t="s">
+        <v>387</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+      <c r="I165" t="s">
+        <v>405</v>
+      </c>
+      <c r="J165" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>344</v>
       </c>
       <c r="B166" t="str">
         <f>RIGHT(A166,LEN(A166)-FIND(": ",A166))</f>
-        <v xml:space="preserve"> STAIR_2302</v>
+        <v xml:space="preserve"> UNIT_0517_4B</v>
       </c>
       <c r="C166" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D166" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E166" t="s">
+        <v>387</v>
+      </c>
+      <c r="H166">
+        <v>75</v>
+      </c>
+      <c r="I166" t="s">
+        <v>406</v>
+      </c>
+      <c r="J166" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="B167" t="str">
         <f>RIGHT(A167,LEN(A167)-FIND(": ",A167))</f>
-        <v xml:space="preserve"> STAIR_P101</v>
+        <v xml:space="preserve"> UNIT_2101_4B</v>
       </c>
       <c r="C167" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D167" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E167" t="s">
+        <v>387</v>
+      </c>
+      <c r="H167">
+        <v>75</v>
+      </c>
+      <c r="I167" t="s">
+        <v>397</v>
+      </c>
+      <c r="J167" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>348</v>
       </c>
       <c r="B168" t="str">
         <f>RIGHT(A168,LEN(A168)-FIND(": ",A168))</f>
-        <v xml:space="preserve"> STAIR_P102</v>
+        <v xml:space="preserve"> UNIT_2102</v>
       </c>
       <c r="C168" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D168" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E168" t="s">
+        <v>387</v>
+      </c>
+      <c r="H168">
+        <v>30</v>
+      </c>
+      <c r="I168" t="s">
+        <v>398</v>
+      </c>
+      <c r="J168" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="B169" t="str">
         <f>RIGHT(A169,LEN(A169)-FIND(": ",A169))</f>
-        <v xml:space="preserve"> STAIR_P201</v>
+        <v xml:space="preserve"> UNIT_2103</v>
       </c>
       <c r="C169" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D169" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E169" t="s">
+        <v>387</v>
+      </c>
+      <c r="H169">
+        <v>30</v>
+      </c>
+      <c r="I169" t="s">
+        <v>398</v>
+      </c>
+      <c r="J169" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="B170" t="str">
         <f>RIGHT(A170,LEN(A170)-FIND(": ",A170))</f>
-        <v xml:space="preserve"> STAIR_P202</v>
+        <v xml:space="preserve"> UNIT_2104</v>
       </c>
       <c r="C170" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D170" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E170" t="s">
+        <v>387</v>
+      </c>
+      <c r="H170">
+        <v>30</v>
+      </c>
+      <c r="I170" t="s">
+        <v>398</v>
+      </c>
+      <c r="J170" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>434</v>
+        <v>354</v>
       </c>
       <c r="B171" t="str">
         <f>RIGHT(A171,LEN(A171)-FIND(": ",A171))</f>
-        <v xml:space="preserve"> STOR_0101C</v>
+        <v xml:space="preserve"> UNIT_2105</v>
       </c>
       <c r="C171" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D171" t="s">
-        <v>389</v>
-      </c>
-      <c r="F171">
-        <v>15</v>
-      </c>
-      <c r="G171" t="s">
-        <v>418</v>
-      </c>
-      <c r="K171" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E171" t="s">
+        <v>387</v>
+      </c>
+      <c r="H171">
+        <v>30</v>
+      </c>
+      <c r="I171" t="s">
+        <v>398</v>
+      </c>
+      <c r="J171" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>356</v>
       </c>
       <c r="B172" t="str">
         <f>RIGHT(A172,LEN(A172)-FIND(": ",A172))</f>
-        <v xml:space="preserve"> STOR_0100</v>
+        <v xml:space="preserve"> UNIT_2106</v>
       </c>
       <c r="C172" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D172" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E172" t="s">
+        <v>387</v>
+      </c>
+      <c r="H172">
+        <v>30</v>
+      </c>
+      <c r="I172" t="s">
+        <v>398</v>
+      </c>
+      <c r="J172" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>178</v>
+        <v>358</v>
       </c>
       <c r="B173" t="str">
         <f>RIGHT(A173,LEN(A173)-FIND(": ",A173))</f>
-        <v xml:space="preserve"> STOR_0200</v>
+        <v xml:space="preserve"> UNIT_2107_3B</v>
       </c>
       <c r="C173" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D173" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E173" t="s">
+        <v>387</v>
+      </c>
+      <c r="H173">
+        <v>55</v>
+      </c>
+      <c r="I173" t="s">
+        <v>397</v>
+      </c>
+      <c r="J173" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="B174" t="str">
         <f>RIGHT(A174,LEN(A174)-FIND(": ",A174))</f>
-        <v xml:space="preserve"> STOR_0300</v>
+        <v xml:space="preserve"> UNIT_2108</v>
       </c>
       <c r="C174" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D174" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E174" t="s">
+        <v>387</v>
+      </c>
+      <c r="H174">
+        <v>30</v>
+      </c>
+      <c r="I174" t="s">
+        <v>398</v>
+      </c>
+      <c r="J174" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="B175" t="str">
         <f>RIGHT(A175,LEN(A175)-FIND(": ",A175))</f>
-        <v xml:space="preserve"> STOR_0400</v>
+        <v xml:space="preserve"> UNIT_2109_2B</v>
       </c>
       <c r="C175" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D175" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E175" t="s">
+        <v>387</v>
+      </c>
+      <c r="H175">
+        <v>55</v>
+      </c>
+      <c r="I175" t="s">
+        <v>397</v>
+      </c>
+      <c r="J175" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="B176" t="str">
         <f>RIGHT(A176,LEN(A176)-FIND(": ",A176))</f>
-        <v xml:space="preserve"> STOR_0500</v>
+        <v xml:space="preserve"> UNIT_2110</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D176" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E176" t="s">
+        <v>387</v>
+      </c>
+      <c r="H176">
+        <v>30</v>
+      </c>
+      <c r="I176" t="s">
+        <v>398</v>
+      </c>
+      <c r="J176" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="B177" t="str">
         <f>RIGHT(A177,LEN(A177)-FIND(": ",A177))</f>
-        <v xml:space="preserve"> STOR_2100</v>
+        <v xml:space="preserve"> UNIT_2111</v>
       </c>
       <c r="C177" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D177" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E177" t="s">
+        <v>387</v>
+      </c>
+      <c r="H177">
+        <v>30</v>
+      </c>
+      <c r="I177" t="s">
+        <v>398</v>
+      </c>
+      <c r="J177" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="B178" t="str">
         <f>RIGHT(A178,LEN(A178)-FIND(": ",A178))</f>
-        <v xml:space="preserve"> STOR_P100</v>
+        <v xml:space="preserve"> UNIT_2112</v>
       </c>
       <c r="C178" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D178" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E178" t="s">
+        <v>387</v>
+      </c>
+      <c r="H178">
+        <v>30</v>
+      </c>
+      <c r="I178" t="s">
+        <v>398</v>
+      </c>
+      <c r="J178" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="B179" t="str">
         <f>RIGHT(A179,LEN(A179)-FIND(": ",A179))</f>
-        <v xml:space="preserve"> STOR_P200</v>
+        <v xml:space="preserve"> UNIT_2113</v>
       </c>
       <c r="C179" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D179" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E179" t="s">
+        <v>387</v>
+      </c>
+      <c r="H179">
+        <v>30</v>
+      </c>
+      <c r="I179" t="s">
+        <v>398</v>
+      </c>
+      <c r="J179" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>192</v>
+        <v>372</v>
       </c>
       <c r="B180" t="str">
         <f>RIGHT(A180,LEN(A180)-FIND(": ",A180))</f>
-        <v xml:space="preserve"> TRASH_0200</v>
+        <v xml:space="preserve"> UNIT_2114</v>
       </c>
       <c r="C180" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D180" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E180" t="s">
+        <v>387</v>
+      </c>
+      <c r="H180">
+        <v>30</v>
+      </c>
+      <c r="I180" t="s">
+        <v>398</v>
+      </c>
+      <c r="J180" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>195</v>
+        <v>374</v>
       </c>
       <c r="B181" t="str">
         <f>RIGHT(A181,LEN(A181)-FIND(": ",A181))</f>
-        <v xml:space="preserve"> TRASH_0300</v>
+        <v xml:space="preserve"> UNIT_2115</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D181" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E181" t="s">
+        <v>387</v>
+      </c>
+      <c r="H181">
+        <v>30</v>
+      </c>
+      <c r="I181" t="s">
+        <v>398</v>
+      </c>
+      <c r="J181" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>197</v>
+        <v>376</v>
       </c>
       <c r="B182" t="str">
         <f>RIGHT(A182,LEN(A182)-FIND(": ",A182))</f>
-        <v xml:space="preserve"> TRASH_0400</v>
+        <v xml:space="preserve"> UNIT_2116</v>
       </c>
       <c r="C182" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D182" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E182" t="s">
+        <v>387</v>
+      </c>
+      <c r="H182">
+        <v>30</v>
+      </c>
+      <c r="I182" t="s">
+        <v>398</v>
+      </c>
+      <c r="J182" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>199</v>
+        <v>378</v>
       </c>
       <c r="B183" t="str">
         <f>RIGHT(A183,LEN(A183)-FIND(": ",A183))</f>
-        <v xml:space="preserve"> TRASH_0500</v>
+        <v xml:space="preserve"> UNIT_2117_4B</v>
       </c>
       <c r="C183" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D183" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E183" t="s">
+        <v>387</v>
+      </c>
+      <c r="H183">
+        <v>75</v>
+      </c>
+      <c r="I183" t="s">
+        <v>397</v>
+      </c>
+      <c r="J183" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>201</v>
+        <v>380</v>
       </c>
       <c r="B184" t="str">
         <f>RIGHT(A184,LEN(A184)-FIND(": ",A184))</f>
-        <v xml:space="preserve"> TRASH_2100</v>
+        <v xml:space="preserve"> XFMR_0201</v>
       </c>
       <c r="C184" t="s">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="D184" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184" t="s">
+        <v>400</v>
+      </c>
+      <c r="J184" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>203</v>
+        <v>383</v>
       </c>
       <c r="B185" t="str">
         <f>RIGHT(A185,LEN(A185)-FIND(": ",A185))</f>
-        <v xml:space="preserve"> TRASH_2200</v>
+        <v xml:space="preserve"> XFMR_0401</v>
       </c>
       <c r="C185" t="s">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="D185" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>404</v>
+      </c>
+      <c r="J185" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K185" xr:uid="{BF9669FC-7E78-4001-A010-806875128FA3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K185">
-      <sortCondition ref="E1:E185"/>
+      <sortCondition ref="A1:A185"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6620,17 +6568,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE3CDE3-BB76-4BA8-AD93-2809C19490F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
@@ -6688,7 +6651,7 @@
         <v>387</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>418</v>
@@ -6717,7 +6680,7 @@
         <v>387</v>
       </c>
       <c r="F3">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>418</v>
@@ -6746,7 +6709,7 @@
         <v>387</v>
       </c>
       <c r="F4">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
         <v>418</v>
@@ -6775,7 +6738,7 @@
         <v>387</v>
       </c>
       <c r="F5">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
         <v>418</v>

--- a/05_2nd Subimittal/zone_list_2nd.xlsx
+++ b/05_2nd Subimittal/zone_list_2nd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\github\1300_NE_45th\05_2nd Subimittal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99670505-F7BE-4939-A3B6-037038C07A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD60C9-ECAF-4BE4-9144-303029CBFFBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="4335" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_list_2nd" sheetId="2" r:id="rId1"/>
@@ -2218,11 +2218,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665169F-D150-4A58-B4BE-D75D65FBC2ED}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19:H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,148 +2274,153 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="str">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="3" t="str">
         <f>RIGHT(A2,LEN(A2)-FIND(": ",A2))</f>
-        <v xml:space="preserve"> AMEN_0300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+        <v xml:space="preserve"> RETAIL_0100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>388</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F2">
-        <v>150</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="3">
+        <v>480</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J2" t="s">
-        <v>402</v>
-      </c>
-      <c r="K2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="str">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="3" t="str">
         <f>RIGHT(A3,LEN(A3)-FIND(": ",A3))</f>
-        <v xml:space="preserve"> AMEN_0400</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+        <v xml:space="preserve"> LAUNDRY_0109</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>388</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F3">
-        <v>150</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I3" t="s">
-        <v>404</v>
-      </c>
-      <c r="J3" t="s">
-        <v>404</v>
-      </c>
-      <c r="K3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B4" t="str">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="3" t="str">
         <f>RIGHT(A4,LEN(A4)-FIND(": ",A4))</f>
-        <v xml:space="preserve"> AMEN_0500</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+        <v xml:space="preserve"> LOBBY_0101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>388</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F4">
-        <v>150</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="3">
+        <f>85+215</f>
+        <v>300</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" t="s">
-        <v>406</v>
-      </c>
-      <c r="K4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="str">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="3" t="str">
         <f>RIGHT(A5,LEN(A5)-FIND(": ",A5))</f>
-        <v xml:space="preserve"> AMEN_2100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
+        <v xml:space="preserve"> MAIL_0101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>388</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F5">
-        <v>150</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="3">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I5" t="s">
-        <v>397</v>
-      </c>
-      <c r="J5" t="s">
-        <v>397</v>
-      </c>
-      <c r="K5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>RIGHT(A6,LEN(A6)-FIND(": ",A6))</f>
-        <v xml:space="preserve"> AMEN_2204</v>
+        <v xml:space="preserve"> OFFICE_0101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>388</v>
@@ -2423,198 +2429,209 @@
         <v>431</v>
       </c>
       <c r="F6" s="3">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>418</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B7" s="3" t="str">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="str">
         <f>RIGHT(A7,LEN(A7)-FIND(": ",A7))</f>
-        <v xml:space="preserve"> AMEN_2205</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3" t="s">
+        <v xml:space="preserve"> CORR_0200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s">
         <v>418</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B8" s="3" t="str">
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>392</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="str">
         <f>RIGHT(A8,LEN(A8)-FIND(": ",A8))</f>
-        <v xml:space="preserve"> AMEN_FITNESS_2202</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <v xml:space="preserve"> CORR_0300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
         <v>418</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="3" t="str">
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="str">
         <f>RIGHT(A9,LEN(A9)-FIND(": ",A9))</f>
-        <v xml:space="preserve"> AMEN_SKYLOUNGE_2201</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F9" s="3">
-        <v>535</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v xml:space="preserve"> CORR_0400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F9">
+        <v>125</v>
+      </c>
+      <c r="G9" t="s">
         <v>418</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B10" s="3" t="str">
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>392</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="str">
         <f>RIGHT(A10,LEN(A10)-FIND(": ",A10))</f>
-        <v xml:space="preserve"> AMEN_STORAGE_2204</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B11" s="3" t="str">
+        <v xml:space="preserve"> CORR_0500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F10">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>392</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="str">
         <f>RIGHT(A11,LEN(A11)-FIND(": ",A11))</f>
-        <v xml:space="preserve"> AMEN_SUNROOM_2203</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F11" s="3">
-        <v>120</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v xml:space="preserve"> CORR_2100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E11" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
         <v>418</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="str">
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>392</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="str">
         <f>RIGHT(A12,LEN(A12)-FIND(": ",A12))</f>
-        <v xml:space="preserve"> CORR_0100</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v xml:space="preserve"> CORR_2300</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>389</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>418</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B13" t="str">
         <f>RIGHT(A13,LEN(A13)-FIND(": ",A13))</f>
-        <v xml:space="preserve"> CORR_0200</v>
+        <v xml:space="preserve"> CORR_2301</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -2626,7 +2643,7 @@
         <v>432</v>
       </c>
       <c r="F13">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>418</v>
@@ -2635,25 +2652,25 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B14" t="str">
         <f>RIGHT(A14,LEN(A14)-FIND(": ",A14))</f>
-        <v xml:space="preserve"> CORR_0300</v>
+        <v xml:space="preserve"> ELEV LOBBY_2200</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>388</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>432</v>
       </c>
       <c r="F14">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>418</v>
@@ -2662,1498 +2679,2263 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="str">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="3" t="str">
         <f>RIGHT(A15,LEN(A15)-FIND(": ",A15))</f>
-        <v xml:space="preserve"> CORR_0400</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>388</v>
-      </c>
-      <c r="E15" t="s">
+        <v xml:space="preserve"> ELEV LOBBY_P100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F15">
-        <v>125</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="3">
+        <v>205</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="str">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3" t="str">
         <f>RIGHT(A16,LEN(A16)-FIND(": ",A16))</f>
-        <v xml:space="preserve"> CORR_0500</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E16" t="s">
+        <v xml:space="preserve"> ELEV LOBBY_P200</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F16">
-        <v>125</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="3">
+        <v>205</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B17" t="str">
         <f>RIGHT(A17,LEN(A17)-FIND(": ",A17))</f>
-        <v xml:space="preserve"> CORR_2100</v>
+        <v xml:space="preserve"> ELEV CONTROL_2301</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>388</v>
       </c>
-      <c r="E17" t="s">
-        <v>432</v>
+      <c r="E17" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="F17">
-        <v>125</v>
-      </c>
-      <c r="G17" t="s">
-        <v>418</v>
-      </c>
-      <c r="I17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B18" t="str">
         <f>RIGHT(A18,LEN(A18)-FIND(": ",A18))</f>
-        <v xml:space="preserve"> CORR_2300</v>
+        <v xml:space="preserve"> ELEV CONTROL_2302</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>388</v>
       </c>
-      <c r="E18" t="s">
-        <v>432</v>
+      <c r="E18" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>418</v>
-      </c>
-      <c r="I18" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B19" t="str">
         <f>RIGHT(A19,LEN(A19)-FIND(": ",A19))</f>
-        <v xml:space="preserve"> CORR_2301</v>
+        <v xml:space="preserve"> RESTROOM_0100</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>388</v>
-      </c>
-      <c r="E19" t="s">
-        <v>432</v>
-      </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>418</v>
-      </c>
-      <c r="I19" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B20" t="str">
         <f>RIGHT(A20,LEN(A20)-FIND(": ",A20))</f>
-        <v xml:space="preserve"> ELEC_0300</v>
+        <v xml:space="preserve"> RESTROOM_2201</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="B21" t="str">
         <f>RIGHT(A21,LEN(A21)-FIND(": ",A21))</f>
-        <v xml:space="preserve"> ELEC_0400</v>
+        <v xml:space="preserve"> RESTROOM_2202</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="B22" t="str">
         <f>RIGHT(A22,LEN(A22)-FIND(": ",A22))</f>
-        <v xml:space="preserve"> ELEV CONTROL_2301</v>
+        <v xml:space="preserve"> UNIT_0201_4B</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
         <v>388</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>387</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>400</v>
+      </c>
+      <c r="J22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="B23" t="str">
         <f>RIGHT(A23,LEN(A23)-FIND(": ",A23))</f>
-        <v xml:space="preserve"> ELEV CONTROL_2302</v>
+        <v xml:space="preserve"> UNIT_0202</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
         <v>388</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>387</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>399</v>
+      </c>
+      <c r="J23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="B24" t="str">
         <f>RIGHT(A24,LEN(A24)-FIND(": ",A24))</f>
-        <v xml:space="preserve"> ELEV LOBBY_2200</v>
+        <v xml:space="preserve"> UNIT_0203</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
         <v>388</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F24">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>418</v>
+      <c r="E24" t="s">
+        <v>387</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B25" s="3" t="str">
+        <v>399</v>
+      </c>
+      <c r="J24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" t="str">
         <f>RIGHT(A25,LEN(A25)-FIND(": ",A25))</f>
-        <v xml:space="preserve"> ELEV LOBBY_P100</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F25" s="3">
-        <v>205</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="str">
+        <v xml:space="preserve"> UNIT_0204</v>
+      </c>
+      <c r="C25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>399</v>
+      </c>
+      <c r="J25" t="s">
+        <v>399</v>
+      </c>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" t="str">
         <f>RIGHT(A26,LEN(A26)-FIND(": ",A26))</f>
-        <v xml:space="preserve"> ELEV LOBBY_P200</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F26" s="3">
-        <v>205</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> UNIT_0205</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>399</v>
+      </c>
+      <c r="J26" t="s">
+        <v>399</v>
+      </c>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="B27" t="str">
         <f>RIGHT(A27,LEN(A27)-FIND(": ",A27))</f>
-        <v xml:space="preserve"> ELEV_0101</v>
+        <v xml:space="preserve"> UNIT_0206</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E27" t="s">
+        <v>387</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>399</v>
+      </c>
+      <c r="J27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="B28" t="str">
         <f>RIGHT(A28,LEN(A28)-FIND(": ",A28))</f>
-        <v xml:space="preserve"> ELEV_0102</v>
+        <v xml:space="preserve"> UNIT_0207</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E28" t="s">
+        <v>387</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="B29" t="str">
         <f>RIGHT(A29,LEN(A29)-FIND(": ",A29))</f>
-        <v xml:space="preserve"> ELEV_0201</v>
+        <v xml:space="preserve"> UNIT_0208</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E29" t="s">
+        <v>387</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>399</v>
+      </c>
+      <c r="J29" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="B30" t="str">
         <f>RIGHT(A30,LEN(A30)-FIND(": ",A30))</f>
-        <v xml:space="preserve"> ELEV_0202</v>
+        <v xml:space="preserve"> UNIT_0209_3B</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E30" t="s">
+        <v>387</v>
+      </c>
+      <c r="H30">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>400</v>
+      </c>
+      <c r="J30" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="B31" t="str">
         <f>RIGHT(A31,LEN(A31)-FIND(": ",A31))</f>
-        <v xml:space="preserve"> ELEV_0301</v>
+        <v xml:space="preserve"> UNIT_0210</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E31" t="s">
+        <v>387</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>399</v>
+      </c>
+      <c r="J31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B32" t="str">
         <f>RIGHT(A32,LEN(A32)-FIND(": ",A32))</f>
-        <v xml:space="preserve"> ELEV_0302</v>
+        <v xml:space="preserve"> UNIT_0211_2B</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E32" t="s">
+        <v>387</v>
+      </c>
+      <c r="H32">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>400</v>
+      </c>
+      <c r="J32" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="B33" t="str">
         <f>RIGHT(A33,LEN(A33)-FIND(": ",A33))</f>
-        <v xml:space="preserve"> ELEV_0401</v>
+        <v xml:space="preserve"> UNIT_0212</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E33" t="s">
+        <v>387</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>399</v>
+      </c>
+      <c r="J33" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="B34" t="str">
         <f>RIGHT(A34,LEN(A34)-FIND(": ",A34))</f>
-        <v xml:space="preserve"> ELEV_0402</v>
+        <v xml:space="preserve"> UNIT_0213</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E34" t="s">
+        <v>387</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>399</v>
+      </c>
+      <c r="J34" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="B35" t="str">
         <f>RIGHT(A35,LEN(A35)-FIND(": ",A35))</f>
-        <v xml:space="preserve"> ELEV_0501</v>
+        <v xml:space="preserve"> UNIT_0214</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E35" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>399</v>
+      </c>
+      <c r="J35" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="B36" t="str">
         <f>RIGHT(A36,LEN(A36)-FIND(": ",A36))</f>
-        <v xml:space="preserve"> ELEV_0502</v>
+        <v xml:space="preserve"> UNIT_0215</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E36" t="s">
+        <v>387</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>399</v>
+      </c>
+      <c r="J36" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="B37" t="str">
         <f>RIGHT(A37,LEN(A37)-FIND(": ",A37))</f>
-        <v xml:space="preserve"> ELEV_2101</v>
+        <v xml:space="preserve"> UNIT_0216</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E37" t="s">
+        <v>387</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
+        <v>399</v>
+      </c>
+      <c r="J37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="B38" t="str">
         <f>RIGHT(A38,LEN(A38)-FIND(": ",A38))</f>
-        <v xml:space="preserve"> ELEV_2102</v>
+        <v xml:space="preserve"> XFMR_0201</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>382</v>
       </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>400</v>
+      </c>
+      <c r="J38" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="B39" t="str">
         <f>RIGHT(A39,LEN(A39)-FIND(": ",A39))</f>
-        <v xml:space="preserve"> ELEV_2201</v>
+        <v xml:space="preserve"> UNIT_0217</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E39" t="s">
+        <v>387</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s">
+        <v>399</v>
+      </c>
+      <c r="J39" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="B40" t="str">
         <f>RIGHT(A40,LEN(A40)-FIND(": ",A40))</f>
-        <v xml:space="preserve"> ELEV_2202</v>
+        <v xml:space="preserve"> UNIT_0218</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D40" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E40" t="s">
+        <v>387</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>399</v>
+      </c>
+      <c r="J40" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="B41" t="str">
         <f>RIGHT(A41,LEN(A41)-FIND(": ",A41))</f>
-        <v xml:space="preserve"> ELEV_2301</v>
+        <v xml:space="preserve"> UNIT_0219_4B</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E41" t="s">
+        <v>387</v>
+      </c>
+      <c r="H41">
+        <v>90</v>
+      </c>
+      <c r="I41" t="s">
+        <v>400</v>
+      </c>
+      <c r="J41" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="B42" t="str">
         <f>RIGHT(A42,LEN(A42)-FIND(": ",A42))</f>
-        <v xml:space="preserve"> ELEV_2302</v>
+        <v xml:space="preserve"> UNIT_0301_4B</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D42" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E42" t="s">
+        <v>387</v>
+      </c>
+      <c r="H42">
+        <v>90</v>
+      </c>
+      <c r="I42" t="s">
+        <v>402</v>
+      </c>
+      <c r="J42" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="B43" t="str">
         <f>RIGHT(A43,LEN(A43)-FIND(": ",A43))</f>
-        <v xml:space="preserve"> ELEV_P101</v>
+        <v xml:space="preserve"> UNIT_0302</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E43" t="s">
+        <v>387</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>401</v>
+      </c>
+      <c r="J43" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="B44" t="str">
         <f>RIGHT(A44,LEN(A44)-FIND(": ",A44))</f>
-        <v xml:space="preserve"> ELEV_P102</v>
+        <v xml:space="preserve"> UNIT_0303</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E44" t="s">
+        <v>387</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s">
+        <v>401</v>
+      </c>
+      <c r="J44" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="B45" t="str">
         <f>RIGHT(A45,LEN(A45)-FIND(": ",A45))</f>
-        <v xml:space="preserve"> ELEV_P201</v>
+        <v xml:space="preserve"> UNIT_0304</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E45" t="s">
+        <v>387</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45" t="s">
+        <v>401</v>
+      </c>
+      <c r="J45" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="B46" t="str">
         <f>RIGHT(A46,LEN(A46)-FIND(": ",A46))</f>
-        <v xml:space="preserve"> ELEV_P202</v>
+        <v xml:space="preserve"> UNIT_0305</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E46" t="s">
+        <v>387</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="3" t="str">
+      <c r="A47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" t="str">
         <f>RIGHT(A47,LEN(A47)-FIND(": ",A47))</f>
-        <v xml:space="preserve"> FCC_0100</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>389</v>
-      </c>
+        <v xml:space="preserve"> UNIT_0306</v>
+      </c>
+      <c r="C47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" t="s">
+        <v>388</v>
+      </c>
+      <c r="E47" t="s">
+        <v>387</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47"/>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B48" s="3" t="str">
+      <c r="A48" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" t="str">
         <f>RIGHT(A48,LEN(A48)-FIND(": ",A48))</f>
-        <v xml:space="preserve"> LAUNDRY_0109</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>409</v>
-      </c>
+        <v xml:space="preserve"> UNIT_0307_3B</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" t="s">
+        <v>387</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B49" s="3" t="str">
+      <c r="A49" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" t="str">
         <f>RIGHT(A49,LEN(A49)-FIND(": ",A49))</f>
-        <v xml:space="preserve"> LOBBY_0101</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F49" s="3">
-        <f>85+215</f>
-        <v>300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>393</v>
-      </c>
+        <v xml:space="preserve"> UNIT_0308</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>388</v>
+      </c>
+      <c r="E49" t="s">
+        <v>387</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49"/>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B50" s="3" t="str">
+      <c r="A50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" t="str">
         <f>RIGHT(A50,LEN(A50)-FIND(": ",A50))</f>
-        <v xml:space="preserve"> MAIL_0101</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F50" s="3">
-        <v>20</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>393</v>
-      </c>
+        <v xml:space="preserve"> UNIT_0309_2B</v>
+      </c>
+      <c r="C50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" t="s">
+        <v>387</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K50"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="B51" t="str">
         <f>RIGHT(A51,LEN(A51)-FIND(": ",A51))</f>
-        <v xml:space="preserve"> MECH_0200</v>
+        <v xml:space="preserve"> UNIT_0310</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E51" t="s">
+        <v>387</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s">
+        <v>401</v>
+      </c>
+      <c r="J51" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B52" t="str">
         <f>RIGHT(A52,LEN(A52)-FIND(": ",A52))</f>
-        <v xml:space="preserve"> MECH_0300</v>
+        <v xml:space="preserve"> AMEN_0300</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F52">
+        <v>150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>418</v>
+      </c>
+      <c r="I52" t="s">
+        <v>402</v>
+      </c>
+      <c r="J52" t="s">
+        <v>402</v>
+      </c>
+      <c r="K52" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="B53" t="str">
         <f>RIGHT(A53,LEN(A53)-FIND(": ",A53))</f>
-        <v xml:space="preserve"> MECH_0400</v>
+        <v xml:space="preserve"> UNIT_0311</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E53" t="s">
+        <v>387</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s">
+        <v>401</v>
+      </c>
+      <c r="J53" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="B54" t="str">
         <f>RIGHT(A54,LEN(A54)-FIND(": ",A54))</f>
-        <v xml:space="preserve"> MECH_0500</v>
+        <v xml:space="preserve"> UNIT_0312</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E54" t="s">
+        <v>387</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J54" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="B55" t="str">
         <f>RIGHT(A55,LEN(A55)-FIND(": ",A55))</f>
-        <v xml:space="preserve"> MECH_2100</v>
+        <v xml:space="preserve"> UNIT_0313</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E55" t="s">
+        <v>387</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B56" s="3" t="str">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" t="str">
         <f>RIGHT(A56,LEN(A56)-FIND(": ",A56))</f>
-        <v xml:space="preserve"> OFFICE_0101</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F56" s="3">
-        <v>30</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>393</v>
-      </c>
+        <v xml:space="preserve"> UNIT_0314</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s">
+        <v>401</v>
+      </c>
+      <c r="J56" t="s">
+        <v>401</v>
+      </c>
+      <c r="K56"/>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="3" t="str">
+      <c r="A57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" t="str">
         <f>RIGHT(A57,LEN(A57)-FIND(": ",A57))</f>
-        <v xml:space="preserve"> PACKAGE_0100</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>120</v>
+        <v xml:space="preserve"> UNIT_0315</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>389</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3">
-        <v>25</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
-        <v>393</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="E57" t="s">
+        <v>387</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>401</v>
+      </c>
+      <c r="J57" t="s">
+        <v>401</v>
+      </c>
+      <c r="K57"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="B58" t="str">
         <f>RIGHT(A58,LEN(A58)-FIND(": ",A58))</f>
-        <v xml:space="preserve"> RESTROOM_0100</v>
+        <v xml:space="preserve"> UNIT_0316</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E58" t="s">
+        <v>387</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="I58" t="s">
+        <v>401</v>
+      </c>
+      <c r="J58" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="B59" t="str">
         <f>RIGHT(A59,LEN(A59)-FIND(": ",A59))</f>
-        <v xml:space="preserve"> RESTROOM_2201</v>
+        <v xml:space="preserve"> UNIT_0317_4B</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E59" t="s">
+        <v>387</v>
       </c>
       <c r="H59">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="I59" t="s">
+        <v>402</v>
+      </c>
+      <c r="J59" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="B60" t="str">
         <f>RIGHT(A60,LEN(A60)-FIND(": ",A60))</f>
-        <v xml:space="preserve"> RESTROOM_2202</v>
+        <v xml:space="preserve"> UNIT_0401_4B</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E60" t="s">
+        <v>387</v>
       </c>
       <c r="H60">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="I60" t="s">
+        <v>404</v>
+      </c>
+      <c r="J60" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="3" t="str">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" t="str">
         <f>RIGHT(A61,LEN(A61)-FIND(": ",A61))</f>
-        <v xml:space="preserve"> RETAIL_0100</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F61" s="3">
-        <v>480</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>441</v>
-      </c>
+        <v xml:space="preserve"> UNIT_0402</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>388</v>
+      </c>
+      <c r="E61" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>403</v>
+      </c>
+      <c r="J61" t="s">
+        <v>403</v>
+      </c>
+      <c r="K61"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="B62" t="str">
         <f>RIGHT(A62,LEN(A62)-FIND(": ",A62))</f>
-        <v xml:space="preserve"> STAIR_0101</v>
+        <v xml:space="preserve"> UNIT_0403</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E62" t="s">
+        <v>387</v>
+      </c>
+      <c r="H62">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s">
+        <v>403</v>
+      </c>
+      <c r="J62" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="B63" t="str">
         <f>RIGHT(A63,LEN(A63)-FIND(": ",A63))</f>
-        <v xml:space="preserve"> STAIR_0102</v>
+        <v xml:space="preserve"> UNIT_0404</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E63" t="s">
+        <v>387</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s">
+        <v>403</v>
+      </c>
+      <c r="J63" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="B64" t="str">
         <f>RIGHT(A64,LEN(A64)-FIND(": ",A64))</f>
-        <v xml:space="preserve"> STAIR_0201</v>
+        <v xml:space="preserve"> UNIT_0405</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E64" t="s">
+        <v>387</v>
+      </c>
+      <c r="H64">
+        <v>30</v>
+      </c>
+      <c r="I64" t="s">
+        <v>403</v>
+      </c>
+      <c r="J64" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="B65" t="str">
         <f>RIGHT(A65,LEN(A65)-FIND(": ",A65))</f>
-        <v xml:space="preserve"> STAIR_0202</v>
+        <v xml:space="preserve"> UNIT_0406</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D65" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E65" t="s">
+        <v>387</v>
+      </c>
+      <c r="H65">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s">
+        <v>403</v>
+      </c>
+      <c r="J65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="B66" t="str">
         <f>RIGHT(A66,LEN(A66)-FIND(": ",A66))</f>
-        <v xml:space="preserve"> STAIR_0301</v>
+        <v xml:space="preserve"> UNIT_0407_3B</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E66" t="s">
+        <v>387</v>
+      </c>
+      <c r="H66">
+        <v>55</v>
+      </c>
+      <c r="I66" t="s">
+        <v>404</v>
+      </c>
+      <c r="J66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="B67" t="str">
         <f>RIGHT(A67,LEN(A67)-FIND(": ",A67))</f>
-        <v xml:space="preserve"> STAIR_0302</v>
+        <v xml:space="preserve"> UNIT_0408</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D67" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E67" t="s">
+        <v>387</v>
+      </c>
+      <c r="H67">
+        <v>30</v>
+      </c>
+      <c r="I67" t="s">
+        <v>403</v>
+      </c>
+      <c r="J67" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="B68" t="str">
         <f>RIGHT(A68,LEN(A68)-FIND(": ",A68))</f>
-        <v xml:space="preserve"> STAIR_0401</v>
+        <v xml:space="preserve"> UNIT_0409_2B</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E68" t="s">
+        <v>387</v>
+      </c>
+      <c r="H68">
+        <v>55</v>
+      </c>
+      <c r="I68" t="s">
+        <v>404</v>
+      </c>
+      <c r="J68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="B69" t="str">
         <f>RIGHT(A69,LEN(A69)-FIND(": ",A69))</f>
-        <v xml:space="preserve"> STAIR_0402</v>
+        <v xml:space="preserve"> UNIT_0410</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E69" t="s">
+        <v>387</v>
+      </c>
+      <c r="H69">
+        <v>30</v>
+      </c>
+      <c r="I69" t="s">
+        <v>403</v>
+      </c>
+      <c r="J69" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="B70" t="str">
         <f>RIGHT(A70,LEN(A70)-FIND(": ",A70))</f>
-        <v xml:space="preserve"> STAIR_0501</v>
+        <v xml:space="preserve"> AMEN_0400</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F70">
+        <v>150</v>
+      </c>
+      <c r="G70" t="s">
+        <v>418</v>
+      </c>
+      <c r="I70" t="s">
+        <v>404</v>
+      </c>
+      <c r="J70" t="s">
+        <v>404</v>
+      </c>
+      <c r="K70" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="B71" t="str">
         <f>RIGHT(A71,LEN(A71)-FIND(": ",A71))</f>
-        <v xml:space="preserve"> STAIR_0502</v>
+        <v xml:space="preserve"> UNIT_0411</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E71" t="s">
+        <v>387</v>
+      </c>
+      <c r="H71">
+        <v>30</v>
+      </c>
+      <c r="I71" t="s">
+        <v>403</v>
+      </c>
+      <c r="J71" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="B72" t="str">
         <f>RIGHT(A72,LEN(A72)-FIND(": ",A72))</f>
-        <v xml:space="preserve"> STAIR_2101</v>
+        <v xml:space="preserve"> UNIT_0412</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E72" t="s">
+        <v>387</v>
+      </c>
+      <c r="H72">
+        <v>30</v>
+      </c>
+      <c r="I72" t="s">
+        <v>403</v>
+      </c>
+      <c r="J72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="B73" t="str">
         <f>RIGHT(A73,LEN(A73)-FIND(": ",A73))</f>
-        <v xml:space="preserve"> STAIR_2102</v>
+        <v xml:space="preserve"> UNIT_0413</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E73" t="s">
+        <v>387</v>
+      </c>
+      <c r="H73">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s">
+        <v>403</v>
+      </c>
+      <c r="J73" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="B74" t="str">
         <f>RIGHT(A74,LEN(A74)-FIND(": ",A74))</f>
-        <v xml:space="preserve"> STAIR_2201</v>
+        <v xml:space="preserve"> UNIT_0414</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E74" t="s">
+        <v>387</v>
+      </c>
+      <c r="H74">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s">
+        <v>403</v>
+      </c>
+      <c r="J74" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>383</v>
       </c>
       <c r="B75" t="str">
         <f>RIGHT(A75,LEN(A75)-FIND(": ",A75))</f>
-        <v xml:space="preserve"> STAIR_2202</v>
+        <v xml:space="preserve"> XFMR_0401</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>382</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>404</v>
+      </c>
+      <c r="J75" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="B76" t="str">
         <f>RIGHT(A76,LEN(A76)-FIND(": ",A76))</f>
-        <v xml:space="preserve"> STAIR_2301</v>
+        <v xml:space="preserve"> UNIT_0415</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D76" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E76" t="s">
+        <v>387</v>
+      </c>
+      <c r="H76">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s">
+        <v>403</v>
+      </c>
+      <c r="J76" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="B77" t="str">
         <f>RIGHT(A77,LEN(A77)-FIND(": ",A77))</f>
-        <v xml:space="preserve"> STAIR_2302</v>
+        <v xml:space="preserve"> UNIT_0416</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D77" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E77" t="s">
+        <v>387</v>
+      </c>
+      <c r="H77">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
+        <v>403</v>
+      </c>
+      <c r="J77" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="B78" t="str">
         <f>RIGHT(A78,LEN(A78)-FIND(": ",A78))</f>
-        <v xml:space="preserve"> STAIR_P101</v>
+        <v xml:space="preserve"> UNIT_0417_4B</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D78" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E78" t="s">
+        <v>387</v>
+      </c>
+      <c r="H78">
+        <v>90</v>
+      </c>
+      <c r="I78" t="s">
+        <v>404</v>
+      </c>
+      <c r="J78" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="B79" t="str">
         <f>RIGHT(A79,LEN(A79)-FIND(": ",A79))</f>
-        <v xml:space="preserve"> STAIR_P102</v>
+        <v xml:space="preserve"> UNIT_0501_4B</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E79" t="s">
+        <v>387</v>
+      </c>
+      <c r="H79">
+        <v>90</v>
+      </c>
+      <c r="I79" t="s">
+        <v>406</v>
+      </c>
+      <c r="J79" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="B80" t="str">
         <f>RIGHT(A80,LEN(A80)-FIND(": ",A80))</f>
-        <v xml:space="preserve"> STAIR_P201</v>
+        <v xml:space="preserve"> UNIT_0502</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D80" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E80" t="s">
+        <v>387</v>
+      </c>
+      <c r="H80">
+        <v>30</v>
+      </c>
+      <c r="I80" t="s">
+        <v>405</v>
+      </c>
+      <c r="J80" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>316</v>
       </c>
       <c r="B81" t="str">
         <f>RIGHT(A81,LEN(A81)-FIND(": ",A81))</f>
-        <v xml:space="preserve"> STAIR_P202</v>
+        <v xml:space="preserve"> UNIT_0503</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D81" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E81" t="s">
+        <v>387</v>
+      </c>
+      <c r="H81">
+        <v>30</v>
+      </c>
+      <c r="I81" t="s">
+        <v>405</v>
+      </c>
+      <c r="J81" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="B82" t="str">
         <f>RIGHT(A82,LEN(A82)-FIND(": ",A82))</f>
-        <v xml:space="preserve"> STOR_0100</v>
+        <v xml:space="preserve"> UNIT_0504</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E82" t="s">
+        <v>387</v>
+      </c>
+      <c r="H82">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s">
+        <v>405</v>
+      </c>
+      <c r="J82" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="B83" t="str">
         <f>RIGHT(A83,LEN(A83)-FIND(": ",A83))</f>
-        <v xml:space="preserve"> STOR_0101C</v>
+        <v xml:space="preserve"> UNIT_0505</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>389</v>
-      </c>
-      <c r="F83">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>418</v>
-      </c>
-      <c r="K83" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="E83" t="s">
+        <v>387</v>
+      </c>
+      <c r="H83">
+        <v>30</v>
+      </c>
+      <c r="I83" t="s">
+        <v>405</v>
+      </c>
+      <c r="J83" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="B84" t="str">
         <f>RIGHT(A84,LEN(A84)-FIND(": ",A84))</f>
-        <v xml:space="preserve"> STOR_0200</v>
+        <v xml:space="preserve"> UNIT_0506</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D84" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E84" t="s">
+        <v>387</v>
+      </c>
+      <c r="H84">
+        <v>30</v>
+      </c>
+      <c r="I84" t="s">
+        <v>405</v>
+      </c>
+      <c r="J84" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="B85" t="str">
         <f>RIGHT(A85,LEN(A85)-FIND(": ",A85))</f>
-        <v xml:space="preserve"> STOR_0300</v>
+        <v xml:space="preserve"> UNIT_0507_3B</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E85" t="s">
+        <v>387</v>
+      </c>
+      <c r="H85">
+        <v>55</v>
+      </c>
+      <c r="I85" t="s">
+        <v>406</v>
+      </c>
+      <c r="J85" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="B86" t="str">
         <f>RIGHT(A86,LEN(A86)-FIND(": ",A86))</f>
-        <v xml:space="preserve"> STOR_0400</v>
+        <v xml:space="preserve"> UNIT_0508</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D86" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E86" t="s">
+        <v>387</v>
+      </c>
+      <c r="H86">
+        <v>30</v>
+      </c>
+      <c r="I86" t="s">
+        <v>405</v>
+      </c>
+      <c r="J86" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="B87" t="str">
         <f>RIGHT(A87,LEN(A87)-FIND(": ",A87))</f>
-        <v xml:space="preserve"> STOR_0500</v>
+        <v xml:space="preserve"> UNIT_0509_2B</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D87" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E87" t="s">
+        <v>387</v>
+      </c>
+      <c r="H87">
+        <v>55</v>
+      </c>
+      <c r="I87" t="s">
+        <v>406</v>
+      </c>
+      <c r="J87" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="B88" t="str">
         <f>RIGHT(A88,LEN(A88)-FIND(": ",A88))</f>
-        <v xml:space="preserve"> STOR_2100</v>
+        <v xml:space="preserve"> UNIT_0510</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D88" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E88" t="s">
+        <v>387</v>
+      </c>
+      <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="I88" t="s">
+        <v>405</v>
+      </c>
+      <c r="J88" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>419</v>
       </c>
       <c r="B89" t="str">
         <f>RIGHT(A89,LEN(A89)-FIND(": ",A89))</f>
-        <v xml:space="preserve"> STOR_P100</v>
+        <v xml:space="preserve"> AMEN_0500</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F89">
+        <v>150</v>
+      </c>
+      <c r="G89" t="s">
+        <v>418</v>
+      </c>
+      <c r="I89" t="s">
+        <v>406</v>
+      </c>
+      <c r="J89" t="s">
+        <v>406</v>
+      </c>
+      <c r="K89" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="B90" t="str">
         <f>RIGHT(A90,LEN(A90)-FIND(": ",A90))</f>
-        <v xml:space="preserve"> STOR_P200</v>
+        <v xml:space="preserve"> UNIT_0511</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E90" t="s">
+        <v>387</v>
+      </c>
+      <c r="H90">
+        <v>30</v>
+      </c>
+      <c r="I90" t="s">
+        <v>405</v>
+      </c>
+      <c r="J90" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="B91" t="str">
         <f>RIGHT(A91,LEN(A91)-FIND(": ",A91))</f>
-        <v xml:space="preserve"> TRASH_0200</v>
+        <v xml:space="preserve"> UNIT_0512</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E91" t="s">
+        <v>387</v>
+      </c>
+      <c r="H91">
+        <v>30</v>
+      </c>
+      <c r="I91" t="s">
+        <v>405</v>
+      </c>
+      <c r="J91" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="B92" t="str">
         <f>RIGHT(A92,LEN(A92)-FIND(": ",A92))</f>
-        <v xml:space="preserve"> TRASH_0300</v>
+        <v xml:space="preserve"> UNIT_0513</v>
       </c>
       <c r="C92" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E92" t="s">
+        <v>387</v>
+      </c>
+      <c r="H92">
+        <v>30</v>
+      </c>
+      <c r="I92" t="s">
+        <v>405</v>
+      </c>
+      <c r="J92" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>197</v>
+        <v>338</v>
       </c>
       <c r="B93" t="str">
         <f>RIGHT(A93,LEN(A93)-FIND(": ",A93))</f>
-        <v xml:space="preserve"> TRASH_0400</v>
+        <v xml:space="preserve"> UNIT_0514</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E93" t="s">
+        <v>387</v>
+      </c>
+      <c r="H93">
+        <v>30</v>
+      </c>
+      <c r="I93" t="s">
+        <v>405</v>
+      </c>
+      <c r="J93" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>340</v>
       </c>
       <c r="B94" t="str">
         <f>RIGHT(A94,LEN(A94)-FIND(": ",A94))</f>
-        <v xml:space="preserve"> TRASH_0500</v>
+        <v xml:space="preserve"> UNIT_0515</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D94" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E94" t="s">
+        <v>387</v>
+      </c>
+      <c r="H94">
+        <v>30</v>
+      </c>
+      <c r="I94" t="s">
+        <v>405</v>
+      </c>
+      <c r="J94" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>342</v>
       </c>
       <c r="B95" t="str">
         <f>RIGHT(A95,LEN(A95)-FIND(": ",A95))</f>
-        <v xml:space="preserve"> TRASH_2100</v>
+        <v xml:space="preserve"> UNIT_0516</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D95" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E95" t="s">
+        <v>387</v>
+      </c>
+      <c r="H95">
+        <v>30</v>
+      </c>
+      <c r="I95" t="s">
+        <v>405</v>
+      </c>
+      <c r="J95" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>344</v>
       </c>
       <c r="B96" t="str">
         <f>RIGHT(A96,LEN(A96)-FIND(": ",A96))</f>
-        <v xml:space="preserve"> TRASH_2200</v>
+        <v xml:space="preserve"> UNIT_0517_4B</v>
       </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E96" t="s">
+        <v>387</v>
+      </c>
+      <c r="H96">
+        <v>90</v>
+      </c>
+      <c r="I96" t="s">
+        <v>406</v>
+      </c>
+      <c r="J96" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>205</v>
+        <v>346</v>
       </c>
       <c r="B97" t="str">
         <f>RIGHT(A97,LEN(A97)-FIND(": ",A97))</f>
-        <v xml:space="preserve"> UNIT_0201_4B</v>
+        <v xml:space="preserve"> UNIT_2101_4B</v>
       </c>
       <c r="C97" t="s">
         <v>207</v>
@@ -4165,22 +4947,22 @@
         <v>387</v>
       </c>
       <c r="H97">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I97" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J97" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="B98" t="str">
         <f>RIGHT(A98,LEN(A98)-FIND(": ",A98))</f>
-        <v xml:space="preserve"> UNIT_0202</v>
+        <v xml:space="preserve"> UNIT_2102</v>
       </c>
       <c r="C98" t="s">
         <v>207</v>
@@ -4195,19 +4977,19 @@
         <v>30</v>
       </c>
       <c r="I98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J98" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="B99" t="str">
         <f>RIGHT(A99,LEN(A99)-FIND(": ",A99))</f>
-        <v xml:space="preserve"> UNIT_0203</v>
+        <v xml:space="preserve"> UNIT_2103</v>
       </c>
       <c r="C99" t="s">
         <v>207</v>
@@ -4222,19 +5004,19 @@
         <v>30</v>
       </c>
       <c r="I99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J99" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="B100" t="str">
         <f>RIGHT(A100,LEN(A100)-FIND(": ",A100))</f>
-        <v xml:space="preserve"> UNIT_0204</v>
+        <v xml:space="preserve"> UNIT_2104</v>
       </c>
       <c r="C100" t="s">
         <v>207</v>
@@ -4249,19 +5031,19 @@
         <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J100" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>354</v>
       </c>
       <c r="B101" t="str">
         <f>RIGHT(A101,LEN(A101)-FIND(": ",A101))</f>
-        <v xml:space="preserve"> UNIT_0205</v>
+        <v xml:space="preserve"> UNIT_2105</v>
       </c>
       <c r="C101" t="s">
         <v>207</v>
@@ -4276,19 +5058,19 @@
         <v>30</v>
       </c>
       <c r="I101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J101" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>356</v>
       </c>
       <c r="B102" t="str">
         <f>RIGHT(A102,LEN(A102)-FIND(": ",A102))</f>
-        <v xml:space="preserve"> UNIT_0206</v>
+        <v xml:space="preserve"> UNIT_2106</v>
       </c>
       <c r="C102" t="s">
         <v>207</v>
@@ -4303,19 +5085,19 @@
         <v>30</v>
       </c>
       <c r="I102" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J102" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>218</v>
+        <v>358</v>
       </c>
       <c r="B103" t="str">
         <f>RIGHT(A103,LEN(A103)-FIND(": ",A103))</f>
-        <v xml:space="preserve"> UNIT_0207</v>
+        <v xml:space="preserve"> UNIT_2107_3B</v>
       </c>
       <c r="C103" t="s">
         <v>207</v>
@@ -4327,22 +5109,22 @@
         <v>387</v>
       </c>
       <c r="H103">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I103" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J103" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="B104" t="str">
         <f>RIGHT(A104,LEN(A104)-FIND(": ",A104))</f>
-        <v xml:space="preserve"> UNIT_0208</v>
+        <v xml:space="preserve"> UNIT_2108</v>
       </c>
       <c r="C104" t="s">
         <v>207</v>
@@ -4357,19 +5139,19 @@
         <v>30</v>
       </c>
       <c r="I104" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J104" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="B105" t="str">
         <f>RIGHT(A105,LEN(A105)-FIND(": ",A105))</f>
-        <v xml:space="preserve"> UNIT_0209_3B</v>
+        <v xml:space="preserve"> UNIT_2109_2B</v>
       </c>
       <c r="C105" t="s">
         <v>207</v>
@@ -4384,19 +5166,19 @@
         <v>55</v>
       </c>
       <c r="I105" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J105" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>364</v>
       </c>
       <c r="B106" t="str">
         <f>RIGHT(A106,LEN(A106)-FIND(": ",A106))</f>
-        <v xml:space="preserve"> UNIT_0210</v>
+        <v xml:space="preserve"> UNIT_2110</v>
       </c>
       <c r="C106" t="s">
         <v>207</v>
@@ -4411,46 +5193,52 @@
         <v>30</v>
       </c>
       <c r="I106" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J106" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="B107" t="str">
         <f>RIGHT(A107,LEN(A107)-FIND(": ",A107))</f>
-        <v xml:space="preserve"> UNIT_0211_2B</v>
+        <v xml:space="preserve"> AMEN_2100</v>
       </c>
       <c r="C107" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
         <v>388</v>
       </c>
-      <c r="E107" t="s">
-        <v>387</v>
-      </c>
-      <c r="H107">
-        <v>55</v>
+      <c r="E107" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F107">
+        <v>150</v>
+      </c>
+      <c r="G107" t="s">
+        <v>418</v>
       </c>
       <c r="I107" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J107" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="K107" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>228</v>
+        <v>366</v>
       </c>
       <c r="B108" t="str">
         <f>RIGHT(A108,LEN(A108)-FIND(": ",A108))</f>
-        <v xml:space="preserve"> UNIT_0212</v>
+        <v xml:space="preserve"> UNIT_2111</v>
       </c>
       <c r="C108" t="s">
         <v>207</v>
@@ -4465,19 +5253,19 @@
         <v>30</v>
       </c>
       <c r="I108" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J108" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>230</v>
+        <v>368</v>
       </c>
       <c r="B109" t="str">
         <f>RIGHT(A109,LEN(A109)-FIND(": ",A109))</f>
-        <v xml:space="preserve"> UNIT_0213</v>
+        <v xml:space="preserve"> UNIT_2112</v>
       </c>
       <c r="C109" t="s">
         <v>207</v>
@@ -4492,19 +5280,19 @@
         <v>30</v>
       </c>
       <c r="I109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J109" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>370</v>
       </c>
       <c r="B110" t="str">
         <f>RIGHT(A110,LEN(A110)-FIND(": ",A110))</f>
-        <v xml:space="preserve"> UNIT_0214</v>
+        <v xml:space="preserve"> UNIT_2113</v>
       </c>
       <c r="C110" t="s">
         <v>207</v>
@@ -4519,19 +5307,19 @@
         <v>30</v>
       </c>
       <c r="I110" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J110" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="B111" t="str">
         <f>RIGHT(A111,LEN(A111)-FIND(": ",A111))</f>
-        <v xml:space="preserve"> UNIT_0215</v>
+        <v xml:space="preserve"> UNIT_2114</v>
       </c>
       <c r="C111" t="s">
         <v>207</v>
@@ -4546,991 +5334,688 @@
         <v>30</v>
       </c>
       <c r="I111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J111" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>236</v>
-      </c>
-      <c r="B112" t="str">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B112" s="3" t="str">
         <f>RIGHT(A112,LEN(A112)-FIND(": ",A112))</f>
-        <v xml:space="preserve"> UNIT_0216</v>
-      </c>
-      <c r="C112" t="s">
-        <v>207</v>
-      </c>
-      <c r="D112" t="s">
-        <v>388</v>
-      </c>
-      <c r="E112" t="s">
-        <v>387</v>
-      </c>
-      <c r="H112">
-        <v>30</v>
-      </c>
-      <c r="I112" t="s">
-        <v>399</v>
-      </c>
-      <c r="J112" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>238</v>
-      </c>
-      <c r="B113" t="str">
+        <v xml:space="preserve"> AMEN_FITNESS_2202</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F112" s="3">
+        <v>300</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B113" s="3" t="str">
         <f>RIGHT(A113,LEN(A113)-FIND(": ",A113))</f>
-        <v xml:space="preserve"> UNIT_0217</v>
-      </c>
-      <c r="C113" t="s">
-        <v>207</v>
-      </c>
-      <c r="D113" t="s">
-        <v>388</v>
-      </c>
-      <c r="E113" t="s">
-        <v>387</v>
-      </c>
-      <c r="H113">
-        <v>30</v>
-      </c>
-      <c r="I113" t="s">
-        <v>399</v>
-      </c>
-      <c r="J113" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>240</v>
-      </c>
-      <c r="B114" t="str">
+        <v xml:space="preserve"> AMEN_2205</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F113" s="3">
+        <v>100</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B114" s="3" t="str">
         <f>RIGHT(A114,LEN(A114)-FIND(": ",A114))</f>
-        <v xml:space="preserve"> UNIT_0218</v>
-      </c>
-      <c r="C114" t="s">
-        <v>207</v>
-      </c>
-      <c r="D114" t="s">
-        <v>388</v>
-      </c>
-      <c r="E114" t="s">
-        <v>387</v>
-      </c>
-      <c r="H114">
-        <v>30</v>
-      </c>
-      <c r="I114" t="s">
-        <v>399</v>
-      </c>
-      <c r="J114" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>242</v>
-      </c>
-      <c r="B115" t="str">
+        <v xml:space="preserve"> AMEN_SKYLOUNGE_2201</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F114" s="3">
+        <v>535</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B115" s="3" t="str">
         <f>RIGHT(A115,LEN(A115)-FIND(": ",A115))</f>
-        <v xml:space="preserve"> UNIT_0219_4B</v>
-      </c>
-      <c r="C115" t="s">
-        <v>207</v>
-      </c>
-      <c r="D115" t="s">
-        <v>388</v>
-      </c>
-      <c r="E115" t="s">
-        <v>387</v>
-      </c>
-      <c r="H115">
-        <v>75</v>
-      </c>
-      <c r="I115" t="s">
-        <v>400</v>
-      </c>
-      <c r="J115" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>244</v>
-      </c>
-      <c r="B116" t="str">
+        <v xml:space="preserve"> AMEN_2204</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F115" s="3">
+        <v>255</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116" s="3" t="str">
         <f>RIGHT(A116,LEN(A116)-FIND(": ",A116))</f>
-        <v xml:space="preserve"> UNIT_0301_4B</v>
-      </c>
-      <c r="C116" t="s">
-        <v>207</v>
-      </c>
-      <c r="D116" t="s">
-        <v>388</v>
-      </c>
-      <c r="E116" t="s">
-        <v>387</v>
-      </c>
-      <c r="H116">
-        <v>75</v>
-      </c>
-      <c r="I116" t="s">
-        <v>402</v>
-      </c>
-      <c r="J116" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>246</v>
-      </c>
-      <c r="B117" t="str">
+        <v xml:space="preserve"> AMEN_SUNROOM_2203</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F116" s="3">
+        <v>120</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B117" s="3" t="str">
         <f>RIGHT(A117,LEN(A117)-FIND(": ",A117))</f>
-        <v xml:space="preserve"> UNIT_0302</v>
-      </c>
-      <c r="C117" t="s">
-        <v>207</v>
-      </c>
-      <c r="D117" t="s">
-        <v>388</v>
-      </c>
-      <c r="E117" t="s">
-        <v>387</v>
-      </c>
-      <c r="H117">
-        <v>30</v>
-      </c>
-      <c r="I117" t="s">
-        <v>401</v>
-      </c>
-      <c r="J117" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>248</v>
-      </c>
-      <c r="B118" t="str">
+        <v xml:space="preserve"> AMEN_STORAGE_2204</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="3" t="str">
         <f>RIGHT(A118,LEN(A118)-FIND(": ",A118))</f>
-        <v xml:space="preserve"> UNIT_0303</v>
-      </c>
-      <c r="C118" t="s">
-        <v>207</v>
+        <v xml:space="preserve"> CORR_0100</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>388</v>
-      </c>
-      <c r="E118" t="s">
-        <v>387</v>
-      </c>
-      <c r="H118">
-        <v>30</v>
-      </c>
-      <c r="I118" t="s">
-        <v>401</v>
-      </c>
-      <c r="J118" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="B119" t="str">
         <f>RIGHT(A119,LEN(A119)-FIND(": ",A119))</f>
-        <v xml:space="preserve"> UNIT_0304</v>
+        <v xml:space="preserve"> ELEC_0300</v>
       </c>
       <c r="C119" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>388</v>
-      </c>
-      <c r="E119" t="s">
-        <v>387</v>
-      </c>
-      <c r="H119">
-        <v>30</v>
-      </c>
-      <c r="I119" t="s">
-        <v>401</v>
-      </c>
-      <c r="J119" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="B120" t="str">
         <f>RIGHT(A120,LEN(A120)-FIND(": ",A120))</f>
-        <v xml:space="preserve"> UNIT_0305</v>
+        <v xml:space="preserve"> ELEC_0400</v>
       </c>
       <c r="C120" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>388</v>
-      </c>
-      <c r="E120" t="s">
-        <v>387</v>
-      </c>
-      <c r="H120">
-        <v>30</v>
-      </c>
-      <c r="I120" t="s">
-        <v>401</v>
-      </c>
-      <c r="J120" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>254</v>
+        <v>54</v>
       </c>
       <c r="B121" t="str">
         <f>RIGHT(A121,LEN(A121)-FIND(": ",A121))</f>
-        <v xml:space="preserve"> UNIT_0306</v>
+        <v xml:space="preserve"> ELEV_0101</v>
       </c>
       <c r="C121" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D121" t="s">
-        <v>388</v>
-      </c>
-      <c r="E121" t="s">
-        <v>387</v>
-      </c>
-      <c r="H121">
-        <v>30</v>
-      </c>
-      <c r="I121" t="s">
-        <v>401</v>
-      </c>
-      <c r="J121" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>57</v>
       </c>
       <c r="B122" t="str">
         <f>RIGHT(A122,LEN(A122)-FIND(": ",A122))</f>
-        <v xml:space="preserve"> UNIT_0307_3B</v>
+        <v xml:space="preserve"> ELEV_0102</v>
       </c>
       <c r="C122" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D122" t="s">
-        <v>388</v>
-      </c>
-      <c r="E122" t="s">
-        <v>387</v>
-      </c>
-      <c r="H122">
-        <v>55</v>
-      </c>
-      <c r="I122" t="s">
-        <v>402</v>
-      </c>
-      <c r="J122" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="B123" t="str">
         <f>RIGHT(A123,LEN(A123)-FIND(": ",A123))</f>
-        <v xml:space="preserve"> UNIT_0308</v>
+        <v xml:space="preserve"> ELEV_0201</v>
       </c>
       <c r="C123" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D123" t="s">
-        <v>388</v>
-      </c>
-      <c r="E123" t="s">
-        <v>387</v>
-      </c>
-      <c r="H123">
-        <v>30</v>
-      </c>
-      <c r="I123" t="s">
-        <v>401</v>
-      </c>
-      <c r="J123" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="B124" t="str">
         <f>RIGHT(A124,LEN(A124)-FIND(": ",A124))</f>
-        <v xml:space="preserve"> UNIT_0309_2B</v>
+        <v xml:space="preserve"> ELEV_0202</v>
       </c>
       <c r="C124" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D124" t="s">
-        <v>388</v>
-      </c>
-      <c r="E124" t="s">
-        <v>387</v>
-      </c>
-      <c r="H124">
-        <v>55</v>
-      </c>
-      <c r="I124" t="s">
-        <v>402</v>
-      </c>
-      <c r="J124" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="B125" t="str">
         <f>RIGHT(A125,LEN(A125)-FIND(": ",A125))</f>
-        <v xml:space="preserve"> UNIT_0310</v>
+        <v xml:space="preserve"> ELEV_0301</v>
       </c>
       <c r="C125" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D125" t="s">
-        <v>388</v>
-      </c>
-      <c r="E125" t="s">
-        <v>387</v>
-      </c>
-      <c r="H125">
-        <v>30</v>
-      </c>
-      <c r="I125" t="s">
-        <v>401</v>
-      </c>
-      <c r="J125" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="B126" t="str">
         <f>RIGHT(A126,LEN(A126)-FIND(": ",A126))</f>
-        <v xml:space="preserve"> UNIT_0311</v>
+        <v xml:space="preserve"> ELEV_0302</v>
       </c>
       <c r="C126" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D126" t="s">
-        <v>388</v>
-      </c>
-      <c r="E126" t="s">
-        <v>387</v>
-      </c>
-      <c r="H126">
-        <v>30</v>
-      </c>
-      <c r="I126" t="s">
-        <v>401</v>
-      </c>
-      <c r="J126" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="B127" t="str">
         <f>RIGHT(A127,LEN(A127)-FIND(": ",A127))</f>
-        <v xml:space="preserve"> UNIT_0312</v>
+        <v xml:space="preserve"> ELEV_0401</v>
       </c>
       <c r="C127" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D127" t="s">
-        <v>388</v>
-      </c>
-      <c r="E127" t="s">
-        <v>387</v>
-      </c>
-      <c r="H127">
-        <v>30</v>
-      </c>
-      <c r="I127" t="s">
-        <v>401</v>
-      </c>
-      <c r="J127" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>268</v>
+        <v>69</v>
       </c>
       <c r="B128" t="str">
         <f>RIGHT(A128,LEN(A128)-FIND(": ",A128))</f>
-        <v xml:space="preserve"> UNIT_0313</v>
+        <v xml:space="preserve"> ELEV_0402</v>
       </c>
       <c r="C128" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D128" t="s">
-        <v>388</v>
-      </c>
-      <c r="E128" t="s">
-        <v>387</v>
-      </c>
-      <c r="H128">
-        <v>30</v>
-      </c>
-      <c r="I128" t="s">
-        <v>401</v>
-      </c>
-      <c r="J128" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="B129" t="str">
         <f>RIGHT(A129,LEN(A129)-FIND(": ",A129))</f>
-        <v xml:space="preserve"> UNIT_0314</v>
+        <v xml:space="preserve"> ELEV_0501</v>
       </c>
       <c r="C129" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D129" t="s">
-        <v>388</v>
-      </c>
-      <c r="E129" t="s">
-        <v>387</v>
-      </c>
-      <c r="H129">
-        <v>30</v>
-      </c>
-      <c r="I129" t="s">
-        <v>401</v>
-      </c>
-      <c r="J129" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="B130" t="str">
         <f>RIGHT(A130,LEN(A130)-FIND(": ",A130))</f>
-        <v xml:space="preserve"> UNIT_0315</v>
+        <v xml:space="preserve"> ELEV_0502</v>
       </c>
       <c r="C130" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D130" t="s">
-        <v>388</v>
-      </c>
-      <c r="E130" t="s">
-        <v>387</v>
-      </c>
-      <c r="H130">
-        <v>30</v>
-      </c>
-      <c r="I130" t="s">
-        <v>401</v>
-      </c>
-      <c r="J130" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="B131" t="str">
         <f>RIGHT(A131,LEN(A131)-FIND(": ",A131))</f>
-        <v xml:space="preserve"> UNIT_0316</v>
+        <v xml:space="preserve"> ELEV_2101</v>
       </c>
       <c r="C131" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D131" t="s">
-        <v>388</v>
-      </c>
-      <c r="E131" t="s">
-        <v>387</v>
-      </c>
-      <c r="H131">
-        <v>30</v>
-      </c>
-      <c r="I131" t="s">
-        <v>401</v>
-      </c>
-      <c r="J131" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="B132" t="str">
         <f>RIGHT(A132,LEN(A132)-FIND(": ",A132))</f>
-        <v xml:space="preserve"> UNIT_0317_4B</v>
+        <v xml:space="preserve"> ELEV_2102</v>
       </c>
       <c r="C132" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D132" t="s">
-        <v>388</v>
-      </c>
-      <c r="E132" t="s">
-        <v>387</v>
-      </c>
-      <c r="H132">
-        <v>75</v>
-      </c>
-      <c r="I132" t="s">
-        <v>402</v>
-      </c>
-      <c r="J132" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="B133" t="str">
         <f>RIGHT(A133,LEN(A133)-FIND(": ",A133))</f>
-        <v xml:space="preserve"> UNIT_0401_4B</v>
+        <v xml:space="preserve"> ELEV_2201</v>
       </c>
       <c r="C133" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D133" t="s">
-        <v>388</v>
-      </c>
-      <c r="E133" t="s">
-        <v>387</v>
-      </c>
-      <c r="H133">
-        <v>75</v>
-      </c>
-      <c r="I133" t="s">
-        <v>404</v>
-      </c>
-      <c r="J133" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="B134" t="str">
         <f>RIGHT(A134,LEN(A134)-FIND(": ",A134))</f>
-        <v xml:space="preserve"> UNIT_0402</v>
+        <v xml:space="preserve"> ELEV_2202</v>
       </c>
       <c r="C134" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D134" t="s">
-        <v>388</v>
-      </c>
-      <c r="E134" t="s">
-        <v>387</v>
-      </c>
-      <c r="H134">
-        <v>30</v>
-      </c>
-      <c r="I134" t="s">
-        <v>403</v>
-      </c>
-      <c r="J134" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="B135" t="str">
         <f>RIGHT(A135,LEN(A135)-FIND(": ",A135))</f>
-        <v xml:space="preserve"> UNIT_0403</v>
+        <v xml:space="preserve"> ELEV_2301</v>
       </c>
       <c r="C135" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D135" t="s">
-        <v>388</v>
-      </c>
-      <c r="E135" t="s">
-        <v>387</v>
-      </c>
-      <c r="H135">
-        <v>30</v>
-      </c>
-      <c r="I135" t="s">
-        <v>403</v>
-      </c>
-      <c r="J135" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="B136" t="str">
         <f>RIGHT(A136,LEN(A136)-FIND(": ",A136))</f>
-        <v xml:space="preserve"> UNIT_0404</v>
+        <v xml:space="preserve"> ELEV_2302</v>
       </c>
       <c r="C136" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D136" t="s">
-        <v>388</v>
-      </c>
-      <c r="E136" t="s">
-        <v>387</v>
-      </c>
-      <c r="H136">
-        <v>30</v>
-      </c>
-      <c r="I136" t="s">
-        <v>403</v>
-      </c>
-      <c r="J136" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="B137" t="str">
         <f>RIGHT(A137,LEN(A137)-FIND(": ",A137))</f>
-        <v xml:space="preserve"> UNIT_0405</v>
+        <v xml:space="preserve"> ELEV_P101</v>
       </c>
       <c r="C137" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D137" t="s">
-        <v>388</v>
-      </c>
-      <c r="E137" t="s">
-        <v>387</v>
-      </c>
-      <c r="H137">
-        <v>30</v>
-      </c>
-      <c r="I137" t="s">
-        <v>403</v>
-      </c>
-      <c r="J137" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="B138" t="str">
         <f>RIGHT(A138,LEN(A138)-FIND(": ",A138))</f>
-        <v xml:space="preserve"> UNIT_0406</v>
+        <v xml:space="preserve"> ELEV_P102</v>
       </c>
       <c r="C138" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D138" t="s">
-        <v>388</v>
-      </c>
-      <c r="E138" t="s">
-        <v>387</v>
-      </c>
-      <c r="H138">
-        <v>30</v>
-      </c>
-      <c r="I138" t="s">
-        <v>403</v>
-      </c>
-      <c r="J138" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="B139" t="str">
         <f>RIGHT(A139,LEN(A139)-FIND(": ",A139))</f>
-        <v xml:space="preserve"> UNIT_0407_3B</v>
+        <v xml:space="preserve"> ELEV_P201</v>
       </c>
       <c r="C139" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D139" t="s">
-        <v>388</v>
-      </c>
-      <c r="E139" t="s">
-        <v>387</v>
-      </c>
-      <c r="H139">
-        <v>55</v>
-      </c>
-      <c r="I139" t="s">
-        <v>404</v>
-      </c>
-      <c r="J139" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="B140" t="str">
         <f>RIGHT(A140,LEN(A140)-FIND(": ",A140))</f>
-        <v xml:space="preserve"> UNIT_0408</v>
+        <v xml:space="preserve"> ELEV_P202</v>
       </c>
       <c r="C140" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D140" t="s">
-        <v>388</v>
-      </c>
-      <c r="E140" t="s">
-        <v>387</v>
-      </c>
-      <c r="H140">
-        <v>30</v>
-      </c>
-      <c r="I140" t="s">
-        <v>403</v>
-      </c>
-      <c r="J140" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>294</v>
-      </c>
-      <c r="B141" t="str">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B141" s="3" t="str">
         <f>RIGHT(A141,LEN(A141)-FIND(": ",A141))</f>
-        <v xml:space="preserve"> UNIT_0409_2B</v>
-      </c>
-      <c r="C141" t="s">
-        <v>207</v>
-      </c>
-      <c r="D141" t="s">
-        <v>388</v>
-      </c>
-      <c r="E141" t="s">
-        <v>387</v>
-      </c>
-      <c r="H141">
-        <v>55</v>
-      </c>
-      <c r="I141" t="s">
-        <v>404</v>
-      </c>
-      <c r="J141" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> FCC_0100</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="B142" t="str">
         <f>RIGHT(A142,LEN(A142)-FIND(": ",A142))</f>
-        <v xml:space="preserve"> UNIT_0410</v>
+        <v xml:space="preserve"> MECH_0200</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D142" t="s">
-        <v>388</v>
-      </c>
-      <c r="E142" t="s">
-        <v>387</v>
-      </c>
-      <c r="H142">
-        <v>30</v>
-      </c>
-      <c r="I142" t="s">
-        <v>403</v>
-      </c>
-      <c r="J142" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="B143" t="str">
         <f>RIGHT(A143,LEN(A143)-FIND(": ",A143))</f>
-        <v xml:space="preserve"> UNIT_0411</v>
+        <v xml:space="preserve"> MECH_0300</v>
       </c>
       <c r="C143" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D143" t="s">
-        <v>388</v>
-      </c>
-      <c r="E143" t="s">
-        <v>387</v>
-      </c>
-      <c r="H143">
-        <v>30</v>
-      </c>
-      <c r="I143" t="s">
-        <v>403</v>
-      </c>
-      <c r="J143" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="B144" t="str">
         <f>RIGHT(A144,LEN(A144)-FIND(": ",A144))</f>
-        <v xml:space="preserve"> UNIT_0412</v>
+        <v xml:space="preserve"> MECH_0400</v>
       </c>
       <c r="C144" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D144" t="s">
-        <v>388</v>
-      </c>
-      <c r="E144" t="s">
-        <v>387</v>
-      </c>
-      <c r="H144">
-        <v>30</v>
-      </c>
-      <c r="I144" t="s">
-        <v>403</v>
-      </c>
-      <c r="J144" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>302</v>
+        <v>114</v>
       </c>
       <c r="B145" t="str">
         <f>RIGHT(A145,LEN(A145)-FIND(": ",A145))</f>
-        <v xml:space="preserve"> UNIT_0413</v>
+        <v xml:space="preserve"> MECH_0500</v>
       </c>
       <c r="C145" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D145" t="s">
-        <v>388</v>
-      </c>
-      <c r="E145" t="s">
-        <v>387</v>
-      </c>
-      <c r="H145">
-        <v>30</v>
-      </c>
-      <c r="I145" t="s">
-        <v>403</v>
-      </c>
-      <c r="J145" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="B146" t="str">
         <f>RIGHT(A146,LEN(A146)-FIND(": ",A146))</f>
-        <v xml:space="preserve"> UNIT_0414</v>
+        <v xml:space="preserve"> MECH_2100</v>
       </c>
       <c r="C146" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="D146" t="s">
-        <v>388</v>
-      </c>
-      <c r="E146" t="s">
-        <v>387</v>
-      </c>
-      <c r="H146">
-        <v>30</v>
-      </c>
-      <c r="I146" t="s">
-        <v>403</v>
-      </c>
-      <c r="J146" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>306</v>
-      </c>
-      <c r="B147" t="str">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B147" s="3" t="str">
         <f>RIGHT(A147,LEN(A147)-FIND(": ",A147))</f>
-        <v xml:space="preserve"> UNIT_0415</v>
-      </c>
-      <c r="C147" t="s">
-        <v>207</v>
+        <v xml:space="preserve"> PACKAGE_0100</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D147" t="s">
-        <v>388</v>
-      </c>
-      <c r="E147" t="s">
-        <v>387</v>
-      </c>
-      <c r="H147">
-        <v>30</v>
-      </c>
-      <c r="I147" t="s">
-        <v>403</v>
-      </c>
-      <c r="J147" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3">
+        <v>25</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="B148" t="str">
         <f>RIGHT(A148,LEN(A148)-FIND(": ",A148))</f>
-        <v xml:space="preserve"> UNIT_0416</v>
+        <v xml:space="preserve"> UNIT_2115</v>
       </c>
       <c r="C148" t="s">
         <v>207</v>
@@ -5545,19 +6030,19 @@
         <v>30</v>
       </c>
       <c r="I148" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="J148" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="B149" t="str">
         <f>RIGHT(A149,LEN(A149)-FIND(": ",A149))</f>
-        <v xml:space="preserve"> UNIT_0417_4B</v>
+        <v xml:space="preserve"> UNIT_2116</v>
       </c>
       <c r="C149" t="s">
         <v>207</v>
@@ -5569,22 +6054,22 @@
         <v>387</v>
       </c>
       <c r="H149">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I149" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J149" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="B150" t="str">
         <f>RIGHT(A150,LEN(A150)-FIND(": ",A150))</f>
-        <v xml:space="preserve"> UNIT_0501_4B</v>
+        <v xml:space="preserve"> UNIT_2117_4B</v>
       </c>
       <c r="C150" t="s">
         <v>207</v>
@@ -5596,969 +6081,561 @@
         <v>387</v>
       </c>
       <c r="H150">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I150" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="J150" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="B151" t="str">
         <f>RIGHT(A151,LEN(A151)-FIND(": ",A151))</f>
-        <v xml:space="preserve"> UNIT_0502</v>
+        <v xml:space="preserve"> STAIR_0101</v>
       </c>
       <c r="C151" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D151" t="s">
-        <v>388</v>
-      </c>
-      <c r="E151" t="s">
-        <v>387</v>
-      </c>
-      <c r="H151">
-        <v>30</v>
-      </c>
-      <c r="I151" t="s">
-        <v>405</v>
-      </c>
-      <c r="J151" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="B152" t="str">
         <f>RIGHT(A152,LEN(A152)-FIND(": ",A152))</f>
-        <v xml:space="preserve"> UNIT_0503</v>
+        <v xml:space="preserve"> STAIR_0102</v>
       </c>
       <c r="C152" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D152" t="s">
-        <v>388</v>
-      </c>
-      <c r="E152" t="s">
-        <v>387</v>
-      </c>
-      <c r="H152">
-        <v>30</v>
-      </c>
-      <c r="I152" t="s">
-        <v>405</v>
-      </c>
-      <c r="J152" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="B153" t="str">
         <f>RIGHT(A153,LEN(A153)-FIND(": ",A153))</f>
-        <v xml:space="preserve"> UNIT_0504</v>
+        <v xml:space="preserve"> STAIR_0201</v>
       </c>
       <c r="C153" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D153" t="s">
-        <v>388</v>
-      </c>
-      <c r="E153" t="s">
-        <v>387</v>
-      </c>
-      <c r="H153">
-        <v>30</v>
-      </c>
-      <c r="I153" t="s">
-        <v>405</v>
-      </c>
-      <c r="J153" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>320</v>
+        <v>141</v>
       </c>
       <c r="B154" t="str">
         <f>RIGHT(A154,LEN(A154)-FIND(": ",A154))</f>
-        <v xml:space="preserve"> UNIT_0505</v>
+        <v xml:space="preserve"> STAIR_0202</v>
       </c>
       <c r="C154" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D154" t="s">
-        <v>388</v>
-      </c>
-      <c r="E154" t="s">
-        <v>387</v>
-      </c>
-      <c r="H154">
-        <v>30</v>
-      </c>
-      <c r="I154" t="s">
-        <v>405</v>
-      </c>
-      <c r="J154" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>322</v>
+        <v>143</v>
       </c>
       <c r="B155" t="str">
         <f>RIGHT(A155,LEN(A155)-FIND(": ",A155))</f>
-        <v xml:space="preserve"> UNIT_0506</v>
+        <v xml:space="preserve"> STAIR_0301</v>
       </c>
       <c r="C155" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D155" t="s">
-        <v>388</v>
-      </c>
-      <c r="E155" t="s">
-        <v>387</v>
-      </c>
-      <c r="H155">
-        <v>30</v>
-      </c>
-      <c r="I155" t="s">
-        <v>405</v>
-      </c>
-      <c r="J155" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>324</v>
+        <v>145</v>
       </c>
       <c r="B156" t="str">
         <f>RIGHT(A156,LEN(A156)-FIND(": ",A156))</f>
-        <v xml:space="preserve"> UNIT_0507_3B</v>
+        <v xml:space="preserve"> STAIR_0302</v>
       </c>
       <c r="C156" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D156" t="s">
-        <v>388</v>
-      </c>
-      <c r="E156" t="s">
-        <v>387</v>
-      </c>
-      <c r="H156">
-        <v>55</v>
-      </c>
-      <c r="I156" t="s">
-        <v>406</v>
-      </c>
-      <c r="J156" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="B157" t="str">
         <f>RIGHT(A157,LEN(A157)-FIND(": ",A157))</f>
-        <v xml:space="preserve"> UNIT_0508</v>
+        <v xml:space="preserve"> STAIR_0401</v>
       </c>
       <c r="C157" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D157" t="s">
-        <v>388</v>
-      </c>
-      <c r="E157" t="s">
-        <v>387</v>
-      </c>
-      <c r="H157">
-        <v>30</v>
-      </c>
-      <c r="I157" t="s">
-        <v>405</v>
-      </c>
-      <c r="J157" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c r="B158" t="str">
         <f>RIGHT(A158,LEN(A158)-FIND(": ",A158))</f>
-        <v xml:space="preserve"> UNIT_0509_2B</v>
+        <v xml:space="preserve"> STAIR_0402</v>
       </c>
       <c r="C158" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D158" t="s">
-        <v>388</v>
-      </c>
-      <c r="E158" t="s">
-        <v>387</v>
-      </c>
-      <c r="H158">
-        <v>55</v>
-      </c>
-      <c r="I158" t="s">
-        <v>406</v>
-      </c>
-      <c r="J158" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>330</v>
+        <v>151</v>
       </c>
       <c r="B159" t="str">
         <f>RIGHT(A159,LEN(A159)-FIND(": ",A159))</f>
-        <v xml:space="preserve"> UNIT_0510</v>
+        <v xml:space="preserve"> STAIR_0501</v>
       </c>
       <c r="C159" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D159" t="s">
-        <v>388</v>
-      </c>
-      <c r="E159" t="s">
-        <v>387</v>
-      </c>
-      <c r="H159">
-        <v>30</v>
-      </c>
-      <c r="I159" t="s">
-        <v>405</v>
-      </c>
-      <c r="J159" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="B160" t="str">
         <f>RIGHT(A160,LEN(A160)-FIND(": ",A160))</f>
-        <v xml:space="preserve"> UNIT_0511</v>
+        <v xml:space="preserve"> STAIR_0502</v>
       </c>
       <c r="C160" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D160" t="s">
-        <v>388</v>
-      </c>
-      <c r="E160" t="s">
-        <v>387</v>
-      </c>
-      <c r="H160">
-        <v>30</v>
-      </c>
-      <c r="I160" t="s">
-        <v>405</v>
-      </c>
-      <c r="J160" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="B161" t="str">
         <f>RIGHT(A161,LEN(A161)-FIND(": ",A161))</f>
-        <v xml:space="preserve"> UNIT_0512</v>
+        <v xml:space="preserve"> STAIR_2101</v>
       </c>
       <c r="C161" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D161" t="s">
-        <v>388</v>
-      </c>
-      <c r="E161" t="s">
-        <v>387</v>
-      </c>
-      <c r="H161">
-        <v>30</v>
-      </c>
-      <c r="I161" t="s">
-        <v>405</v>
-      </c>
-      <c r="J161" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>336</v>
+        <v>157</v>
       </c>
       <c r="B162" t="str">
         <f>RIGHT(A162,LEN(A162)-FIND(": ",A162))</f>
-        <v xml:space="preserve"> UNIT_0513</v>
+        <v xml:space="preserve"> STAIR_2102</v>
       </c>
       <c r="C162" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D162" t="s">
-        <v>388</v>
-      </c>
-      <c r="E162" t="s">
-        <v>387</v>
-      </c>
-      <c r="H162">
-        <v>30</v>
-      </c>
-      <c r="I162" t="s">
-        <v>405</v>
-      </c>
-      <c r="J162" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="B163" t="str">
         <f>RIGHT(A163,LEN(A163)-FIND(": ",A163))</f>
-        <v xml:space="preserve"> UNIT_0514</v>
+        <v xml:space="preserve"> STAIR_2201</v>
       </c>
       <c r="C163" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D163" t="s">
-        <v>388</v>
-      </c>
-      <c r="E163" t="s">
-        <v>387</v>
-      </c>
-      <c r="H163">
-        <v>30</v>
-      </c>
-      <c r="I163" t="s">
-        <v>405</v>
-      </c>
-      <c r="J163" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="B164" t="str">
         <f>RIGHT(A164,LEN(A164)-FIND(": ",A164))</f>
-        <v xml:space="preserve"> UNIT_0515</v>
+        <v xml:space="preserve"> STAIR_2202</v>
       </c>
       <c r="C164" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D164" t="s">
-        <v>388</v>
-      </c>
-      <c r="E164" t="s">
-        <v>387</v>
-      </c>
-      <c r="H164">
-        <v>30</v>
-      </c>
-      <c r="I164" t="s">
-        <v>405</v>
-      </c>
-      <c r="J164" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="B165" t="str">
         <f>RIGHT(A165,LEN(A165)-FIND(": ",A165))</f>
-        <v xml:space="preserve"> UNIT_0516</v>
+        <v xml:space="preserve"> STAIR_2301</v>
       </c>
       <c r="C165" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D165" t="s">
-        <v>388</v>
-      </c>
-      <c r="E165" t="s">
-        <v>387</v>
-      </c>
-      <c r="H165">
-        <v>30</v>
-      </c>
-      <c r="I165" t="s">
-        <v>405</v>
-      </c>
-      <c r="J165" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="B166" t="str">
         <f>RIGHT(A166,LEN(A166)-FIND(": ",A166))</f>
-        <v xml:space="preserve"> UNIT_0517_4B</v>
+        <v xml:space="preserve"> STAIR_2302</v>
       </c>
       <c r="C166" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D166" t="s">
-        <v>388</v>
-      </c>
-      <c r="E166" t="s">
-        <v>387</v>
-      </c>
-      <c r="H166">
-        <v>75</v>
-      </c>
-      <c r="I166" t="s">
-        <v>406</v>
-      </c>
-      <c r="J166" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="B167" t="str">
         <f>RIGHT(A167,LEN(A167)-FIND(": ",A167))</f>
-        <v xml:space="preserve"> UNIT_2101_4B</v>
+        <v xml:space="preserve"> STAIR_P101</v>
       </c>
       <c r="C167" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D167" t="s">
-        <v>388</v>
-      </c>
-      <c r="E167" t="s">
-        <v>387</v>
-      </c>
-      <c r="H167">
-        <v>75</v>
-      </c>
-      <c r="I167" t="s">
-        <v>397</v>
-      </c>
-      <c r="J167" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="B168" t="str">
         <f>RIGHT(A168,LEN(A168)-FIND(": ",A168))</f>
-        <v xml:space="preserve"> UNIT_2102</v>
+        <v xml:space="preserve"> STAIR_P102</v>
       </c>
       <c r="C168" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D168" t="s">
-        <v>388</v>
-      </c>
-      <c r="E168" t="s">
-        <v>387</v>
-      </c>
-      <c r="H168">
-        <v>30</v>
-      </c>
-      <c r="I168" t="s">
-        <v>398</v>
-      </c>
-      <c r="J168" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>350</v>
+        <v>171</v>
       </c>
       <c r="B169" t="str">
         <f>RIGHT(A169,LEN(A169)-FIND(": ",A169))</f>
-        <v xml:space="preserve"> UNIT_2103</v>
+        <v xml:space="preserve"> STAIR_P201</v>
       </c>
       <c r="C169" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D169" t="s">
-        <v>388</v>
-      </c>
-      <c r="E169" t="s">
-        <v>387</v>
-      </c>
-      <c r="H169">
-        <v>30</v>
-      </c>
-      <c r="I169" t="s">
-        <v>398</v>
-      </c>
-      <c r="J169" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="B170" t="str">
         <f>RIGHT(A170,LEN(A170)-FIND(": ",A170))</f>
-        <v xml:space="preserve"> UNIT_2104</v>
+        <v xml:space="preserve"> STAIR_P202</v>
       </c>
       <c r="C170" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D170" t="s">
-        <v>388</v>
-      </c>
-      <c r="E170" t="s">
-        <v>387</v>
-      </c>
-      <c r="H170">
-        <v>30</v>
-      </c>
-      <c r="I170" t="s">
-        <v>398</v>
-      </c>
-      <c r="J170" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="B171" t="str">
         <f>RIGHT(A171,LEN(A171)-FIND(": ",A171))</f>
-        <v xml:space="preserve"> UNIT_2105</v>
+        <v xml:space="preserve"> STOR_0100</v>
       </c>
       <c r="C171" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D171" t="s">
-        <v>388</v>
-      </c>
-      <c r="E171" t="s">
-        <v>387</v>
-      </c>
-      <c r="H171">
-        <v>30</v>
-      </c>
-      <c r="I171" t="s">
-        <v>398</v>
-      </c>
-      <c r="J171" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="B172" t="str">
         <f>RIGHT(A172,LEN(A172)-FIND(": ",A172))</f>
-        <v xml:space="preserve"> UNIT_2106</v>
+        <v xml:space="preserve"> STOR_0101C</v>
       </c>
       <c r="C172" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D172" t="s">
-        <v>388</v>
-      </c>
-      <c r="E172" t="s">
-        <v>387</v>
-      </c>
-      <c r="H172">
-        <v>30</v>
-      </c>
-      <c r="I172" t="s">
-        <v>398</v>
-      </c>
-      <c r="J172" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="F172">
+        <v>15</v>
+      </c>
+      <c r="G172" t="s">
+        <v>418</v>
+      </c>
+      <c r="K172" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="B173" t="str">
         <f>RIGHT(A173,LEN(A173)-FIND(": ",A173))</f>
-        <v xml:space="preserve"> UNIT_2107_3B</v>
+        <v xml:space="preserve"> STOR_0200</v>
       </c>
       <c r="C173" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D173" t="s">
-        <v>388</v>
-      </c>
-      <c r="E173" t="s">
-        <v>387</v>
-      </c>
-      <c r="H173">
-        <v>55</v>
-      </c>
-      <c r="I173" t="s">
-        <v>397</v>
-      </c>
-      <c r="J173" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="B174" t="str">
         <f>RIGHT(A174,LEN(A174)-FIND(": ",A174))</f>
-        <v xml:space="preserve"> UNIT_2108</v>
+        <v xml:space="preserve"> STOR_0300</v>
       </c>
       <c r="C174" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>388</v>
-      </c>
-      <c r="E174" t="s">
-        <v>387</v>
-      </c>
-      <c r="H174">
-        <v>30</v>
-      </c>
-      <c r="I174" t="s">
-        <v>398</v>
-      </c>
-      <c r="J174" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="B175" t="str">
         <f>RIGHT(A175,LEN(A175)-FIND(": ",A175))</f>
-        <v xml:space="preserve"> UNIT_2109_2B</v>
+        <v xml:space="preserve"> STOR_0400</v>
       </c>
       <c r="C175" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D175" t="s">
-        <v>388</v>
-      </c>
-      <c r="E175" t="s">
-        <v>387</v>
-      </c>
-      <c r="H175">
-        <v>55</v>
-      </c>
-      <c r="I175" t="s">
-        <v>397</v>
-      </c>
-      <c r="J175" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="B176" t="str">
         <f>RIGHT(A176,LEN(A176)-FIND(": ",A176))</f>
-        <v xml:space="preserve"> UNIT_2110</v>
+        <v xml:space="preserve"> STOR_0500</v>
       </c>
       <c r="C176" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D176" t="s">
-        <v>388</v>
-      </c>
-      <c r="E176" t="s">
-        <v>387</v>
-      </c>
-      <c r="H176">
-        <v>30</v>
-      </c>
-      <c r="I176" t="s">
-        <v>398</v>
-      </c>
-      <c r="J176" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="B177" t="str">
         <f>RIGHT(A177,LEN(A177)-FIND(": ",A177))</f>
-        <v xml:space="preserve"> UNIT_2111</v>
+        <v xml:space="preserve"> STOR_2100</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D177" t="s">
-        <v>388</v>
-      </c>
-      <c r="E177" t="s">
-        <v>387</v>
-      </c>
-      <c r="H177">
-        <v>30</v>
-      </c>
-      <c r="I177" t="s">
-        <v>398</v>
-      </c>
-      <c r="J177" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>368</v>
+        <v>188</v>
       </c>
       <c r="B178" t="str">
         <f>RIGHT(A178,LEN(A178)-FIND(": ",A178))</f>
-        <v xml:space="preserve"> UNIT_2112</v>
+        <v xml:space="preserve"> STOR_P100</v>
       </c>
       <c r="C178" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D178" t="s">
-        <v>388</v>
-      </c>
-      <c r="E178" t="s">
-        <v>387</v>
-      </c>
-      <c r="H178">
-        <v>30</v>
-      </c>
-      <c r="I178" t="s">
-        <v>398</v>
-      </c>
-      <c r="J178" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="B179" t="str">
         <f>RIGHT(A179,LEN(A179)-FIND(": ",A179))</f>
-        <v xml:space="preserve"> UNIT_2113</v>
+        <v xml:space="preserve"> STOR_P200</v>
       </c>
       <c r="C179" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D179" t="s">
-        <v>388</v>
-      </c>
-      <c r="E179" t="s">
-        <v>387</v>
-      </c>
-      <c r="H179">
-        <v>30</v>
-      </c>
-      <c r="I179" t="s">
-        <v>398</v>
-      </c>
-      <c r="J179" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>372</v>
+        <v>192</v>
       </c>
       <c r="B180" t="str">
         <f>RIGHT(A180,LEN(A180)-FIND(": ",A180))</f>
-        <v xml:space="preserve"> UNIT_2114</v>
+        <v xml:space="preserve"> TRASH_0200</v>
       </c>
       <c r="C180" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D180" t="s">
-        <v>388</v>
-      </c>
-      <c r="E180" t="s">
-        <v>387</v>
-      </c>
-      <c r="H180">
-        <v>30</v>
-      </c>
-      <c r="I180" t="s">
-        <v>398</v>
-      </c>
-      <c r="J180" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>374</v>
+        <v>195</v>
       </c>
       <c r="B181" t="str">
         <f>RIGHT(A181,LEN(A181)-FIND(": ",A181))</f>
-        <v xml:space="preserve"> UNIT_2115</v>
+        <v xml:space="preserve"> TRASH_0300</v>
       </c>
       <c r="C181" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D181" t="s">
-        <v>388</v>
-      </c>
-      <c r="E181" t="s">
-        <v>387</v>
-      </c>
-      <c r="H181">
-        <v>30</v>
-      </c>
-      <c r="I181" t="s">
-        <v>398</v>
-      </c>
-      <c r="J181" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>376</v>
+        <v>197</v>
       </c>
       <c r="B182" t="str">
         <f>RIGHT(A182,LEN(A182)-FIND(": ",A182))</f>
-        <v xml:space="preserve"> UNIT_2116</v>
+        <v xml:space="preserve"> TRASH_0400</v>
       </c>
       <c r="C182" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D182" t="s">
-        <v>388</v>
-      </c>
-      <c r="E182" t="s">
-        <v>387</v>
-      </c>
-      <c r="H182">
-        <v>30</v>
-      </c>
-      <c r="I182" t="s">
-        <v>398</v>
-      </c>
-      <c r="J182" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>378</v>
+        <v>199</v>
       </c>
       <c r="B183" t="str">
         <f>RIGHT(A183,LEN(A183)-FIND(": ",A183))</f>
-        <v xml:space="preserve"> UNIT_2117_4B</v>
+        <v xml:space="preserve"> TRASH_0500</v>
       </c>
       <c r="C183" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D183" t="s">
-        <v>388</v>
-      </c>
-      <c r="E183" t="s">
-        <v>387</v>
-      </c>
-      <c r="H183">
-        <v>75</v>
-      </c>
-      <c r="I183" t="s">
-        <v>397</v>
-      </c>
-      <c r="J183" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>380</v>
+        <v>201</v>
       </c>
       <c r="B184" t="str">
         <f>RIGHT(A184,LEN(A184)-FIND(": ",A184))</f>
-        <v xml:space="preserve"> XFMR_0201</v>
+        <v xml:space="preserve"> TRASH_2100</v>
       </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>194</v>
       </c>
       <c r="D184" t="s">
-        <v>388</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184" t="s">
-        <v>400</v>
-      </c>
-      <c r="J184" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>383</v>
+        <v>203</v>
       </c>
       <c r="B185" t="str">
         <f>RIGHT(A185,LEN(A185)-FIND(": ",A185))</f>
-        <v xml:space="preserve"> XFMR_0401</v>
+        <v xml:space="preserve"> TRASH_2200</v>
       </c>
       <c r="C185" t="s">
-        <v>382</v>
+        <v>194</v>
       </c>
       <c r="D185" t="s">
-        <v>388</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185" t="s">
-        <v>404</v>
-      </c>
-      <c r="J185" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K185" xr:uid="{BF9669FC-7E78-4001-A010-806875128FA3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K185">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="100"/>
+        <filter val="30"/>
+        <filter val="50"/>
+        <filter val="55"/>
+        <filter val="90"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:K150">
       <sortCondition ref="A1:A185"/>
     </sortState>
   </autoFilter>
